--- a/Unity/Assets/Config/Excel/AbilityConfig/TimelineConfig/TimelineCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TimelineConfig/TimelineCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\TimelineConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9D9A16-D29A-4719-8099-761AE77E4313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CB1B40-37CD-4C88-B19A-57047684D793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="2388" windowWidth="17280" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -159,14 +159,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Action_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PlayAnimator_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -176,6 +168,48 @@
   </si>
   <si>
     <t>*nodes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallSelectLast</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallAutoUnit</t>
+  </si>
+  <si>
+    <t>false,false,false,100,360,1</t>
+  </si>
+  <si>
+    <t>$type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action事件id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象选择器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象选择器参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeElapsed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>action_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionCallParam</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -251,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -303,6 +337,17 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -321,7 +366,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -348,6 +393,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -625,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J8" sqref="J8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -638,10 +692,10 @@
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="7" width="13.77734375" customWidth="1"/>
-    <col min="8" max="9" width="25.21875" customWidth="1"/>
+    <col min="8" max="11" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -660,11 +714,11 @@
         <v>15</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="11"/>
-      <c r="J1"/>
-      <c r="K1"/>
+        <v>21</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="11"/>
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1"/>
@@ -681,8 +735,10 @@
       <c r="Y1"/>
       <c r="Z1"/>
       <c r="AA1"/>
-    </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB1"/>
+      <c r="AC1"/>
+    </row>
+    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -692,10 +748,16 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
-      <c r="J2"/>
-      <c r="K2"/>
+      <c r="H2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="11"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
@@ -712,8 +774,10 @@
       <c r="Y2"/>
       <c r="Z2"/>
       <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB2"/>
+      <c r="AC2"/>
+    </row>
+    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -734,9 +798,9 @@
       <c r="H3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3"/>
-      <c r="K3"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="13"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
@@ -753,23 +817,27 @@
       <c r="Y3"/>
       <c r="Z3"/>
       <c r="AA3"/>
-    </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4"/>
-      <c r="K4"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+    </row>
+    <row r="4" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
@@ -786,33 +854,25 @@
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5"/>
-      <c r="K5"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+    </row>
+    <row r="5" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
@@ -829,117 +889,202 @@
       <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="AB5"/>
+      <c r="AC5"/>
+    </row>
+    <row r="6" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D6" t="str">
-        <f>B6&amp;"_"&amp;C6</f>
+      <c r="D7" t="str">
+        <f>B7&amp;"_"&amp;C7</f>
         <v>Timeline_1</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8">
-        <v>2</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="8">
+        <v>2</v>
+      </c>
       <c r="H7" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="str">
-        <f>B8&amp;"_"&amp;C8</f>
-        <v>Timeline_2</v>
-      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="8">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
+      <c r="D9" t="str">
+        <f>B9&amp;"_"&amp;C9</f>
+        <v>Timeline_2</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
+      <c r="G9" s="8">
+        <v>2</v>
+      </c>
       <c r="H9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" t="str">
-        <f>B10&amp;"_"&amp;C10</f>
-        <v>Timeline_3</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
       <c r="E10" s="7"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="8">
-        <v>2</v>
-      </c>
+      <c r="G10" s="8"/>
       <c r="H10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="str">
+        <f>B11&amp;"_"&amp;C11</f>
+        <v>Timeline_3</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="8">
+        <v>2</v>
+      </c>
       <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8">
         <v>1</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I12" s="9" t="s">
         <v>20</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/TimelineConfig/TimelineCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TimelineConfig/TimelineCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\TimelineConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CB1B40-37CD-4C88-B19A-57047684D793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7629171D-AD52-4445-AF79-21A793EC9FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -682,7 +682,7 @@
   <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:K8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -751,7 +751,7 @@
       <c r="H2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="10" t="s">

--- a/Unity/Assets/Config/Excel/AbilityConfig/TimelineConfig/TimelineCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TimelineConfig/TimelineCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\TimelineConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7629171D-AD52-4445-AF79-21A793EC9FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9FBAA7-7E51-4796-A34E-542F2355FC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -210,6 +210,14 @@
   </si>
   <si>
     <t>actionCallParam</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +389,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
@@ -390,18 +404,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -682,7 +690,7 @@
   <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -713,12 +721,12 @@
       <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="13" t="s">
         <v>21</v>
       </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
-      <c r="K1" s="11"/>
+      <c r="K1" s="15"/>
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1"/>
@@ -748,16 +756,16 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="11"/>
+      <c r="K2" s="15"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
@@ -795,12 +803,12 @@
       <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="13"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
@@ -830,12 +838,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="16" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="L4"/>
@@ -1024,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>23</v>
@@ -1071,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>23</v>

--- a/Unity/Assets/Config/Excel/AbilityConfig/TimelineConfig/TimelineCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TimelineConfig/TimelineCfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\TimelineConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TimelineConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9FBAA7-7E51-4796-A34E-542F2355FC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0971091E-BCF3-45AF-82D5-12223B4E3289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
   <si>
     <t>##var</t>
   </si>
@@ -175,12 +175,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ActionCallAutoUnit</t>
-  </si>
-  <si>
-    <t>false,false,false,100,360,1</t>
-  </si>
-  <si>
     <t>$type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -217,8 +211,116 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FireBullet_3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>ActionCallAutoUnitWhenUmbellate</t>
+  </si>
+  <si>
+    <t>1;false;false;"";0,0,0;0,0,0;false;true;true;100;360</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallAutoUnitWhenRectangle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;false;false;"";0,0,0;0,0,0;false;true;10;6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FaceTo_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>delayTime</t>
+  </si>
+  <si>
+    <t>延迟多久后触发action</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallAutoSelf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddBuff_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffStackCountCondition;eq;4&amp;BuffTagTypeCondition;eq;BuffTagType1|AttributeCondition;gt;MaxHpAdd;4&amp;ProbabilityCondition;eq;50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionCondition1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionCondition2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件2(cond11&amp;cond12|cond21&amp;cond22)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件1(cond11&amp;cond12|cond21&amp;cond22)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HoverTank1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_HoverTank1</t>
+  </si>
+  <si>
+    <t>CreateEffect_HoverTankFireShow1</t>
+  </si>
+  <si>
+    <t>MachineGunTower1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaserTower_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyPylon_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RocketTower_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateEffect_MachineGunLvl1Effect_1</t>
+  </si>
+  <si>
+    <t>CreateEffect_EneryPylon_PFX1</t>
+  </si>
+  <si>
+    <t>CreateEffect_LaserFireEffect1</t>
+  </si>
+  <si>
+    <t>FireBullet_RocketProjectile_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_One1</t>
   </si>
 </sst>
 </file>
@@ -687,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -700,10 +802,13 @@
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="7" width="13.77734375" customWidth="1"/>
-    <col min="8" max="11" width="25.21875" customWidth="1"/>
+    <col min="8" max="10" width="25.21875" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" customWidth="1"/>
+    <col min="13" max="14" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -726,10 +831,10 @@
       </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
-      <c r="K1" s="15"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="15"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -745,8 +850,11 @@
       <c r="AA1"/>
       <c r="AB1"/>
       <c r="AC1"/>
-    </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+    </row>
+    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -757,18 +865,24 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="15"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
+      <c r="N2" s="15"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -784,34 +898,31 @@
       <c r="AA2"/>
       <c r="AB2"/>
       <c r="AC2"/>
-    </row>
-    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+    </row>
+    <row r="3" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -827,28 +938,37 @@
       <c r="AA3"/>
       <c r="AB3"/>
       <c r="AC3"/>
-    </row>
-    <row r="4" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+    </row>
+    <row r="4" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="18"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
@@ -864,8 +984,11 @@
       <c r="AA4"/>
       <c r="AB4"/>
       <c r="AC4"/>
-    </row>
-    <row r="5" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+    </row>
+    <row r="5" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -881,9 +1004,9 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
@@ -899,8 +1022,11 @@
       <c r="AA5"/>
       <c r="AB5"/>
       <c r="AC5"/>
-    </row>
-    <row r="6" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+    </row>
+    <row r="6" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -922,17 +1048,23 @@
         <v>17</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
@@ -948,8 +1080,11 @@
       <c r="AA6"/>
       <c r="AB6"/>
       <c r="AC6"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -968,131 +1103,601 @@
       <c r="H7" s="8">
         <v>0</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="K7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="str">
-        <f>B9&amp;"_"&amp;C9</f>
-        <v>Timeline_2</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="8">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
+      <c r="D10" t="str">
+        <f>B10&amp;"_"&amp;C10</f>
+        <v>Timeline_2</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="8"/>
+      <c r="G10" s="8">
+        <v>2</v>
+      </c>
       <c r="H10" s="8">
-        <v>1</v>
-      </c>
-      <c r="I10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="str">
-        <f>B11&amp;"_"&amp;C11</f>
-        <v>Timeline_3</v>
-      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
       <c r="E11" s="7"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="8">
-        <v>2</v>
-      </c>
+      <c r="G11" s="8"/>
       <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="str">
+        <f>B12&amp;"_"&amp;C12</f>
+        <v>Timeline_3</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
+      <c r="G12" s="8">
+        <v>2</v>
+      </c>
       <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8">
         <v>1</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="D15" t="str">
+        <f>B15&amp;"_"&amp;C15</f>
+        <v>Timeline_Player1</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="8">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="str">
+        <f>B17&amp;"_"&amp;C17</f>
+        <v>Timeline_Player2</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="8">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="str">
+        <f>B18&amp;"_"&amp;C18</f>
+        <v>Timeline_Player3</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="8">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="str">
+        <f>B19&amp;"_"&amp;C19</f>
+        <v>Timeline_RocketTower_1</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="8">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I20" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="str">
+        <f>B21&amp;"_"&amp;C21</f>
+        <v>Timeline_MachineGunTower1</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="8">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I23" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="str">
+        <f>B24&amp;"_"&amp;C24</f>
+        <v>Timeline_LaserTower_0</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="8">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I26" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="str">
+        <f>B27&amp;"_"&amp;C27</f>
+        <v>Timeline_EnergyPylon_2</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="8">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I28" s="8">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I29" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="str">
+        <f>B30&amp;"_"&amp;C30</f>
+        <v>Timeline_HoverTank1</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="8">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="8">
+        <v>0</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I31" s="8">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I32" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/TimelineConfig/TimelineCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TimelineConfig/TimelineCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TimelineConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA609AA-0FC2-4188-AC81-430EB916C55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55A0096-BB20-495C-8F90-3E7925BB0A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="89">
   <si>
     <t>##var</t>
   </si>
@@ -231,10 +231,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AddBuff_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BuffStackCountCondition;eq;4&amp;BuffTagTypeCondition;eq;BuffTagType1|AttributeCondition;gt;MaxHpAdd;4&amp;ProbabilityCondition;eq;50</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -262,9 +258,6 @@
     <t>AttackArea_HoverTank1</t>
   </si>
   <si>
-    <t>CreateEffect_HoverTankFireShow1</t>
-  </si>
-  <si>
     <t>MachineGunTower1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -279,15 +272,6 @@
   <si>
     <t>RocketTower_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateEffect_MachineGunLvl1Effect_1</t>
-  </si>
-  <si>
-    <t>CreateEffect_EneryPylon_PFX1</t>
-  </si>
-  <si>
-    <t>CreateEffect_LaserFireEffect1</t>
   </si>
   <si>
     <t>FireBullet_RocketProjectile_1</t>
@@ -401,34 +385,64 @@
     <t>FaceTo_1</t>
   </si>
   <si>
-    <t>CreateEffect_PlayerSolo1_Fire</t>
-  </si>
-  <si>
-    <t>CreateEffect_PlayerAoe1_Fire</t>
-  </si>
-  <si>
-    <t>CreateEffect_EnemySolo1_Fire</t>
-  </si>
-  <si>
-    <t>FireBullet_PlayerSolo1</t>
-  </si>
-  <si>
-    <t>FireBullet_PlayerAoe1</t>
-  </si>
-  <si>
     <t>FireBullet_EnemySolo1</t>
   </si>
   <si>
-    <t>AddBuff_Line1</t>
-  </si>
-  <si>
-    <t>AddBuff_Circle1</t>
-  </si>
-  <si>
-    <t>false;1;false;false;"";0,0,0;0,0,0;false;true;true;100;360</t>
-  </si>
-  <si>
-    <t>false;1;false;false;"";0,0,0;0,0,0;false;true;10;6</t>
+    <t>ActionCallAutoUnitOne</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_PlayerSolo1</t>
+  </si>
+  <si>
+    <t>ActionCallAutoUnitOne</t>
+  </si>
+  <si>
+    <t>AttackArea_PlayerAoe1First</t>
+  </si>
+  <si>
+    <t>false;1;false;false;"";0,0,0;0,0,0;false;true;true;100;360;false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>false;1;false;false;"";0,0,0;0,0,0;false;true;10;6;false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_1</t>
+  </si>
+  <si>
+    <t>BuffAdd_Line1</t>
+  </si>
+  <si>
+    <t>BuffAdd_Circle1</t>
+  </si>
+  <si>
+    <t>EffectCreate_MachineGunLvl1Effect_1</t>
+  </si>
+  <si>
+    <t>EffectCreate_LaserFireEffect1</t>
+  </si>
+  <si>
+    <t>EffectCreate_EneryPylon_PFX1</t>
+  </si>
+  <si>
+    <t>EffectCreate_HoverTankFireShow1</t>
+  </si>
+  <si>
+    <t>EffectCreate_PlayerSolo1_Fire</t>
+  </si>
+  <si>
+    <t>EffectCreate_PlayerSolo1_Flash</t>
+  </si>
+  <si>
+    <t>EffectCreate_PlayerAoe1_Fire</t>
+  </si>
+  <si>
+    <t>EffectCreate_PlayerAoe1_Flash</t>
+  </si>
+  <si>
+    <t>EffectCreate_EnemySolo1_Fire</t>
   </si>
 </sst>
 </file>
@@ -483,7 +497,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,6 +513,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,7 +604,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -620,6 +640,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
@@ -917,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I22" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -958,17 +984,17 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -984,21 +1010,21 @@
         <v>24</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="15"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1040,15 +1066,15 @@
       <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="20"/>
     </row>
     <row r="5" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -1075,10 +1101,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -1099,19 +1125,19 @@
         <v>34</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1140,7 +1166,7 @@
         <v>18</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
@@ -1181,7 +1207,7 @@
         <v>28</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1215,7 +1241,7 @@
         <v>28</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1237,7 +1263,7 @@
         <v>28</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1271,7 +1297,7 @@
         <v>28</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1293,7 +1319,7 @@
         <v>28</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1350,7 +1376,7 @@
         <v>28</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1364,13 +1390,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -1396,13 +1422,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
@@ -1428,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1444,7 +1470,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" s="1" t="str">
         <f>B19&amp;"_"&amp;C19</f>
@@ -1476,7 +1502,7 @@
         <v>0.2</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1490,7 +1516,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1" t="str">
         <f>B21&amp;"_"&amp;C21</f>
@@ -1522,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1538,7 +1564,7 @@
         <v>0.2</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1552,7 +1578,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1" t="str">
         <f>B24&amp;"_"&amp;C24</f>
@@ -1584,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1600,7 +1626,7 @@
         <v>0.2</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -1614,7 +1640,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D27" s="1" t="str">
         <f>B27&amp;"_"&amp;C27</f>
@@ -1646,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1662,7 +1688,7 @@
         <v>0.2</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1676,7 +1702,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="1" t="str">
         <f>B30&amp;"_"&amp;C30</f>
@@ -1708,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -1724,7 +1750,7 @@
         <v>0.2</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -1738,17 +1764,17 @@
         <v>13</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D33" s="1" t="str">
         <f>B33&amp;"_"&amp;C33</f>
         <v>Timeline_PlayerSolo1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -1760,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>21</v>
@@ -1775,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>35</v>
@@ -1792,146 +1818,115 @@
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="M35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N35" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N36" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="14" t="str">
+        <f t="shared" ref="D37" si="0">B37&amp;"_"&amp;C37</f>
+        <v>Timeline_PlayerAoe1</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="14">
+        <v>0</v>
+      </c>
+      <c r="H37" s="14">
+        <v>0</v>
+      </c>
+      <c r="I37" s="14">
+        <v>0</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M37" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N35" s="2"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="1" t="str">
-        <f t="shared" ref="D36" si="0">B36&amp;"_"&amp;C36</f>
-        <v>Timeline_PlayerAoe1</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1" t="s">
+      <c r="N37" s="13"/>
+    </row>
+    <row r="38" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="H38" s="14">
+        <v>0</v>
+      </c>
+      <c r="I38" s="14">
+        <v>0</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N38" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="14">
+        <v>0</v>
+      </c>
+      <c r="I39" s="14">
+        <v>0</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N39" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="14">
+        <v>0</v>
+      </c>
+      <c r="I40" s="14">
+        <v>0</v>
+      </c>
+      <c r="J40" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="M36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N36" s="2"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N37" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="1" t="str">
-        <f>B39&amp;"_"&amp;C39</f>
-        <v>Timeline_PlayerLine1</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N39" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="1" t="str">
-        <f>B40&amp;"_"&amp;C40</f>
-        <v>Timeline_PlayerCircle1</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="M40" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="N40" s="2" t="b">
         <v>0</v>
@@ -1942,44 +1937,65 @@
         <v>13</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D41" s="1" t="str">
         <f>B41&amp;"_"&amp;C41</f>
-        <v>Timeline_EnemySolo1</v>
+        <v>Timeline_PlayerLine1</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N41" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f>B42&amp;"_"&amp;C42</f>
+        <v>Timeline_PlayerCircle1</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N41" s="2"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F42" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
       <c r="H42" s="1">
         <v>0</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>77</v>
+      <c r="J42" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>35</v>
@@ -1989,6 +2005,25 @@
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f>B43&amp;"_"&amp;C43</f>
+        <v>Timeline_EnemySolo1</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
       <c r="H43" s="1">
         <v>0</v>
       </c>
@@ -1996,12 +2031,44 @@
         <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N44" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Unity/Assets/Config/Excel/AbilityConfig/TimelineConfig/TimelineCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TimelineConfig/TimelineCfg.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TimelineConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TimelineConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55A0096-BB20-495C-8F90-3E7925BB0A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF28D6B4-97DF-4466-BEF1-D254DE201CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="143">
   <si>
     <t>##var</t>
   </si>
@@ -211,10 +200,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FaceTo_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>FireBullet_5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -366,10 +351,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>火柱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>直线范围攻击</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -382,74 +363,415 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FaceTo_1</t>
-  </si>
-  <si>
     <t>FireBullet_EnemySolo1</t>
   </si>
   <si>
-    <t>ActionCallAutoUnitOne</t>
+    <t>false;1;false;false;"";0,0,0;0,0,0;false;true;true;100;360;false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>false;1;false;false;"";0,0,0;0,0,0;false;true;10;6;false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_1</t>
+  </si>
+  <si>
+    <t>BuffAdd_Line1</t>
+  </si>
+  <si>
+    <t>BuffAdd_Circle1</t>
+  </si>
+  <si>
+    <t>EffectCreate_MachineGunLvl1Effect_1</t>
+  </si>
+  <si>
+    <t>EffectCreate_LaserFireEffect1</t>
+  </si>
+  <si>
+    <t>EffectCreate_EneryPylon_PFX1</t>
+  </si>
+  <si>
+    <t>EffectCreate_HoverTankFireShow1</t>
+  </si>
+  <si>
+    <t>EffectCreate_EnemySolo1_Fire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>待机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FaceTo_Forward_ForceSetFace</t>
+  </si>
+  <si>
+    <t>PlayAnimator_None</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火柱1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火柱2</t>
+  </si>
+  <si>
+    <t>火柱3</t>
+  </si>
+  <si>
+    <t>PlayerLine2</t>
+  </si>
+  <si>
+    <t>PlayerLine3</t>
+  </si>
+  <si>
+    <t>BuffAdd_Line2</t>
+  </si>
+  <si>
+    <t>BuffAdd_Line3</t>
+  </si>
+  <si>
+    <t>ActionCallSelectLast</t>
+  </si>
+  <si>
+    <r>
+      <t>PlayerSolo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PlayerSolo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_Tower_Arrow_Bullet_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FireBullet_Tower_Arrow_Bullet_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FireBullet_Tower_Arrow_Bullet_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerAoe2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerAoe3</t>
+  </si>
+  <si>
+    <t>FireBullet_Tower_Cannon_Bullet_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FireBullet_Tower_Cannon_Bullet_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FireBullet_Tower_Cannon_Bullet_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Cannon_Fire_1</t>
+  </si>
+  <si>
+    <r>
+      <t>EffectCreate_Cannon_Fire_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EffectCreate_Cannon_Fire_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Arrow_Fire_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Arrow_Fire_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimelineJumpTime_0_05</t>
+  </si>
+  <si>
+    <t>AngleCondition;ge;30</t>
+  </si>
+  <si>
+    <t>TimelineJumpTime_0_05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDragon1</t>
+  </si>
+  <si>
+    <t>龙击炮1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_TowerDragon_Bullet1</t>
+  </si>
+  <si>
+    <t>EffectCreate_Arrow_Fire_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDragon2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDragon3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙击炮2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_TowerDragon_Bullet2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_TowerDragon_Bullet3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerElec1</t>
+  </si>
+  <si>
+    <t>雷电塔1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体攻击</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AttackArea_PlayerSolo1</t>
   </si>
   <si>
-    <t>ActionCallAutoUnitOne</t>
-  </si>
-  <si>
-    <t>AttackArea_PlayerAoe1First</t>
-  </si>
-  <si>
-    <t>false;1;false;false;"";0,0,0;0,0,0;false;true;true;100;360;false</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>false;1;false;false;"";0,0,0;0,0,0;false;true;10;6;false</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffAdd_1</t>
-  </si>
-  <si>
-    <t>BuffAdd_Line1</t>
-  </si>
-  <si>
-    <t>BuffAdd_Circle1</t>
-  </si>
-  <si>
-    <t>EffectCreate_MachineGunLvl1Effect_1</t>
-  </si>
-  <si>
-    <t>EffectCreate_LaserFireEffect1</t>
-  </si>
-  <si>
-    <t>EffectCreate_EneryPylon_PFX1</t>
-  </si>
-  <si>
-    <t>EffectCreate_HoverTankFireShow1</t>
-  </si>
-  <si>
-    <t>EffectCreate_PlayerSolo1_Fire</t>
-  </si>
-  <si>
-    <t>EffectCreate_PlayerSolo1_Flash</t>
-  </si>
-  <si>
-    <t>EffectCreate_PlayerAoe1_Fire</t>
-  </si>
-  <si>
-    <t>EffectCreate_PlayerAoe1_Flash</t>
-  </si>
-  <si>
-    <t>EffectCreate_EnemySolo1_Fire</t>
+    <r>
+      <t>TowerElec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TowerElec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电塔2</t>
+  </si>
+  <si>
+    <t>雷电塔3</t>
+  </si>
+  <si>
+    <t>EffectCreate_TowerElec_Skill1</t>
+  </si>
+  <si>
+    <t>EffectCreate_TowerElec_Skill2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_TowerElec_Skill3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_TowerElec_Hit1</t>
+  </si>
+  <si>
+    <t>EffectCreate_TowerElec_Hit3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_TowerElec_Hit2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰魔塔1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIce1</t>
+  </si>
+  <si>
+    <t>TowerIce2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIce3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰魔塔2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰魔塔3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_TowerIce_Bullet1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_TowerIce_Bullet2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_TowerIce_Bullet3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_AttackUp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +811,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -604,7 +935,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -648,6 +979,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -943,32 +1278,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102:XFD104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="43.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="41.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="43.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="41.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -984,19 +1320,19 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17"/>
-    </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="19"/>
+    </row>
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1010,23 +1346,23 @@
         <v>24</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="17"/>
-    </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="19"/>
+    </row>
+    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -1066,17 +1402,17 @@
       <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="20"/>
-    </row>
-    <row r="5" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+    </row>
+    <row r="5" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -1096,15 +1432,15 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="248.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -1121,26 +1457,26 @@
       <c r="H6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>55</v>
+      <c r="I6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1159,14 +1495,14 @@
       <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
       <c r="K7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
@@ -1174,12 +1510,15 @@
       </c>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="E8" s="12"/>
       <c r="F8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>32</v>
+      <c r="I8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1188,18 +1527,18 @@
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="E9" s="12"/>
       <c r="F9" s="2"/>
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1207,10 +1546,10 @@
         <v>28</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1229,11 +1568,11 @@
       <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1241,21 +1580,21 @@
         <v>28</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="E11" s="12"/>
       <c r="F11" s="2"/>
       <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1263,10 +1602,10 @@
         <v>28</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1285,11 +1624,11 @@
       <c r="H12" s="1">
         <v>0</v>
       </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1297,21 +1636,21 @@
         <v>28</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="E13" s="12"/>
       <c r="F13" s="2"/>
       <c r="H13" s="1">
         <v>0</v>
       </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>32</v>
+      <c r="I13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1319,10 +1658,10 @@
         <v>28</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="E14" s="12"/>
@@ -1330,22 +1669,22 @@
       <c r="H14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>33</v>
+      <c r="I14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N14" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1359,16 +1698,16 @@
       <c r="E15" s="12"/>
       <c r="F15" s="2"/>
       <c r="G15" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>32</v>
+      <c r="I15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1376,30 +1715,30 @@
         <v>28</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="E16" s="12"/>
       <c r="F16" s="2"/>
       <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>49</v>
+      <c r="I16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1413,30 +1752,30 @@
       <c r="E17" s="12"/>
       <c r="F17" s="2"/>
       <c r="G17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
       </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>49</v>
+      <c r="I17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="1" t="str">
         <f>B18&amp;"_"&amp;C18</f>
@@ -1445,32 +1784,32 @@
       <c r="E18" s="12"/>
       <c r="F18" s="2"/>
       <c r="G18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>77</v>
+      <c r="I18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N18" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1" t="str">
         <f>B19&amp;"_"&amp;C19</f>
@@ -1479,16 +1818,16 @@
       <c r="E19" s="12"/>
       <c r="F19" s="2"/>
       <c r="G19" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
       </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>32</v>
+      <c r="I19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1497,44 +1836,36 @@
       </c>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I20" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="2"/>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H20" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="1" t="str">
-        <f>B21&amp;"_"&amp;C21</f>
-        <v>Timeline_MachineGunTower1</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="1">
-        <v>4</v>
-      </c>
+      <c r="N20" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>32</v>
+        <v>0.2</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1543,90 +1874,119 @@
       </c>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>80</v>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f>B22&amp;"_"&amp;C22</f>
+        <v>Timeline_MachineGunTower1</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N22" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I23" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H23" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="1" t="str">
-        <f>B24&amp;"_"&amp;C24</f>
-        <v>Timeline_LaserTower_0</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="1">
-        <v>4</v>
-      </c>
+      <c r="N23" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>32</v>
+        <v>0.1</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>81</v>
+        <v>34</v>
+      </c>
+      <c r="N24" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N25" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I26" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f>B26&amp;"_"&amp;C26</f>
+        <v>Timeline_LaserTower_0</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -1635,60 +1995,55 @@
       </c>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="1" t="str">
-        <f>B27&amp;"_"&amp;C27</f>
-        <v>Timeline_EnergyPylon_2</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="1">
-        <v>4</v>
-      </c>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K27" s="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>82</v>
+      <c r="N27" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H28" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N28" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I29" s="1">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H29" s="1">
         <v>0.2</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>49</v>
+      <c r="I29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1697,30 +2052,30 @@
       </c>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D30" s="1" t="str">
         <f>B30&amp;"_"&amp;C30</f>
-        <v>Timeline_HoverTank1</v>
+        <v>Timeline_EnergyPylon_2</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="2"/>
       <c r="G30" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
       </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>32</v>
+      <c r="I30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -1729,346 +2084,1663 @@
       </c>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K31" s="2"/>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H31" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N31" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I32" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>43</v>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H32" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" s="2"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N32" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H33" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="1" t="str">
-        <f>B33&amp;"_"&amp;C33</f>
+      <c r="C34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f>B34&amp;"_"&amp;C34</f>
+        <v>Timeline_HoverTank1</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H35" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H36" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N36" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H37" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f>B38&amp;"_"&amp;C38</f>
         <v>Timeline_PlayerSolo1</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N33" s="2"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N34" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N35" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N36" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="14" t="str">
-        <f t="shared" ref="D37" si="0">B37&amp;"_"&amp;C37</f>
-        <v>Timeline_PlayerAoe1</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G37" s="14">
-        <v>0</v>
-      </c>
-      <c r="H37" s="14">
-        <v>0</v>
-      </c>
-      <c r="I37" s="14">
-        <v>0</v>
-      </c>
-      <c r="J37" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="M37" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="N37" s="13"/>
-    </row>
-    <row r="38" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="H38" s="14">
-        <v>0</v>
-      </c>
-      <c r="I38" s="14">
-        <v>0</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="M38" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N38" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H39" s="14">
-        <v>0</v>
-      </c>
-      <c r="I39" s="14">
-        <v>0</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="M39" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N39" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H40" s="14">
-        <v>0</v>
-      </c>
-      <c r="I40" s="14">
-        <v>0</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="M40" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="N40" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="1" t="str">
-        <f>B41&amp;"_"&amp;C41</f>
-        <v>Timeline_PlayerLine1</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H39" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H40" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="H41" s="1">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>78</v>
+        <v>0.2</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N41" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>59</v>
+      <c r="C42" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="D42" s="1" t="str">
         <f>B42&amp;"_"&amp;C42</f>
+        <v>Timeline_PlayerSolo2</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H43" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H44" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H45" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N45" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f>B46&amp;"_"&amp;C46</f>
+        <v>Timeline_PlayerSolo3</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H47" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H48" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H49" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N49" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="15" t="str">
+        <f t="shared" ref="D50" si="0">B50&amp;"_"&amp;C50</f>
+        <v>Timeline_PlayerAoe1</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50" s="15">
+        <v>1</v>
+      </c>
+      <c r="H50" s="15">
+        <v>0</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J50" s="15">
+        <v>0</v>
+      </c>
+      <c r="M50" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H51" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N51" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H52" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J52" s="14">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N52" s="13"/>
+    </row>
+    <row r="53" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H53" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I53" t="s">
+        <v>102</v>
+      </c>
+      <c r="J53" s="14">
+        <v>0</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N53" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="15" t="str">
+        <f>B54&amp;"_"&amp;C54</f>
+        <v>Timeline_PlayerAoe2</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G54" s="15">
+        <v>1</v>
+      </c>
+      <c r="H54" s="15">
+        <v>0</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J54" s="15">
+        <v>0</v>
+      </c>
+      <c r="M54" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H55" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H56" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J56" s="14">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="13"/>
+    </row>
+    <row r="57" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H57" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J57" s="14">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N57" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="15" t="str">
+        <f t="shared" ref="D58" si="1">B58&amp;"_"&amp;C58</f>
+        <v>Timeline_PlayerAoe3</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G58" s="15">
+        <v>1</v>
+      </c>
+      <c r="H58" s="15">
+        <v>0</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J58" s="15">
+        <v>0</v>
+      </c>
+      <c r="M58" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H59" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H60" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J60" s="14">
+        <v>0</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" s="13"/>
+    </row>
+    <row r="61" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H61" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="J61" s="14">
+        <v>0</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N61" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="1" t="str">
+        <f>B62&amp;"_"&amp;C62</f>
+        <v>Timeline_PlayerLine1</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N62" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" s="1" t="str">
+        <f t="shared" ref="D63:D64" si="2">B63&amp;"_"&amp;C63</f>
+        <v>Timeline_PlayerLine2</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N63" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Timeline_PlayerLine3</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N64" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" s="1" t="str">
+        <f>B65&amp;"_"&amp;C65</f>
         <v>Timeline_PlayerCircle1</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E65" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N65" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" s="1" t="str">
+        <f>B66&amp;"_"&amp;C66</f>
+        <v>Timeline_EnemySolo1</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" s="2"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H67" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H68" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N68" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H69" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2" t="s">
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N69" s="2"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="1" t="str">
+        <f>B70&amp;"_"&amp;C70</f>
+        <v>Timeline_Idle1</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="M42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N42" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
+      <c r="F70" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G70" s="1">
+        <v>5</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N70" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="1" t="str">
-        <f>B43&amp;"_"&amp;C43</f>
-        <v>Timeline_EnemySolo1</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="C71" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" s="1" t="str">
+        <f>B71&amp;"_"&amp;C71</f>
+        <v>Timeline_Move1</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G71" s="1">
+        <v>5</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N71" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="15" t="str">
+        <f t="shared" ref="D72" si="3">B72&amp;"_"&amp;C72</f>
+        <v>Timeline_TowerDragon1</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F72" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N43" s="2"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H44" s="1">
-        <v>0</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N44" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H45" s="1">
-        <v>0</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N45" s="2"/>
+      <c r="G72" s="15">
+        <v>1</v>
+      </c>
+      <c r="H72" s="15">
+        <v>0</v>
+      </c>
+      <c r="I72" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J72" s="15">
+        <v>0</v>
+      </c>
+      <c r="M72" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H73" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N73" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H74" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="J74" s="14">
+        <v>0</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N74" s="13"/>
+    </row>
+    <row r="75" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D75" s="15" t="str">
+        <f t="shared" ref="D75" si="4">B75&amp;"_"&amp;C75</f>
+        <v>Timeline_TowerDragon2</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G75" s="15">
+        <v>1</v>
+      </c>
+      <c r="H75" s="15">
+        <v>0</v>
+      </c>
+      <c r="I75" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J75" s="15">
+        <v>0</v>
+      </c>
+      <c r="M75" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H76" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N76" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H77" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I77" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J77" s="14">
+        <v>0</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N77" s="13"/>
+    </row>
+    <row r="78" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D78" s="15" t="str">
+        <f t="shared" ref="D78" si="5">B78&amp;"_"&amp;C78</f>
+        <v>Timeline_TowerDragon3</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G78" s="15">
+        <v>1</v>
+      </c>
+      <c r="H78" s="15">
+        <v>0</v>
+      </c>
+      <c r="I78" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J78" s="15">
+        <v>0</v>
+      </c>
+      <c r="M78" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H79" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N79" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H80" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J80" s="14">
+        <v>0</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N80" s="13"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" s="1" t="str">
+        <f>B81&amp;"_"&amp;C81</f>
+        <v>Timeline_TowerElec1</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N81" s="2"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N82" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N83" s="2"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N84" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D85" s="1" t="str">
+        <f>B85&amp;"_"&amp;C85</f>
+        <v>Timeline_TowerElec2</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N85" s="2"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N86" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N87" s="2"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N88" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D89" s="1" t="str">
+        <f>B89&amp;"_"&amp;C89</f>
+        <v>Timeline_TowerElec3</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N89" s="2"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N90" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N91" s="2"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N92" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D93" s="15" t="str">
+        <f t="shared" ref="D93" si="6">B93&amp;"_"&amp;C93</f>
+        <v>Timeline_TowerIce1</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G93" s="15">
+        <v>1</v>
+      </c>
+      <c r="H93" s="15">
+        <v>0</v>
+      </c>
+      <c r="I93" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J93" s="15">
+        <v>0</v>
+      </c>
+      <c r="M93" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H94" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J94" s="14">
+        <v>0</v>
+      </c>
+      <c r="K94" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N94" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H95" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J95" s="14">
+        <v>0</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N95" s="13"/>
+    </row>
+    <row r="96" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D96" s="15" t="str">
+        <f t="shared" ref="D96" si="7">B96&amp;"_"&amp;C96</f>
+        <v>Timeline_TowerIce2</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F96" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G96" s="15">
+        <v>1</v>
+      </c>
+      <c r="H96" s="15">
+        <v>0</v>
+      </c>
+      <c r="I96" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J96" s="15">
+        <v>0</v>
+      </c>
+      <c r="M96" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H97" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="I97" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J97" s="14">
+        <v>0</v>
+      </c>
+      <c r="K97" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L97" s="13"/>
+      <c r="M97" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N97" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H98" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I98" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J98" s="14">
+        <v>0</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N98" s="13"/>
+    </row>
+    <row r="99" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D99" s="15" t="str">
+        <f t="shared" ref="D99" si="8">B99&amp;"_"&amp;C99</f>
+        <v>Timeline_TowerIce3</v>
+      </c>
+      <c r="E99" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G99" s="15">
+        <v>1</v>
+      </c>
+      <c r="H99" s="15">
+        <v>0</v>
+      </c>
+      <c r="I99" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J99" s="15">
+        <v>0</v>
+      </c>
+      <c r="M99" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H100" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J100" s="14">
+        <v>0</v>
+      </c>
+      <c r="K100" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N100" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H101" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I101" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J101" s="14">
+        <v>0</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N101" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Unity/Assets/Config/Excel/AbilityConfig/TimelineConfig/TimelineCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TimelineConfig/TimelineCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TimelineConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF28D6B4-97DF-4466-BEF1-D254DE201CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69263F80-627E-4FAD-8F04-CD89B2CF3C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="146">
   <si>
     <t>##var</t>
   </si>
@@ -765,6 +765,31 @@
   </si>
   <si>
     <t>BuffAdd_AttackUp</t>
+  </si>
+  <si>
+    <r>
+      <t>PlayerCircle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒雾3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_Circle3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1278,11 +1303,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102:XFD104"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P66" sqref="P66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2897,18 +2922,18 @@
       <c r="B66" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>59</v>
+      <c r="C66" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="D66" s="1" t="str">
         <f>B66&amp;"_"&amp;C66</f>
-        <v>Timeline_EnemySolo1</v>
+        <v>Timeline_PlayerCircle3</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G66" s="1">
         <v>1</v>
@@ -2916,50 +2941,69 @@
       <c r="H66" s="1">
         <v>0</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I66" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N66" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="1" t="str">
+        <f>B67&amp;"_"&amp;C67</f>
+        <v>Timeline_EnemySolo1</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J66" s="1">
-        <v>0</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N66" s="2"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H67" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="J67" s="1">
         <v>0</v>
       </c>
-      <c r="K67" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="L67" s="2"/>
       <c r="M67" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N67" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="N67" s="2"/>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="H68" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="J68" s="1">
         <v>0</v>
       </c>
+      <c r="K68" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L68" s="2"/>
       <c r="M68" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N68" s="2" t="b">
         <v>0</v>
@@ -2969,69 +3013,50 @@
       <c r="H69" s="1">
         <v>0.1</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="I69" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N69" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H70" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J69" s="1">
-        <v>0</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N69" s="2"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B70" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D70" s="1" t="str">
-        <f>B70&amp;"_"&amp;C70</f>
-        <v>Timeline_Idle1</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G70" s="1">
-        <v>5</v>
-      </c>
-      <c r="H70" s="1">
-        <v>0</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="J70" s="1">
         <v>0</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N70" s="2" t="b">
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="N70" s="2"/>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D71" s="1" t="str">
         <f>B71&amp;"_"&amp;C71</f>
-        <v>Timeline_Move1</v>
+        <v>Timeline_Idle1</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G71" s="1">
         <v>5</v>
@@ -3052,266 +3077,282 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="15" t="s">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="1" t="str">
+        <f>B72&amp;"_"&amp;C72</f>
+        <v>Timeline_Move1</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G72" s="1">
+        <v>5</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N72" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D72" s="15" t="str">
-        <f t="shared" ref="D72" si="3">B72&amp;"_"&amp;C72</f>
+      <c r="D73" s="15" t="str">
+        <f t="shared" ref="D73" si="3">B73&amp;"_"&amp;C73</f>
         <v>Timeline_TowerDragon1</v>
       </c>
-      <c r="E72" s="15" t="s">
+      <c r="E73" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F72" s="15" t="s">
+      <c r="F73" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G72" s="15">
+      <c r="G73" s="15">
         <v>1</v>
       </c>
-      <c r="H72" s="15">
-        <v>0</v>
-      </c>
-      <c r="I72" s="15" t="s">
+      <c r="H73" s="15">
+        <v>0</v>
+      </c>
+      <c r="I73" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="J72" s="15">
-        <v>0</v>
-      </c>
-      <c r="M72" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H73" s="1">
+      <c r="J73" s="15">
+        <v>0</v>
+      </c>
+      <c r="M73" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H74" s="1">
         <v>0.05</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J73" s="1">
-        <v>0</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N73" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H74" s="14">
+      <c r="L74" s="2"/>
+      <c r="M74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N74" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H75" s="14">
         <v>0.2</v>
       </c>
-      <c r="I74" s="13" t="s">
+      <c r="I75" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="J74" s="14">
-        <v>0</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N74" s="13"/>
-    </row>
-    <row r="75" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="15" t="s">
+      <c r="J75" s="14">
+        <v>0</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N75" s="13"/>
+    </row>
+    <row r="76" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C76" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D75" s="15" t="str">
-        <f t="shared" ref="D75" si="4">B75&amp;"_"&amp;C75</f>
+      <c r="D76" s="15" t="str">
+        <f t="shared" ref="D76" si="4">B76&amp;"_"&amp;C76</f>
         <v>Timeline_TowerDragon2</v>
       </c>
-      <c r="E75" s="15" t="s">
+      <c r="E76" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="F75" s="15" t="s">
+      <c r="F76" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G75" s="15">
+      <c r="G76" s="15">
         <v>1</v>
       </c>
-      <c r="H75" s="15">
-        <v>0</v>
-      </c>
-      <c r="I75" s="15" t="s">
+      <c r="H76" s="15">
+        <v>0</v>
+      </c>
+      <c r="I76" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="J75" s="15">
-        <v>0</v>
-      </c>
-      <c r="M75" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H76" s="1">
+      <c r="J76" s="15">
+        <v>0</v>
+      </c>
+      <c r="M76" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H77" s="1">
         <v>0.05</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="I77" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J76" s="1">
-        <v>0</v>
-      </c>
-      <c r="K76" s="2" t="s">
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+      <c r="K77" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N76" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H77" s="14">
+      <c r="L77" s="2"/>
+      <c r="M77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N77" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H78" s="14">
         <v>0.2</v>
       </c>
-      <c r="I77" s="13" t="s">
+      <c r="I78" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="J77" s="14">
-        <v>0</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N77" s="13"/>
-    </row>
-    <row r="78" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="15" t="s">
+      <c r="J78" s="14">
+        <v>0</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N78" s="13"/>
+    </row>
+    <row r="79" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C79" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D78" s="15" t="str">
-        <f t="shared" ref="D78" si="5">B78&amp;"_"&amp;C78</f>
+      <c r="D79" s="15" t="str">
+        <f t="shared" ref="D79" si="5">B79&amp;"_"&amp;C79</f>
         <v>Timeline_TowerDragon3</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E79" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F78" s="15" t="s">
+      <c r="F79" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G78" s="15">
+      <c r="G79" s="15">
         <v>1</v>
       </c>
-      <c r="H78" s="15">
-        <v>0</v>
-      </c>
-      <c r="I78" s="15" t="s">
+      <c r="H79" s="15">
+        <v>0</v>
+      </c>
+      <c r="I79" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="J78" s="15">
-        <v>0</v>
-      </c>
-      <c r="M78" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H79" s="1">
+      <c r="J79" s="15">
+        <v>0</v>
+      </c>
+      <c r="M79" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H80" s="1">
         <v>0.05</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="I80" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J79" s="1">
-        <v>0</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J80" s="1">
+        <v>0</v>
+      </c>
+      <c r="K80" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N79" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H80" s="14">
+      <c r="L80" s="2"/>
+      <c r="M80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N80" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H81" s="14">
         <v>0.2</v>
       </c>
-      <c r="I80" s="13" t="s">
+      <c r="I81" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="J80" s="14">
-        <v>0</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N80" s="13"/>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B81" s="2" t="s">
+      <c r="J81" s="14">
+        <v>0</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N81" s="13"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D81" s="1" t="str">
-        <f>B81&amp;"_"&amp;C81</f>
+      <c r="D82" s="1" t="str">
+        <f>B82&amp;"_"&amp;C82</f>
         <v>Timeline_TowerElec1</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G82" s="1">
         <v>1</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H82" s="1">
         <v>0.1</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="I82" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J81" s="1">
-        <v>0</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N81" s="2"/>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="H82" s="1">
-        <v>0</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="J82" s="1">
         <v>0</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N82" s="2" t="b">
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="N82" s="2"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B83" s="2"/>
@@ -3321,15 +3362,17 @@
         <v>0</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J83" s="1">
         <v>0</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="N83" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B84" s="2"/>
@@ -3339,71 +3382,69 @@
         <v>0</v>
       </c>
       <c r="I84" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N84" s="2"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
+      <c r="I85" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J84" s="1">
-        <v>0</v>
-      </c>
-      <c r="M84" s="2" t="s">
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+      <c r="M85" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N84" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B85" s="2" t="s">
+      <c r="N85" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D85" s="1" t="str">
-        <f>B85&amp;"_"&amp;C85</f>
+      <c r="D86" s="1" t="str">
+        <f>B86&amp;"_"&amp;C86</f>
         <v>Timeline_TowerElec2</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G85" s="1">
+      <c r="G86" s="1">
         <v>1</v>
       </c>
-      <c r="H85" s="1">
+      <c r="H86" s="1">
         <v>0.1</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="I86" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J85" s="1">
-        <v>0</v>
-      </c>
-      <c r="M85" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N85" s="2"/>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="H86" s="1">
-        <v>0</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="J86" s="1">
         <v>0</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N86" s="2" t="b">
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="N86" s="2"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
@@ -3413,15 +3454,17 @@
         <v>0</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J87" s="1">
         <v>0</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="N87" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B88" s="2"/>
@@ -3431,71 +3474,69 @@
         <v>0</v>
       </c>
       <c r="I88" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N88" s="2"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+      <c r="I89" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J88" s="1">
-        <v>0</v>
-      </c>
-      <c r="M88" s="2" t="s">
+      <c r="J89" s="1">
+        <v>0</v>
+      </c>
+      <c r="M89" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N88" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B89" s="2" t="s">
+      <c r="N89" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B90" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D89" s="1" t="str">
-        <f>B89&amp;"_"&amp;C89</f>
+      <c r="D90" s="1" t="str">
+        <f>B90&amp;"_"&amp;C90</f>
         <v>Timeline_TowerElec3</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G89" s="1">
+      <c r="G90" s="1">
         <v>1</v>
       </c>
-      <c r="H89" s="1">
+      <c r="H90" s="1">
         <v>0.1</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="I90" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J89" s="1">
-        <v>0</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N89" s="2"/>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="H90" s="1">
-        <v>0</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="J90" s="1">
         <v>0</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N90" s="2" t="b">
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="N90" s="2"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B91" s="2"/>
@@ -3505,15 +3546,17 @@
         <v>0</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J91" s="1">
         <v>0</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="N91" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92" s="2"/>
@@ -3523,224 +3566,242 @@
         <v>0</v>
       </c>
       <c r="I92" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N92" s="2"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+      <c r="I93" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J92" s="1">
-        <v>0</v>
-      </c>
-      <c r="M92" s="2" t="s">
+      <c r="J93" s="1">
+        <v>0</v>
+      </c>
+      <c r="M93" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N92" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="15" t="s">
+      <c r="N93" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C94" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D93" s="15" t="str">
-        <f t="shared" ref="D93" si="6">B93&amp;"_"&amp;C93</f>
+      <c r="D94" s="15" t="str">
+        <f t="shared" ref="D94" si="6">B94&amp;"_"&amp;C94</f>
         <v>Timeline_TowerIce1</v>
       </c>
-      <c r="E93" s="15" t="s">
+      <c r="E94" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="F93" s="15" t="s">
+      <c r="F94" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G93" s="15">
+      <c r="G94" s="15">
         <v>1</v>
       </c>
-      <c r="H93" s="15">
-        <v>0</v>
-      </c>
-      <c r="I93" s="15" t="s">
+      <c r="H94" s="15">
+        <v>0</v>
+      </c>
+      <c r="I94" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="J93" s="15">
-        <v>0</v>
-      </c>
-      <c r="M93" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H94" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="I94" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="J94" s="14">
-        <v>0</v>
-      </c>
-      <c r="K94" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="L94" s="13"/>
-      <c r="M94" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="N94" s="13" t="b">
-        <v>0</v>
+      <c r="J94" s="15">
+        <v>0</v>
+      </c>
+      <c r="M94" s="15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H95" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J95" s="14">
+        <v>0</v>
+      </c>
+      <c r="K95" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L95" s="13"/>
+      <c r="M95" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N95" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H96" s="14">
         <v>0.2</v>
       </c>
-      <c r="I95" s="13" t="s">
+      <c r="I96" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="J95" s="14">
-        <v>0</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N95" s="13"/>
-    </row>
-    <row r="96" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="15" t="s">
+      <c r="J96" s="14">
+        <v>0</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N96" s="13"/>
+    </row>
+    <row r="97" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C97" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D96" s="15" t="str">
-        <f t="shared" ref="D96" si="7">B96&amp;"_"&amp;C96</f>
+      <c r="D97" s="15" t="str">
+        <f t="shared" ref="D97" si="7">B97&amp;"_"&amp;C97</f>
         <v>Timeline_TowerIce2</v>
       </c>
-      <c r="E96" s="15" t="s">
+      <c r="E97" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="F96" s="15" t="s">
+      <c r="F97" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G96" s="15">
+      <c r="G97" s="15">
         <v>1</v>
       </c>
-      <c r="H96" s="15">
-        <v>0</v>
-      </c>
-      <c r="I96" s="15" t="s">
+      <c r="H97" s="15">
+        <v>0</v>
+      </c>
+      <c r="I97" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="J96" s="15">
-        <v>0</v>
-      </c>
-      <c r="M96" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H97" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="I97" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="J97" s="14">
-        <v>0</v>
-      </c>
-      <c r="K97" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="L97" s="13"/>
-      <c r="M97" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="N97" s="13" t="b">
-        <v>0</v>
+      <c r="J97" s="15">
+        <v>0</v>
+      </c>
+      <c r="M97" s="15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H98" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="I98" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J98" s="14">
+        <v>0</v>
+      </c>
+      <c r="K98" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L98" s="13"/>
+      <c r="M98" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N98" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H99" s="14">
         <v>0.2</v>
       </c>
-      <c r="I98" s="13" t="s">
+      <c r="I99" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="J98" s="14">
-        <v>0</v>
-      </c>
-      <c r="M98" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N98" s="13"/>
-    </row>
-    <row r="99" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="15" t="s">
+      <c r="J99" s="14">
+        <v>0</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N99" s="13"/>
+    </row>
+    <row r="100" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C100" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D99" s="15" t="str">
-        <f t="shared" ref="D99" si="8">B99&amp;"_"&amp;C99</f>
+      <c r="D100" s="15" t="str">
+        <f t="shared" ref="D100" si="8">B100&amp;"_"&amp;C100</f>
         <v>Timeline_TowerIce3</v>
       </c>
-      <c r="E99" s="15" t="s">
+      <c r="E100" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="F99" s="15" t="s">
+      <c r="F100" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G99" s="15">
+      <c r="G100" s="15">
         <v>1</v>
       </c>
-      <c r="H99" s="15">
-        <v>0</v>
-      </c>
-      <c r="I99" s="15" t="s">
+      <c r="H100" s="15">
+        <v>0</v>
+      </c>
+      <c r="I100" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="J99" s="15">
-        <v>0</v>
-      </c>
-      <c r="M99" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H100" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="I100" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="J100" s="14">
-        <v>0</v>
-      </c>
-      <c r="K100" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="L100" s="13"/>
-      <c r="M100" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="N100" s="13" t="b">
-        <v>0</v>
+      <c r="J100" s="15">
+        <v>0</v>
+      </c>
+      <c r="M100" s="15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H101" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="I101" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J101" s="14">
+        <v>0</v>
+      </c>
+      <c r="K101" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N101" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H102" s="14">
         <v>0.2</v>
       </c>
-      <c r="I101" s="13" t="s">
+      <c r="I102" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="J101" s="14">
-        <v>0</v>
-      </c>
-      <c r="M101" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N101" s="13"/>
+      <c r="J102" s="14">
+        <v>0</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N102" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Unity/Assets/Config/Excel/AbilityConfig/TimelineConfig/TimelineCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TimelineConfig/TimelineCfg.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TimelineConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D2449D-D3E5-498C-A259-90D89F86812E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF19C98-7EFD-4A14-8E1E-EE41D0C5879B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="365">
   <si>
     <t>##var</t>
   </si>
@@ -1323,6 +1310,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1334,9 +1324,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1646,11 +1633,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N322"/>
+  <dimension ref="A1:N326"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J84" sqref="J84"/>
+      <pane ySplit="6" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J110" sqref="J110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1693,14 +1680,14 @@
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1771,14 +1758,14 @@
       <c r="H4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -3263,7 +3250,7 @@
       <c r="I78" s="3">
         <v>0.1</v>
       </c>
-      <c r="J78" s="17" t="s">
+      <c r="J78" s="13" t="s">
         <v>362</v>
       </c>
       <c r="K78" s="3">
@@ -3327,11 +3314,11 @@
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C81" s="17"/>
+      <c r="C81" s="13"/>
       <c r="I81" s="3">
         <v>0.1</v>
       </c>
-      <c r="J81" s="17" t="s">
+      <c r="J81" s="13" t="s">
         <v>363</v>
       </c>
       <c r="K81" s="3">
@@ -3398,7 +3385,7 @@
       <c r="I84" s="3">
         <v>0.1</v>
       </c>
-      <c r="J84" s="17" t="s">
+      <c r="J84" s="13" t="s">
         <v>364</v>
       </c>
       <c r="K84" s="3">
@@ -3870,46 +3857,24 @@
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I106" s="3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="K106" s="3">
         <v>0</v>
       </c>
       <c r="N106" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B107" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D107" s="3" t="str">
-        <f>B107&amp;"_"&amp;C107</f>
-        <v>Timeline_TowerElec1</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G107" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H107" s="3">
-        <v>1</v>
-      </c>
       <c r="I107" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J107" t="s">
-        <v>359</v>
+        <v>0.3</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="K107" s="3">
         <v>0</v>
@@ -3920,24 +3885,24 @@
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I108" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K108" s="3">
         <v>0</v>
       </c>
       <c r="N108" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I109" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K109" s="3">
         <v>0</v>
@@ -3950,64 +3915,64 @@
       <c r="I110" s="3">
         <v>0</v>
       </c>
-      <c r="J110" t="s">
-        <v>133</v>
+      <c r="J110" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="K110" s="3">
         <v>0</v>
       </c>
       <c r="N110" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B111" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D111" s="3" t="str">
+        <f>B111&amp;"_"&amp;C111</f>
+        <v>Timeline_TowerElec1</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G111" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H111" s="3">
+        <v>1</v>
+      </c>
       <c r="I111" s="3">
-        <v>0</v>
-      </c>
-      <c r="J111" s="3" t="s">
-        <v>73</v>
+        <v>0.1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>359</v>
       </c>
       <c r="K111" s="3">
         <v>0</v>
       </c>
       <c r="N111" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B112" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D112" s="3" t="str">
-        <f>B112&amp;"_"&amp;C112</f>
-        <v>Timeline_TowerElec2</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G112" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H112" s="3">
-        <v>1</v>
-      </c>
       <c r="I112" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J112" s="12" t="s">
-        <v>360</v>
+        <v>0</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="K112" s="3">
         <v>0</v>
       </c>
       <c r="N112" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.2">
@@ -4015,21 +3980,21 @@
         <v>0</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K113" s="3">
         <v>0</v>
       </c>
       <c r="N113" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I114" s="3">
         <v>0</v>
       </c>
-      <c r="J114" s="3" t="s">
-        <v>137</v>
+      <c r="J114" t="s">
+        <v>133</v>
       </c>
       <c r="K114" s="3">
         <v>0</v>
@@ -4042,64 +4007,64 @@
       <c r="I115" s="3">
         <v>0</v>
       </c>
-      <c r="J115" t="s">
-        <v>138</v>
+      <c r="J115" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="K115" s="3">
         <v>0</v>
       </c>
       <c r="N115" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B116" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D116" s="3" t="str">
+        <f>B116&amp;"_"&amp;C116</f>
+        <v>Timeline_TowerElec2</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G116" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H116" s="3">
+        <v>1</v>
+      </c>
       <c r="I116" s="3">
-        <v>0</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>73</v>
+        <v>0.1</v>
+      </c>
+      <c r="J116" s="12" t="s">
+        <v>360</v>
       </c>
       <c r="K116" s="3">
         <v>0</v>
       </c>
       <c r="N116" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B117" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D117" s="3" t="str">
-        <f>B117&amp;"_"&amp;C117</f>
-        <v>Timeline_TowerElec3</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G117" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H117" s="3">
-        <v>1</v>
-      </c>
       <c r="I117" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J117" s="12" t="s">
-        <v>361</v>
+        <v>0</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="K117" s="3">
         <v>0</v>
       </c>
       <c r="N117" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.2">
@@ -4107,21 +4072,21 @@
         <v>0</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K118" s="3">
         <v>0</v>
       </c>
       <c r="N118" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I119" s="3">
         <v>0</v>
       </c>
-      <c r="J119" s="3" t="s">
-        <v>142</v>
+      <c r="J119" t="s">
+        <v>138</v>
       </c>
       <c r="K119" s="3">
         <v>0</v>
@@ -4134,78 +4099,75 @@
       <c r="I120" s="3">
         <v>0</v>
       </c>
-      <c r="J120" t="s">
-        <v>143</v>
+      <c r="J120" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="K120" s="3">
         <v>0</v>
       </c>
       <c r="N120" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B121" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D121" s="3" t="str">
+        <f>B121&amp;"_"&amp;C121</f>
+        <v>Timeline_TowerElec3</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G121" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H121" s="3">
+        <v>1</v>
+      </c>
       <c r="I121" s="3">
-        <v>0</v>
-      </c>
-      <c r="J121" s="3" t="s">
-        <v>73</v>
+        <v>0.1</v>
+      </c>
+      <c r="J121" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="K121" s="3">
         <v>0</v>
       </c>
       <c r="N121" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B122" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D122" s="3" t="str">
-        <f t="shared" ref="D122" si="6">B122&amp;"_"&amp;C122</f>
-        <v>Timeline_TowerIce1</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G122" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H122" s="3">
-        <v>1</v>
-      </c>
       <c r="I122" s="3">
         <v>0</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="K122" s="3">
         <v>0</v>
       </c>
       <c r="N122" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I123" s="3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="K123" s="3">
         <v>0</v>
-      </c>
-      <c r="L123" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="N123" s="3" t="s">
         <v>42</v>
@@ -4213,10 +4175,10 @@
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I124" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>146</v>
+        <v>0</v>
+      </c>
+      <c r="J124" t="s">
+        <v>143</v>
       </c>
       <c r="K124" s="3">
         <v>0</v>
@@ -4227,63 +4189,66 @@
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I125" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="K125" s="3">
         <v>0</v>
       </c>
       <c r="N125" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B126" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D126" s="3" t="str">
+        <f t="shared" ref="D126" si="6">B126&amp;"_"&amp;C126</f>
+        <v>Timeline_TowerIce1</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G126" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H126" s="3">
+        <v>1</v>
+      </c>
       <c r="I126" s="3">
         <v>0</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="K126" s="3">
         <v>0</v>
       </c>
       <c r="N126" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B127" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D127" s="3" t="str">
-        <f t="shared" ref="D127" si="7">B127&amp;"_"&amp;C127</f>
-        <v>Timeline_TowerIce2</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G127" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H127" s="3">
-        <v>1</v>
-      </c>
       <c r="I127" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K127" s="3">
         <v>0</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="N127" s="3" t="s">
         <v>42</v>
@@ -4291,16 +4256,13 @@
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I128" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="K128" s="3">
         <v>0</v>
-      </c>
-      <c r="L128" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="N128" s="3" t="s">
         <v>42</v>
@@ -4311,7 +4273,7 @@
         <v>0.1</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K129" s="3">
         <v>0</v>
@@ -4322,63 +4284,66 @@
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I130" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="K130" s="3">
         <v>0</v>
       </c>
       <c r="N130" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B131" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D131" s="3" t="str">
+        <f t="shared" ref="D131" si="7">B131&amp;"_"&amp;C131</f>
+        <v>Timeline_TowerIce2</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G131" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H131" s="3">
+        <v>1</v>
+      </c>
       <c r="I131" s="3">
         <v>0</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="K131" s="3">
         <v>0</v>
       </c>
       <c r="N131" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B132" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D132" s="3" t="str">
-        <f t="shared" ref="D132" si="8">B132&amp;"_"&amp;C132</f>
-        <v>Timeline_TowerIce3</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G132" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H132" s="3">
-        <v>1</v>
-      </c>
       <c r="I132" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K132" s="3">
         <v>0</v>
+      </c>
+      <c r="L132" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="N132" s="3" t="s">
         <v>42</v>
@@ -4386,16 +4351,13 @@
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I133" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K133" s="3">
         <v>0</v>
-      </c>
-      <c r="L133" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="N133" s="3" t="s">
         <v>42</v>
@@ -4406,7 +4368,7 @@
         <v>0.1</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K134" s="3">
         <v>0</v>
@@ -4417,62 +4379,66 @@
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I135" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="K135" s="3">
         <v>0</v>
       </c>
       <c r="N135" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B136" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D136" s="3" t="str">
+        <f t="shared" ref="D136" si="8">B136&amp;"_"&amp;C136</f>
+        <v>Timeline_TowerIce3</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G136" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H136" s="3">
+        <v>1</v>
+      </c>
       <c r="I136" s="3">
         <v>0</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="K136" s="3">
         <v>0</v>
       </c>
       <c r="N136" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B137" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E137" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F137" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G137" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H137" s="3">
-        <v>0.2</v>
-      </c>
       <c r="I137" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="K137" s="3">
         <v>0</v>
+      </c>
+      <c r="L137" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="N137" s="3" t="s">
         <v>42</v>
@@ -4480,10 +4446,10 @@
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I138" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K138" s="3">
         <v>0</v>
@@ -4494,59 +4460,59 @@
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I139" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J139" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K139" s="3">
+        <v>0</v>
+      </c>
+      <c r="N139" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I140" s="3">
+        <v>0</v>
+      </c>
+      <c r="J140" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K139" s="3">
-        <v>0</v>
-      </c>
-      <c r="N139" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B140" s="3" t="s">
+      <c r="K140" s="3">
+        <v>0</v>
+      </c>
+      <c r="N140" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B141" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E140" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F140" s="11" t="s">
+      <c r="C141" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F141" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G140" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H140" s="3">
+      <c r="G141" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H141" s="3">
         <v>0.2</v>
       </c>
-      <c r="I140" s="3">
-        <v>0</v>
-      </c>
-      <c r="J140" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="K140" s="3">
-        <v>0</v>
-      </c>
-      <c r="N140" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I141" s="3">
         <v>0</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K141" s="3">
         <v>0</v>
@@ -4560,56 +4526,56 @@
         <v>0</v>
       </c>
       <c r="J142" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K142" s="3">
+        <v>0</v>
+      </c>
+      <c r="N142" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I143" s="3">
+        <v>0</v>
+      </c>
+      <c r="J143" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K142" s="3">
-        <v>0</v>
-      </c>
-      <c r="N142" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B143" s="3" t="s">
+      <c r="K143" s="3">
+        <v>0</v>
+      </c>
+      <c r="N143" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B144" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E143" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F143" s="11" t="s">
+      <c r="C144" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F144" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G143" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H143" s="3">
+      <c r="G144" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H144" s="3">
         <v>0.2</v>
       </c>
-      <c r="I143" s="3">
-        <v>0</v>
-      </c>
-      <c r="J143" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K143" s="3">
-        <v>0</v>
-      </c>
-      <c r="N143" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I144" s="3">
         <v>0</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K144" s="3">
         <v>0</v>
@@ -4623,62 +4589,59 @@
         <v>0</v>
       </c>
       <c r="J145" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K145" s="3">
+        <v>0</v>
+      </c>
+      <c r="N145" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I146" s="3">
+        <v>0</v>
+      </c>
+      <c r="J146" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K145" s="3">
-        <v>0</v>
-      </c>
-      <c r="N145" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B146" s="3" t="s">
+      <c r="K146" s="3">
+        <v>0</v>
+      </c>
+      <c r="N146" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B147" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="F146" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="G146" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H146" s="3">
+      <c r="C147" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G147" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H147" s="3">
         <v>0.2</v>
       </c>
-      <c r="I146" s="3">
-        <v>0</v>
-      </c>
-      <c r="J146" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K146" s="3">
-        <v>0</v>
-      </c>
-      <c r="N146" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I147" s="3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="K147" s="3">
         <v>0</v>
-      </c>
-      <c r="L147" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="N147" s="3" t="s">
         <v>42</v>
@@ -4686,38 +4649,59 @@
     </row>
     <row r="148" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I148" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K148" s="3">
         <v>0</v>
       </c>
       <c r="N148" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="149" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I149" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c r="K149" s="3">
         <v>0</v>
       </c>
       <c r="N149" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B150" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F150" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G150" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H150" s="3">
+        <v>0.2</v>
+      </c>
       <c r="I150" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>178</v>
+        <v>43</v>
       </c>
       <c r="K150" s="3">
         <v>0</v>
@@ -4728,65 +4712,44 @@
     </row>
     <row r="151" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I151" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K151" s="3">
         <v>0</v>
       </c>
+      <c r="L151" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="N151" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="152" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B152" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="G152" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H152" s="3">
-        <v>0.2</v>
-      </c>
       <c r="I152" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="K152" s="3">
         <v>0</v>
       </c>
       <c r="N152" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="153" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I153" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="K153" s="3">
         <v>0</v>
-      </c>
-      <c r="L153" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="N153" s="3" t="s">
         <v>42</v>
@@ -4797,35 +4760,56 @@
         <v>0.1</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K154" s="3">
         <v>0</v>
       </c>
       <c r="N154" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="155" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I155" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>183</v>
+        <v>73</v>
       </c>
       <c r="K155" s="3">
         <v>0</v>
       </c>
       <c r="N155" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="156" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B156" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G156" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H156" s="3">
+        <v>0.2</v>
+      </c>
       <c r="I156" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="K156" s="3">
         <v>0</v>
@@ -4836,65 +4820,44 @@
     </row>
     <row r="157" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I157" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K157" s="3">
         <v>0</v>
       </c>
+      <c r="L157" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="N157" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="158" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B158" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E158" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F158" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="G158" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H158" s="3">
-        <v>0.2</v>
-      </c>
       <c r="I158" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c r="K158" s="3">
         <v>0</v>
       </c>
       <c r="N158" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="159" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I159" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c r="K159" s="3">
         <v>0</v>
-      </c>
-      <c r="L159" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="N159" s="3" t="s">
         <v>42</v>
@@ -4905,35 +4868,56 @@
         <v>0.1</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K160" s="3">
         <v>0</v>
       </c>
       <c r="N160" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="161" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I161" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="K161" s="3">
         <v>0</v>
       </c>
       <c r="N161" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="162" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B162" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F162" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G162" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H162" s="3">
+        <v>0.2</v>
+      </c>
       <c r="I162" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>190</v>
+        <v>43</v>
       </c>
       <c r="K162" s="3">
         <v>0</v>
@@ -4944,326 +4928,324 @@
     </row>
     <row r="163" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I163" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K163" s="3">
         <v>0</v>
       </c>
+      <c r="L163" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="N163" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="164" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B164" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E164" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G164" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H164" s="3">
-        <v>0.2</v>
-      </c>
       <c r="I164" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="K164" s="3">
         <v>0</v>
       </c>
       <c r="N164" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="165" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E165" s="11"/>
       <c r="I165" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>55</v>
+        <v>189</v>
       </c>
       <c r="K165" s="3">
         <v>0</v>
       </c>
-      <c r="L165" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="N165" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="166" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E166" s="11"/>
       <c r="I166" s="3">
         <v>0.1</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K166" s="3">
         <v>0</v>
       </c>
       <c r="N166" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="167" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I167" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J167" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K167" s="3">
+        <v>0</v>
+      </c>
+      <c r="N167" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B168" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G168" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H168" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I168" s="3">
+        <v>0</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K168" s="3">
+        <v>0</v>
+      </c>
+      <c r="N168" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E169" s="11"/>
+      <c r="I169" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K169" s="3">
+        <v>0</v>
+      </c>
+      <c r="L169" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N169" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E170" s="11"/>
+      <c r="I170" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K170" s="3">
+        <v>0</v>
+      </c>
+      <c r="N170" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I171" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J171" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="K167" s="3">
-        <v>0</v>
-      </c>
-      <c r="N167" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I168" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J168" s="3" t="s">
+      <c r="K171" s="3">
+        <v>0</v>
+      </c>
+      <c r="N171" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I172" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J172" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="K168" s="3">
-        <v>0</v>
-      </c>
-      <c r="N168" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I169" s="3">
-        <v>0</v>
-      </c>
-      <c r="J169" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K169" s="3">
-        <v>0</v>
-      </c>
-      <c r="N169" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B170" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E170" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G170" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H170" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I170" s="3">
-        <v>0</v>
-      </c>
-      <c r="J170" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K170" s="3">
-        <v>0</v>
-      </c>
-      <c r="N170" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E171" s="11"/>
-      <c r="I171" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="J171" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K171" s="3">
-        <v>0</v>
-      </c>
-      <c r="L171" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N171" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E172" s="11"/>
-      <c r="I172" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J172" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="K172" s="3">
         <v>0</v>
       </c>
       <c r="N172" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="173" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I173" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J173" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K173" s="3">
+        <v>0</v>
+      </c>
+      <c r="N173" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B174" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E174" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G174" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H174" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I174" s="3">
+        <v>0</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K174" s="3">
+        <v>0</v>
+      </c>
+      <c r="N174" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E175" s="11"/>
+      <c r="I175" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K175" s="3">
+        <v>0</v>
+      </c>
+      <c r="L175" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N175" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E176" s="11"/>
+      <c r="I176" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K176" s="3">
+        <v>0</v>
+      </c>
+      <c r="N176" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I177" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J177" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="K173" s="3">
-        <v>0</v>
-      </c>
-      <c r="N173" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I174" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J174" s="3" t="s">
+      <c r="K177" s="3">
+        <v>0</v>
+      </c>
+      <c r="N177" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I178" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J178" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="K174" s="3">
-        <v>0</v>
-      </c>
-      <c r="N174" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I175" s="3">
-        <v>0</v>
-      </c>
-      <c r="J175" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K175" s="3">
-        <v>0</v>
-      </c>
-      <c r="N175" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B176" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E176" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G176" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H176" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I176" s="3">
-        <v>0</v>
-      </c>
-      <c r="J176" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K176" s="3">
-        <v>0</v>
-      </c>
-      <c r="N176" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E177" s="11"/>
-      <c r="I177" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="J177" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K177" s="3">
-        <v>0</v>
-      </c>
-      <c r="L177" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N177" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E178" s="11"/>
-      <c r="I178" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J178" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="K178" s="3">
         <v>0</v>
       </c>
       <c r="N178" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="179" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I179" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c r="K179" s="3">
         <v>0</v>
       </c>
       <c r="N179" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="180" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B180" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E180" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G180" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H180" s="3">
+        <v>0.2</v>
+      </c>
       <c r="I180" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="K180" s="3">
         <v>0</v>
@@ -5273,66 +5255,47 @@
       </c>
     </row>
     <row r="181" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E181" s="11"/>
       <c r="I181" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K181" s="3">
         <v>0</v>
       </c>
+      <c r="L181" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="N181" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="182" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B182" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E182" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G182" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H182" s="3">
-        <v>0.2</v>
-      </c>
+      <c r="E182" s="11"/>
       <c r="I182" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c r="K182" s="3">
         <v>0</v>
       </c>
       <c r="N182" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="183" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I183" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>55</v>
+        <v>208</v>
       </c>
       <c r="K183" s="3">
         <v>0</v>
-      </c>
-      <c r="L183" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="N183" s="3" t="s">
         <v>42</v>
@@ -5343,35 +5306,56 @@
         <v>0.1</v>
       </c>
       <c r="J184" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K184" s="3">
         <v>0</v>
       </c>
       <c r="N184" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="185" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I185" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="K185" s="3">
         <v>0</v>
       </c>
       <c r="N185" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="186" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B186" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G186" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H186" s="3">
+        <v>0.2</v>
+      </c>
       <c r="I186" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>215</v>
+        <v>43</v>
       </c>
       <c r="K186" s="3">
         <v>0</v>
@@ -5382,65 +5366,44 @@
     </row>
     <row r="187" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I187" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K187" s="3">
         <v>0</v>
       </c>
+      <c r="L187" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="N187" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="188" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B188" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G188" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H188" s="3">
-        <v>0.2</v>
-      </c>
       <c r="I188" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="K188" s="3">
         <v>0</v>
       </c>
       <c r="N188" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="189" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I189" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="K189" s="3">
         <v>0</v>
-      </c>
-      <c r="L189" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="N189" s="3" t="s">
         <v>42</v>
@@ -5451,35 +5414,56 @@
         <v>0.1</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K190" s="3">
         <v>0</v>
       </c>
       <c r="N190" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="191" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I191" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="K191" s="3">
         <v>0</v>
       </c>
       <c r="N191" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="192" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B192" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G192" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H192" s="3">
+        <v>0.2</v>
+      </c>
       <c r="I192" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>221</v>
+        <v>43</v>
       </c>
       <c r="K192" s="3">
         <v>0</v>
@@ -5490,65 +5474,44 @@
     </row>
     <row r="193" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I193" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K193" s="3">
         <v>0</v>
       </c>
+      <c r="L193" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="N193" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="194" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B194" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G194" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H194" s="3">
-        <v>0.2</v>
-      </c>
       <c r="I194" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="K194" s="3">
         <v>0</v>
       </c>
       <c r="N194" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="195" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I195" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="K195" s="3">
         <v>0</v>
-      </c>
-      <c r="L195" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="N195" s="3" t="s">
         <v>42</v>
@@ -5559,35 +5522,56 @@
         <v>0.1</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K196" s="3">
         <v>0</v>
       </c>
       <c r="N196" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="197" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I197" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="K197" s="3">
         <v>0</v>
       </c>
       <c r="N197" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="198" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B198" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G198" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H198" s="3">
+        <v>0.2</v>
+      </c>
       <c r="I198" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>227</v>
+        <v>43</v>
       </c>
       <c r="K198" s="3">
         <v>0</v>
@@ -5598,326 +5582,324 @@
     </row>
     <row r="199" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I199" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K199" s="3">
         <v>0</v>
       </c>
+      <c r="L199" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="N199" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="200" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B200" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E200" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="F200" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G200" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H200" s="3">
-        <v>0.2</v>
-      </c>
       <c r="I200" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>43</v>
+        <v>225</v>
       </c>
       <c r="K200" s="3">
         <v>0</v>
       </c>
       <c r="N200" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="201" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E201" s="11"/>
       <c r="I201" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>55</v>
+        <v>226</v>
       </c>
       <c r="K201" s="3">
         <v>0</v>
       </c>
-      <c r="L201" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="N201" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="202" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E202" s="11"/>
       <c r="I202" s="3">
         <v>0.1</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K202" s="3">
         <v>0</v>
       </c>
       <c r="N202" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="203" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I203" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J203" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K203" s="3">
+        <v>0</v>
+      </c>
+      <c r="N203" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="204" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B204" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E204" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G204" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H204" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I204" s="3">
+        <v>0</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K204" s="3">
+        <v>0</v>
+      </c>
+      <c r="N204" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="205" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E205" s="11"/>
+      <c r="I205" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="J205" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K205" s="3">
+        <v>0</v>
+      </c>
+      <c r="L205" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N205" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E206" s="11"/>
+      <c r="I206" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J206" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K206" s="3">
+        <v>0</v>
+      </c>
+      <c r="N206" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="207" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I207" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J207" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K203" s="3">
-        <v>0</v>
-      </c>
-      <c r="N203" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I204" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J204" s="3" t="s">
+      <c r="K207" s="3">
+        <v>0</v>
+      </c>
+      <c r="N207" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="208" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I208" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J208" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="K204" s="3">
-        <v>0</v>
-      </c>
-      <c r="N204" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I205" s="3">
-        <v>0</v>
-      </c>
-      <c r="J205" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K205" s="3">
-        <v>0</v>
-      </c>
-      <c r="N205" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B206" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E206" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="F206" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G206" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H206" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I206" s="3">
-        <v>0</v>
-      </c>
-      <c r="J206" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K206" s="3">
-        <v>0</v>
-      </c>
-      <c r="N206" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E207" s="11"/>
-      <c r="I207" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="J207" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K207" s="3">
-        <v>0</v>
-      </c>
-      <c r="L207" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N207" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E208" s="11"/>
-      <c r="I208" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J208" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="K208" s="3">
         <v>0</v>
       </c>
       <c r="N208" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="209" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I209" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J209" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K209" s="3">
+        <v>0</v>
+      </c>
+      <c r="N209" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="210" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B210" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E210" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G210" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H210" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I210" s="3">
+        <v>0</v>
+      </c>
+      <c r="J210" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K210" s="3">
+        <v>0</v>
+      </c>
+      <c r="N210" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="211" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E211" s="11"/>
+      <c r="I211" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="J211" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K211" s="3">
+        <v>0</v>
+      </c>
+      <c r="L211" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N211" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="212" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E212" s="11"/>
+      <c r="I212" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J212" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="K212" s="3">
+        <v>0</v>
+      </c>
+      <c r="N212" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="213" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I213" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J213" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="K209" s="3">
-        <v>0</v>
-      </c>
-      <c r="N209" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="210" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I210" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J210" s="3" t="s">
+      <c r="K213" s="3">
+        <v>0</v>
+      </c>
+      <c r="N213" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="214" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I214" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J214" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="K210" s="3">
-        <v>0</v>
-      </c>
-      <c r="N210" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="211" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I211" s="3">
-        <v>0</v>
-      </c>
-      <c r="J211" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K211" s="3">
-        <v>0</v>
-      </c>
-      <c r="N211" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="212" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B212" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E212" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="F212" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G212" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H212" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I212" s="3">
-        <v>0</v>
-      </c>
-      <c r="J212" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K212" s="3">
-        <v>0</v>
-      </c>
-      <c r="N212" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="213" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E213" s="11"/>
-      <c r="I213" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="J213" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K213" s="3">
-        <v>0</v>
-      </c>
-      <c r="L213" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N213" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="214" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E214" s="11"/>
-      <c r="I214" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J214" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="K214" s="3">
         <v>0</v>
       </c>
       <c r="N214" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="215" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I215" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="K215" s="3">
         <v>0</v>
       </c>
       <c r="N215" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="216" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B216" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E216" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G216" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H216" s="3">
+        <v>0.2</v>
+      </c>
       <c r="I216" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>245</v>
+        <v>43</v>
       </c>
       <c r="K216" s="3">
         <v>0</v>
@@ -5927,46 +5909,30 @@
       </c>
     </row>
     <row r="217" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E217" s="11"/>
       <c r="I217" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K217" s="3">
         <v>0</v>
       </c>
+      <c r="L217" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="N217" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="218" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B218" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D218" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E218" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="F218" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="G218" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H218" s="3">
-        <v>0.2</v>
-      </c>
+      <c r="E218" s="11"/>
       <c r="I218" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K218" s="3">
         <v>0</v>
@@ -5977,10 +5943,10 @@
     </row>
     <row r="219" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I219" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J219" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K219" s="3">
         <v>0</v>
@@ -5991,10 +5957,10 @@
     </row>
     <row r="220" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I220" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K220" s="3">
         <v>0</v>
@@ -6022,13 +5988,13 @@
         <v>33</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E222" s="11" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F222" s="11" t="s">
         <v>130</v>
@@ -6043,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K222" s="3">
         <v>0</v>
@@ -6057,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="J223" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="K223" s="3">
         <v>0</v>
@@ -6067,8 +6033,11 @@
       </c>
     </row>
     <row r="224" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I224" s="3">
+        <v>0</v>
+      </c>
       <c r="J224" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="K224" s="3">
         <v>0</v>
@@ -6096,13 +6065,13 @@
         <v>33</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E226" s="11" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F226" s="11" t="s">
         <v>130</v>
@@ -6117,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K226" s="3">
         <v>0</v>
@@ -6131,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K227" s="3">
         <v>0</v>
@@ -6141,11 +6110,8 @@
       </c>
     </row>
     <row r="228" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I228" s="3">
-        <v>0</v>
-      </c>
       <c r="J228" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K228" s="3">
         <v>0</v>
@@ -6173,48 +6139,45 @@
         <v>33</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="E230" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
+      </c>
+      <c r="E230" s="11" t="s">
+        <v>260</v>
       </c>
       <c r="F230" s="11" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="G230" s="3" t="b">
         <v>0</v>
       </c>
       <c r="H230" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I230" s="3">
         <v>0</v>
       </c>
       <c r="J230" s="3" t="s">
-        <v>43</v>
+        <v>261</v>
       </c>
       <c r="K230" s="3">
         <v>0</v>
       </c>
       <c r="N230" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="231" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I231" s="3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J231" s="3" t="s">
-        <v>55</v>
+        <v>262</v>
       </c>
       <c r="K231" s="3">
         <v>0</v>
-      </c>
-      <c r="L231" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="N231" s="3" t="s">
         <v>42</v>
@@ -6222,38 +6185,59 @@
     </row>
     <row r="232" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I232" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K232" s="3">
         <v>0</v>
       </c>
       <c r="N232" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="233" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I233" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>268</v>
+        <v>73</v>
       </c>
       <c r="K233" s="3">
         <v>0</v>
       </c>
       <c r="N233" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="234" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B234" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D234" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F234" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G234" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H234" s="3">
+        <v>0.5</v>
+      </c>
       <c r="I234" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>269</v>
+        <v>43</v>
       </c>
       <c r="K234" s="3">
         <v>0</v>
@@ -6264,65 +6248,44 @@
     </row>
     <row r="235" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I235" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J235" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K235" s="3">
         <v>0</v>
       </c>
+      <c r="L235" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="N235" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="236" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B236" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D236" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="E236" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F236" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G236" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H236" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I236" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>43</v>
+        <v>267</v>
       </c>
       <c r="K236" s="3">
         <v>0</v>
       </c>
       <c r="N236" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="237" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I237" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J237" s="3" t="s">
-        <v>55</v>
+        <v>268</v>
       </c>
       <c r="K237" s="3">
         <v>0</v>
-      </c>
-      <c r="L237" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="N237" s="3" t="s">
         <v>42</v>
@@ -6333,35 +6296,56 @@
         <v>0.1</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K238" s="3">
         <v>0</v>
       </c>
       <c r="N238" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="239" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I239" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>274</v>
+        <v>73</v>
       </c>
       <c r="K239" s="3">
         <v>0</v>
       </c>
       <c r="N239" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="240" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B240" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D240" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F240" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G240" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H240" s="3">
+        <v>0.5</v>
+      </c>
       <c r="I240" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J240" s="3" t="s">
-        <v>275</v>
+        <v>43</v>
       </c>
       <c r="K240" s="3">
         <v>0</v>
@@ -6372,65 +6356,44 @@
     </row>
     <row r="241" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I241" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K241" s="3">
         <v>0</v>
       </c>
+      <c r="L241" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="N241" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="242" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B242" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D242" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E242" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F242" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G242" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H242" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I242" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J242" s="3" t="s">
-        <v>43</v>
+        <v>273</v>
       </c>
       <c r="K242" s="3">
         <v>0</v>
       </c>
       <c r="N242" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="243" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I243" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>55</v>
+        <v>274</v>
       </c>
       <c r="K243" s="3">
         <v>0</v>
-      </c>
-      <c r="L243" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="N243" s="3" t="s">
         <v>42</v>
@@ -6441,35 +6404,56 @@
         <v>0.1</v>
       </c>
       <c r="J244" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K244" s="3">
         <v>0</v>
       </c>
       <c r="N244" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="245" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I245" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J245" s="3" t="s">
-        <v>280</v>
+        <v>73</v>
       </c>
       <c r="K245" s="3">
         <v>0</v>
       </c>
       <c r="N245" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="246" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B246" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D246" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F246" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G246" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H246" s="3">
+        <v>0.5</v>
+      </c>
       <c r="I246" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>281</v>
+        <v>43</v>
       </c>
       <c r="K246" s="3">
         <v>0</v>
@@ -6480,65 +6464,44 @@
     </row>
     <row r="247" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I247" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K247" s="3">
         <v>0</v>
       </c>
+      <c r="L247" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="N247" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="248" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B248" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E248" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="F248" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G248" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H248" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I248" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>43</v>
+        <v>279</v>
       </c>
       <c r="K248" s="3">
         <v>0</v>
       </c>
       <c r="N248" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="249" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I249" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="K249" s="3">
         <v>0</v>
-      </c>
-      <c r="L249" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="N249" s="3" t="s">
         <v>42</v>
@@ -6549,35 +6512,56 @@
         <v>0.1</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K250" s="3">
         <v>0</v>
       </c>
       <c r="N250" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="251" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I251" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J251" t="s">
-        <v>287</v>
+        <v>0</v>
+      </c>
+      <c r="J251" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="K251" s="3">
         <v>0</v>
       </c>
       <c r="N251" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="252" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B252" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G252" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H252" s="3">
+        <v>0.5</v>
+      </c>
       <c r="I252" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>288</v>
+        <v>43</v>
       </c>
       <c r="K252" s="3">
         <v>0</v>
@@ -6588,24 +6572,27 @@
     </row>
     <row r="253" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I253" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>289</v>
+        <v>55</v>
       </c>
       <c r="K253" s="3">
         <v>0</v>
       </c>
+      <c r="L253" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="N253" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="254" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I254" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>73</v>
+        <v>286</v>
       </c>
       <c r="K254" s="3">
         <v>0</v>
@@ -6615,32 +6602,11 @@
       </c>
     </row>
     <row r="255" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B255" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E255" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F255" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G255" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H255" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I255" s="3">
-        <v>0</v>
-      </c>
-      <c r="J255" s="3" t="s">
-        <v>43</v>
+        <v>0.1</v>
+      </c>
+      <c r="J255" t="s">
+        <v>287</v>
       </c>
       <c r="K255" s="3">
         <v>0</v>
@@ -6651,16 +6617,13 @@
     </row>
     <row r="256" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I256" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>55</v>
+        <v>288</v>
       </c>
       <c r="K256" s="3">
         <v>0</v>
-      </c>
-      <c r="L256" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="N256" s="3" t="s">
         <v>42</v>
@@ -6671,7 +6634,7 @@
         <v>0.1</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K257" s="3">
         <v>0</v>
@@ -6682,24 +6645,45 @@
     </row>
     <row r="258" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I258" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J258" t="s">
-        <v>294</v>
+        <v>0</v>
+      </c>
+      <c r="J258" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="K258" s="3">
         <v>0</v>
       </c>
       <c r="N258" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="259" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B259" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G259" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H259" s="3">
+        <v>0.5</v>
+      </c>
       <c r="I259" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>295</v>
+        <v>43</v>
       </c>
       <c r="K259" s="3">
         <v>0</v>
@@ -6710,24 +6694,27 @@
     </row>
     <row r="260" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I260" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="K260" s="3">
         <v>0</v>
       </c>
+      <c r="L260" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="N260" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="261" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I261" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>73</v>
+        <v>293</v>
       </c>
       <c r="K261" s="3">
         <v>0</v>
@@ -6737,32 +6724,11 @@
       </c>
     </row>
     <row r="262" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B262" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D262" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E262" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F262" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G262" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H262" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I262" s="3">
-        <v>0</v>
-      </c>
-      <c r="J262" s="3" t="s">
-        <v>43</v>
+        <v>0.1</v>
+      </c>
+      <c r="J262" t="s">
+        <v>294</v>
       </c>
       <c r="K262" s="3">
         <v>0</v>
@@ -6773,16 +6739,13 @@
     </row>
     <row r="263" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I263" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>55</v>
+        <v>295</v>
       </c>
       <c r="K263" s="3">
         <v>0</v>
-      </c>
-      <c r="L263" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="N263" s="3" t="s">
         <v>42</v>
@@ -6793,7 +6756,7 @@
         <v>0.1</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K264" s="3">
         <v>0</v>
@@ -6804,24 +6767,45 @@
     </row>
     <row r="265" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I265" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J265" t="s">
-        <v>301</v>
+        <v>0</v>
+      </c>
+      <c r="J265" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="K265" s="3">
         <v>0</v>
       </c>
       <c r="N265" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="266" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B266" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G266" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H266" s="3">
+        <v>0.5</v>
+      </c>
       <c r="I266" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>302</v>
+        <v>43</v>
       </c>
       <c r="K266" s="3">
         <v>0</v>
@@ -6832,24 +6816,27 @@
     </row>
     <row r="267" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I267" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>303</v>
+        <v>55</v>
       </c>
       <c r="K267" s="3">
         <v>0</v>
       </c>
+      <c r="L267" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="N267" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="268" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I268" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>73</v>
+        <v>300</v>
       </c>
       <c r="K268" s="3">
         <v>0</v>
@@ -6859,32 +6846,11 @@
       </c>
     </row>
     <row r="269" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B269" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D269" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E269" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F269" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G269" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H269" s="3">
-        <v>0.2</v>
-      </c>
       <c r="I269" s="3">
-        <v>0</v>
-      </c>
-      <c r="J269" s="3" t="s">
-        <v>43</v>
+        <v>0.1</v>
+      </c>
+      <c r="J269" t="s">
+        <v>301</v>
       </c>
       <c r="K269" s="3">
         <v>0</v>
@@ -6895,16 +6861,13 @@
     </row>
     <row r="270" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I270" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>55</v>
+        <v>302</v>
       </c>
       <c r="K270" s="3">
         <v>0</v>
-      </c>
-      <c r="L270" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="N270" s="3" t="s">
         <v>42</v>
@@ -6915,7 +6878,7 @@
         <v>0.1</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K271" s="3">
         <v>0</v>
@@ -6926,24 +6889,45 @@
     </row>
     <row r="272" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I272" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>308</v>
+        <v>73</v>
       </c>
       <c r="K272" s="3">
         <v>0</v>
       </c>
       <c r="N272" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="273" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B273" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G273" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H273" s="3">
+        <v>0.2</v>
+      </c>
       <c r="I273" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>309</v>
+        <v>43</v>
       </c>
       <c r="K273" s="3">
         <v>0</v>
@@ -6954,65 +6938,44 @@
     </row>
     <row r="274" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I274" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K274" s="3">
         <v>0</v>
       </c>
+      <c r="L274" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="N274" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="275" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B275" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D275" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E275" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F275" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G275" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H275" s="3">
-        <v>0.2</v>
-      </c>
       <c r="I275" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="K275" s="3">
         <v>0</v>
       </c>
       <c r="N275" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="276" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I276" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>55</v>
+        <v>308</v>
       </c>
       <c r="K276" s="3">
         <v>0</v>
-      </c>
-      <c r="L276" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="N276" s="3" t="s">
         <v>42</v>
@@ -7023,35 +6986,56 @@
         <v>0.1</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K277" s="3">
         <v>0</v>
       </c>
       <c r="N277" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="278" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I278" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>314</v>
+        <v>73</v>
       </c>
       <c r="K278" s="3">
         <v>0</v>
       </c>
       <c r="N278" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="279" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B279" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G279" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H279" s="3">
+        <v>0.2</v>
+      </c>
       <c r="I279" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>315</v>
+        <v>43</v>
       </c>
       <c r="K279" s="3">
         <v>0</v>
@@ -7062,65 +7046,44 @@
     </row>
     <row r="280" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I280" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K280" s="3">
         <v>0</v>
       </c>
+      <c r="L280" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="N280" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="281" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B281" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D281" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E281" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F281" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G281" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H281" s="3">
-        <v>0.2</v>
-      </c>
       <c r="I281" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>43</v>
+        <v>313</v>
       </c>
       <c r="K281" s="3">
         <v>0</v>
       </c>
       <c r="N281" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="282" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I282" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>55</v>
+        <v>314</v>
       </c>
       <c r="K282" s="3">
         <v>0</v>
-      </c>
-      <c r="L282" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="N282" s="3" t="s">
         <v>42</v>
@@ -7131,35 +7094,56 @@
         <v>0.1</v>
       </c>
       <c r="J283" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K283" s="3">
         <v>0</v>
       </c>
       <c r="N283" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="284" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I284" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>320</v>
+        <v>73</v>
       </c>
       <c r="K284" s="3">
         <v>0</v>
       </c>
       <c r="N284" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="285" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B285" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G285" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H285" s="3">
+        <v>0.2</v>
+      </c>
       <c r="I285" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>321</v>
+        <v>43</v>
       </c>
       <c r="K285" s="3">
         <v>0</v>
@@ -7170,65 +7154,44 @@
     </row>
     <row r="286" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I286" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K286" s="3">
         <v>0</v>
       </c>
+      <c r="L286" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="N286" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="287" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B287" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C287" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D287" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E287" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="F287" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G287" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H287" s="3">
-        <v>0.2</v>
-      </c>
       <c r="I287" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>43</v>
+        <v>319</v>
       </c>
       <c r="K287" s="3">
         <v>0</v>
       </c>
       <c r="N287" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="288" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I288" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>55</v>
+        <v>320</v>
       </c>
       <c r="K288" s="3">
         <v>0</v>
-      </c>
-      <c r="L288" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="N288" s="3" t="s">
         <v>42</v>
@@ -7239,35 +7202,56 @@
         <v>0.1</v>
       </c>
       <c r="J289" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K289" s="3">
         <v>0</v>
       </c>
       <c r="N289" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="290" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I290" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>326</v>
+        <v>73</v>
       </c>
       <c r="K290" s="3">
         <v>0</v>
       </c>
       <c r="N290" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="291" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B291" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G291" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H291" s="3">
+        <v>0.2</v>
+      </c>
       <c r="I291" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>327</v>
+        <v>43</v>
       </c>
       <c r="K291" s="3">
         <v>0</v>
@@ -7278,65 +7262,44 @@
     </row>
     <row r="292" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I292" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K292" s="3">
         <v>0</v>
       </c>
+      <c r="L292" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="N292" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="293" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B293" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="E293" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F293" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G293" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H293" s="3">
-        <v>0.2</v>
-      </c>
       <c r="I293" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J293" s="3" t="s">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="K293" s="3">
         <v>0</v>
       </c>
       <c r="N293" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="294" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I294" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>55</v>
+        <v>326</v>
       </c>
       <c r="K294" s="3">
         <v>0</v>
-      </c>
-      <c r="L294" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="N294" s="3" t="s">
         <v>42</v>
@@ -7347,35 +7310,56 @@
         <v>0.1</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K295" s="3">
         <v>0</v>
       </c>
       <c r="N295" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="296" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I296" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>332</v>
+        <v>73</v>
       </c>
       <c r="K296" s="3">
         <v>0</v>
       </c>
       <c r="N296" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="297" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B297" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G297" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H297" s="3">
+        <v>0.2</v>
+      </c>
       <c r="I297" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J297" s="3" t="s">
-        <v>333</v>
+        <v>43</v>
       </c>
       <c r="K297" s="3">
         <v>0</v>
@@ -7386,65 +7370,44 @@
     </row>
     <row r="298" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I298" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J298" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K298" s="3">
         <v>0</v>
       </c>
+      <c r="L298" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="N298" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="299" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B299" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D299" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E299" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F299" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G299" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H299" s="3">
-        <v>0.2</v>
-      </c>
       <c r="I299" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>43</v>
+        <v>331</v>
       </c>
       <c r="K299" s="3">
         <v>0</v>
       </c>
       <c r="N299" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="300" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I300" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J300" s="3" t="s">
-        <v>55</v>
+        <v>332</v>
       </c>
       <c r="K300" s="3">
         <v>0</v>
-      </c>
-      <c r="L300" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="N300" s="3" t="s">
         <v>42</v>
@@ -7455,35 +7418,56 @@
         <v>0.1</v>
       </c>
       <c r="J301" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K301" s="3">
         <v>0</v>
       </c>
       <c r="N301" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="302" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I302" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J302" s="3" t="s">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="K302" s="3">
         <v>0</v>
       </c>
       <c r="N302" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="303" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B303" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G303" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H303" s="3">
+        <v>0.2</v>
+      </c>
       <c r="I303" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>339</v>
+        <v>43</v>
       </c>
       <c r="K303" s="3">
         <v>0</v>
@@ -7494,65 +7478,44 @@
     </row>
     <row r="304" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I304" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K304" s="3">
         <v>0</v>
       </c>
+      <c r="L304" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="N304" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="305" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B305" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D305" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E305" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F305" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="G305" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H305" s="3">
-        <v>0.2</v>
-      </c>
       <c r="I305" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>43</v>
+        <v>337</v>
       </c>
       <c r="K305" s="3">
         <v>0</v>
       </c>
       <c r="N305" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="306" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I306" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>55</v>
+        <v>338</v>
       </c>
       <c r="K306" s="3">
         <v>0</v>
-      </c>
-      <c r="L306" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="N306" s="3" t="s">
         <v>42</v>
@@ -7563,35 +7526,56 @@
         <v>0.1</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="K307" s="3">
         <v>0</v>
       </c>
       <c r="N307" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="308" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I308" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J308" s="3" t="s">
-        <v>345</v>
+        <v>73</v>
       </c>
       <c r="K308" s="3">
         <v>0</v>
       </c>
       <c r="N308" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="309" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B309" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G309" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H309" s="3">
+        <v>0.2</v>
+      </c>
       <c r="I309" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J309" s="3" t="s">
-        <v>346</v>
+        <v>43</v>
       </c>
       <c r="K309" s="3">
         <v>0</v>
@@ -7602,65 +7586,44 @@
     </row>
     <row r="310" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I310" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K310" s="3">
         <v>0</v>
       </c>
+      <c r="L310" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="N310" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="311" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B311" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C311" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D311" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="E311" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F311" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="G311" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H311" s="3">
-        <v>0.2</v>
-      </c>
       <c r="I311" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>43</v>
+        <v>344</v>
       </c>
       <c r="K311" s="3">
         <v>0</v>
       </c>
       <c r="N311" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="312" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I312" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J312" s="3" t="s">
-        <v>55</v>
+        <v>345</v>
       </c>
       <c r="K312" s="3">
         <v>0</v>
-      </c>
-      <c r="L312" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="N312" s="3" t="s">
         <v>42</v>
@@ -7671,35 +7634,56 @@
         <v>0.1</v>
       </c>
       <c r="J313" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K313" s="3">
         <v>0</v>
       </c>
       <c r="N313" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="314" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I314" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J314" s="3" t="s">
-        <v>351</v>
+        <v>73</v>
       </c>
       <c r="K314" s="3">
         <v>0</v>
       </c>
       <c r="N314" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="315" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B315" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G315" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H315" s="3">
+        <v>0.2</v>
+      </c>
       <c r="I315" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J315" s="3" t="s">
-        <v>352</v>
+        <v>43</v>
       </c>
       <c r="K315" s="3">
         <v>0</v>
@@ -7710,65 +7694,44 @@
     </row>
     <row r="316" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I316" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J316" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K316" s="3">
         <v>0</v>
       </c>
+      <c r="L316" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="N316" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="317" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B317" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C317" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D317" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="E317" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F317" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="G317" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H317" s="3">
-        <v>0.2</v>
-      </c>
       <c r="I317" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J317" s="3" t="s">
-        <v>43</v>
+        <v>350</v>
       </c>
       <c r="K317" s="3">
         <v>0</v>
       </c>
       <c r="N317" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="318" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I318" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>55</v>
+        <v>351</v>
       </c>
       <c r="K318" s="3">
         <v>0</v>
-      </c>
-      <c r="L318" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="N318" s="3" t="s">
         <v>42</v>
@@ -7779,54 +7742,134 @@
         <v>0.1</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K319" s="3">
         <v>0</v>
       </c>
       <c r="N319" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="320" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I320" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J320" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K320" s="3">
+        <v>0</v>
+      </c>
+      <c r="N320" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="321" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B321" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G321" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H321" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I321" s="3">
+        <v>0</v>
+      </c>
+      <c r="J321" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K321" s="3">
+        <v>0</v>
+      </c>
+      <c r="N321" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="322" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I322" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="J322" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K322" s="3">
+        <v>0</v>
+      </c>
+      <c r="L322" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N322" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="323" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I323" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J323" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="K323" s="3">
+        <v>0</v>
+      </c>
+      <c r="N323" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="324" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I324" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J324" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="K320" s="3">
-        <v>0</v>
-      </c>
-      <c r="N320" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="321" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I321" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J321" s="3" t="s">
+      <c r="K324" s="3">
+        <v>0</v>
+      </c>
+      <c r="N324" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="325" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I325" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J325" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="K321" s="3">
-        <v>0</v>
-      </c>
-      <c r="N321" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="322" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I322" s="3">
-        <v>0</v>
-      </c>
-      <c r="J322" s="3" t="s">
+      <c r="K325" s="3">
+        <v>0</v>
+      </c>
+      <c r="N325" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="326" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I326" s="3">
+        <v>0</v>
+      </c>
+      <c r="J326" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K322" s="3">
-        <v>0</v>
-      </c>
-      <c r="N322" s="3" t="s">
+      <c r="K326" s="3">
+        <v>0</v>
+      </c>
+      <c r="N326" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7836,13 +7879,13 @@
     <mergeCell ref="I4:N4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="J107">
+  <conditionalFormatting sqref="J111">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J112">
+  <conditionalFormatting sqref="J116">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J117">
+  <conditionalFormatting sqref="J121">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/TimelineConfig/TimelineCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TimelineConfig/TimelineCfg.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TimelineConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TimelineConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF19C98-7EFD-4A14-8E1E-EE41D0C5879B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39DC743-2517-4F62-BCAE-6785056769D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="391">
   <si>
     <t>##var</t>
   </si>
@@ -147,9 +158,6 @@
     <t>PlayAnimator_None</t>
   </si>
   <si>
-    <t>SelectObjectConfig_Self</t>
-  </si>
-  <si>
     <t>Move1</t>
   </si>
   <si>
@@ -162,18 +170,12 @@
     <t>BuffStackCountCondition;eq;4&amp;BuffTagTypeCondition;eq;BuffTagType1|AttributeCondition;gt;MaxHpAdd;4&amp;ProbabilityCondition;eq;50</t>
   </si>
   <si>
-    <t>SelectObjectConfig_SelectLast</t>
-  </si>
-  <si>
     <t>FaceTo_Forward_ForceSetFace</t>
   </si>
   <si>
     <t>FireBullet_1</t>
   </si>
   <si>
-    <t>SelectObjectConfig_Umbellate_1</t>
-  </si>
-  <si>
     <t>FireBullet_2</t>
   </si>
   <si>
@@ -184,9 +186,6 @@
   </si>
   <si>
     <t>AttackArea_One1</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Rectangle_1</t>
   </si>
   <si>
     <t>Player2</t>
@@ -1134,6 +1133,170 @@
   <si>
     <t>BuffAdd_Line3</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体攻击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline_Skill_TowerBomb1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerBomb1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_FireTowerBomb1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PlayAnimator_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TowerBomb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1_Attack</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PlayAudio_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HitTowerBomb1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EffectCreate_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HitTowerBomb1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AttackArea_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TowerBomb1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline_Skill_TowerBomb2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerBomb2</t>
+  </si>
+  <si>
+    <t>EffectCreate_FireTowerBomb2</t>
+  </si>
+  <si>
+    <t>PlayAnimator_TowerBomb2_Attack</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerBomb2</t>
+  </si>
+  <si>
+    <t>EffectCreate_HitTowerBomb2</t>
+  </si>
+  <si>
+    <t>AttackArea_TowerBomb2</t>
+  </si>
+  <si>
+    <t>Timeline_Skill_TowerBomb3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerBomb3</t>
+  </si>
+  <si>
+    <t>EffectCreate_FireTowerBomb3</t>
+  </si>
+  <si>
+    <t>PlayAnimator_TowerBomb3_Attack</t>
+  </si>
+  <si>
+    <t>PlayAudio_HitTowerBomb3</t>
+  </si>
+  <si>
+    <t>EffectCreate_HitTowerBomb3</t>
+  </si>
+  <si>
+    <t>AttackArea_TowerBomb3</t>
+  </si>
+  <si>
+    <t>炸弹2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_TowerBombSelf</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Self</t>
+  </si>
+  <si>
+    <t>SelectObject_SelectLast</t>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_1</t>
+  </si>
+  <si>
+    <t>SelectObject_Rectangle_1</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1312,6 +1475,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1633,33 +1799,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N326"/>
+  <dimension ref="A1:N347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J110" sqref="J110"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K319" sqref="K319"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="3" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="24.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="34" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.25" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="33.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="33.44140625" style="3" customWidth="1"/>
     <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1680,16 +1846,16 @@
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1719,7 +1885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1737,7 +1903,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1758,16 +1924,16 @@
       <c r="H4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-    </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -1787,7 +1953,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1831,7 +1997,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1864,25 +2030,25 @@
         <v>0</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="3" t="str">
         <f>B8&amp;"_"&amp;C8</f>
         <v>Timeline_Move1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="3" t="b">
         <v>1</v>
@@ -1900,10 +2066,10 @@
         <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>33</v>
       </c>
@@ -1925,46 +2091,46 @@
         <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="N9" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E10" s="6"/>
       <c r="J10" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E11" s="6"/>
       <c r="I11" s="3">
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>33</v>
       </c>
@@ -1986,31 +2152,31 @@
         <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E13" s="6"/>
       <c r="I13" s="3">
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
@@ -2032,51 +2198,51 @@
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E15" s="6"/>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E16" s="6"/>
       <c r="I16" s="3">
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D17" s="3" t="str">
         <f>B17&amp;"_"&amp;C17</f>
@@ -2093,36 +2259,36 @@
         <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E18" s="6"/>
       <c r="I18" s="3">
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D19" s="3" t="str">
         <f>B19&amp;"_"&amp;C19</f>
@@ -2139,21 +2305,21 @@
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D20" s="3" t="str">
         <f>B20&amp;"_"&amp;C20</f>
@@ -2170,21 +2336,21 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D21" s="3" t="str">
         <f>B21&amp;"_"&amp;C21</f>
@@ -2201,52 +2367,52 @@
         <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I22" s="3">
         <v>0.05</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I23" s="3">
         <v>0.2</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D24" s="3" t="str">
         <f>B24&amp;"_"&amp;C24</f>
@@ -2263,66 +2429,66 @@
         <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I25" s="3">
         <v>0.05</v>
       </c>
       <c r="J25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I26" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I26" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I27" s="3">
         <v>0.2</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D28" s="3" t="str">
         <f>B28&amp;"_"&amp;C28</f>
@@ -2339,66 +2505,66 @@
         <v>0</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28" s="3">
         <v>0</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I29" s="3">
         <v>0.05</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I30" s="3">
         <v>0.1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K30" s="3">
         <v>0</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I31" s="3">
         <v>0.2</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K31" s="3">
         <v>0</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D32" s="3" t="str">
         <f>B32&amp;"_"&amp;C32</f>
@@ -2415,66 +2581,66 @@
         <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I33" s="3">
         <v>0.05</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I34" s="3">
         <v>0.1</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K34" s="3">
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I35" s="3">
         <v>0.2</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D36" s="3" t="str">
         <f>B36&amp;"_"&amp;C36</f>
@@ -2491,76 +2657,76 @@
         <v>0</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K36" s="3">
         <v>0</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I37" s="3">
         <v>0.05</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K37" s="3">
         <v>0</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I38" s="3">
         <v>0.1</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K38" s="3">
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I39" s="3">
         <v>0.2</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K39" s="3">
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D40" s="3" t="str">
         <f>B40&amp;"_"&amp;C40</f>
         <v>Timeline_PlayerSolo1</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G40" s="3" t="b">
         <v>0</v>
@@ -2572,104 +2738,104 @@
         <v>0</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K40" s="3">
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I41" s="3">
         <v>0.05</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I42" s="3">
         <v>0.1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I43" s="3">
         <v>0.1</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I44" s="3">
         <v>0.1</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D46" s="3" t="str">
         <f>B46&amp;"_"&amp;C46</f>
         <v>Timeline_PlayerSolo2</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G46" s="3" t="b">
         <v>0</v>
@@ -2681,104 +2847,104 @@
         <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I47" s="3">
         <v>0.05</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I48" s="3">
         <v>0.1</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I49" s="3">
         <v>0.1</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I50" s="3">
         <v>0.1</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K50" s="3">
         <v>0</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I51" s="3">
         <v>0</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K51" s="3">
         <v>0</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D52" s="3" t="str">
         <f>B52&amp;"_"&amp;C52</f>
         <v>Timeline_PlayerSolo3</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G52" s="3" t="b">
         <v>0</v>
@@ -2790,104 +2956,104 @@
         <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I53" s="3">
         <v>0.05</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K53" s="3">
         <v>0</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I54" s="3">
         <v>0.1</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I55" s="3">
         <v>0.1</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K55" s="3">
         <v>0</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I56" s="3">
         <v>0.1</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K56" s="3">
         <v>0</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I57" s="3">
         <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D58" s="3" t="str">
         <f t="shared" ref="D58" si="0">B58&amp;"_"&amp;C58</f>
         <v>Timeline_PlayerAoe1</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G58" s="3" t="b">
         <v>0</v>
@@ -2899,101 +3065,101 @@
         <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I59" s="3">
         <v>0.05</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I60" s="3">
         <v>0.1</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I61" s="3">
         <v>0.1</v>
       </c>
       <c r="J61" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J62" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I63" s="3">
         <v>0</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K63" s="3">
         <v>0</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D64" s="3" t="str">
         <f>B64&amp;"_"&amp;C64</f>
         <v>Timeline_PlayerAoe2</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G64" s="3" t="b">
         <v>0</v>
@@ -3005,101 +3171,101 @@
         <v>0</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K64" s="3">
         <v>0</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I65" s="3">
         <v>0.05</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K65" s="3">
         <v>0</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I66" s="3">
         <v>0.1</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I67" s="3">
         <v>0.1</v>
       </c>
       <c r="J67" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K67" s="3">
         <v>0</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J68" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K68" s="3">
         <v>0</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I69" s="3">
         <v>0</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K69" s="3">
         <v>0</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D70" s="3" t="str">
         <f t="shared" ref="D70" si="1">B70&amp;"_"&amp;C70</f>
         <v>Timeline_PlayerAoe3</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G70" s="3" t="b">
         <v>0</v>
@@ -3111,104 +3277,104 @@
         <v>0</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I71" s="3">
         <v>0.05</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K71" s="3">
         <v>0</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I72" s="3">
         <v>0.1</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I73" s="3">
         <v>0.1</v>
       </c>
       <c r="J73" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K73" s="3">
         <v>0</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I74" s="3">
         <v>0.1</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K74" s="3">
         <v>0</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I75" s="3">
         <v>0</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K75" s="3">
         <v>0</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D76" s="3" t="str">
         <f>B76&amp;"_"&amp;C76</f>
         <v>Timeline_PlayerLine1</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G76" s="3" t="b">
         <v>0</v>
@@ -3220,62 +3386,62 @@
         <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I77" s="3">
         <v>0.05</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K77" s="3">
         <v>0</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I78" s="3">
         <v>0.1</v>
       </c>
       <c r="J78" s="13" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K78" s="3">
         <v>0</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D79" s="3" t="str">
         <f t="shared" ref="D79:D88" si="2">B79&amp;"_"&amp;C79</f>
         <v>Timeline_PlayerLine2</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G79" s="3" t="b">
         <v>0</v>
@@ -3287,63 +3453,63 @@
         <v>0</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K79" s="3">
         <v>0</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I80" s="3">
         <v>0.05</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K80" s="3">
         <v>0</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C81" s="13"/>
       <c r="I81" s="3">
         <v>0.1</v>
       </c>
       <c r="J81" s="13" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D82" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Timeline_PlayerLine3</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G82" s="3" t="b">
         <v>0</v>
@@ -3355,62 +3521,62 @@
         <v>0</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K82" s="3">
         <v>0</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I83" s="3">
         <v>0.05</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I84" s="3">
         <v>0.1</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K84" s="3">
         <v>0</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D85" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Timeline_PlayerCircle1</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G85" s="3" t="b">
         <v>0</v>
@@ -3422,31 +3588,31 @@
         <v>0</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K85" s="3">
         <v>0</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D86" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Timeline_PlayerCircle2</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G86" s="3" t="b">
         <v>0</v>
@@ -3458,31 +3624,31 @@
         <v>0</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K86" s="3">
         <v>0</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D87" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Timeline_PlayerCircle3</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G87" s="3" t="b">
         <v>0</v>
@@ -3494,31 +3660,31 @@
         <v>0</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K87" s="3">
         <v>0</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D88" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Timeline_EnemySolo1</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G88" s="3" t="b">
         <v>0</v>
@@ -3530,76 +3696,76 @@
         <v>0</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K88" s="3">
         <v>0</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I89" s="3">
         <v>0.05</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I90" s="3">
         <v>0.1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K90" s="3">
         <v>0</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I91" s="3">
         <v>0.1</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D92" s="3" t="str">
         <f t="shared" ref="D92" si="3">B92&amp;"_"&amp;C92</f>
         <v>Timeline_TowerDragon1</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G92" s="3" t="b">
         <v>0</v>
@@ -3611,90 +3777,90 @@
         <v>0</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K92" s="3">
         <v>0</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I93" s="3">
         <v>0.05</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K93" s="3">
         <v>0</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I94" s="3">
         <v>0.1</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I95" s="3">
         <v>0.1</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K95" s="3">
         <v>0</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D97" s="3" t="str">
         <f t="shared" ref="D97" si="4">B97&amp;"_"&amp;C97</f>
         <v>Timeline_TowerDragon2</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G97" s="3" t="b">
         <v>0</v>
@@ -3706,90 +3872,90 @@
         <v>0</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K97" s="3">
         <v>0</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I98" s="3">
         <v>0.05</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K98" s="3">
         <v>0</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I99" s="3">
         <v>0.1</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K99" s="3">
         <v>0</v>
       </c>
       <c r="N99" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I100" s="3">
         <v>0.1</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D102" s="3" t="str">
         <f t="shared" ref="D102" si="5">B102&amp;"_"&amp;C102</f>
         <v>Timeline_TowerDragon3</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G102" s="3" t="b">
         <v>0</v>
@@ -3801,146 +3967,146 @@
         <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I103" s="3">
         <v>0.05</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K103" s="3">
         <v>0</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N103" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I104" s="3">
         <v>0.1</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K104" s="3">
         <v>0</v>
       </c>
       <c r="N104" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I105" s="3">
         <v>0.1</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K105" s="3">
         <v>0</v>
       </c>
       <c r="N105" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I106" s="3">
         <v>0.3</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K106" s="3">
         <v>0</v>
       </c>
       <c r="N106" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I107" s="3">
         <v>0.3</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K107" s="3">
         <v>0</v>
       </c>
       <c r="N107" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I108" s="3">
         <v>0.5</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K108" s="3">
         <v>0</v>
       </c>
       <c r="N108" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I109" s="3">
         <v>0.5</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K109" s="3">
         <v>0</v>
       </c>
       <c r="N109" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I110" s="3">
         <v>0</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K110" s="3">
         <v>0</v>
       </c>
       <c r="N110" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D111" s="3" t="str">
         <f>B111&amp;"_"&amp;C111</f>
         <v>Timeline_TowerElec1</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G111" s="3" t="b">
         <v>0</v>
@@ -3952,87 +4118,87 @@
         <v>0.1</v>
       </c>
       <c r="J111" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K111" s="3">
         <v>0</v>
       </c>
       <c r="N111" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I112" s="3">
         <v>0</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K112" s="3">
         <v>0</v>
       </c>
       <c r="N112" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I113" s="3">
         <v>0</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K113" s="3">
         <v>0</v>
       </c>
       <c r="N113" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I114" s="3">
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K114" s="3">
         <v>0</v>
       </c>
       <c r="N114" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I115" s="3">
         <v>0</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K115" s="3">
         <v>0</v>
       </c>
       <c r="N115" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D116" s="3" t="str">
         <f>B116&amp;"_"&amp;C116</f>
         <v>Timeline_TowerElec2</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G116" s="3" t="b">
         <v>0</v>
@@ -4044,87 +4210,87 @@
         <v>0.1</v>
       </c>
       <c r="J116" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K116" s="3">
         <v>0</v>
       </c>
       <c r="N116" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I117" s="3">
         <v>0</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K117" s="3">
         <v>0</v>
       </c>
       <c r="N117" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I118" s="3">
         <v>0</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K118" s="3">
         <v>0</v>
       </c>
       <c r="N118" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I119" s="3">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K119" s="3">
         <v>0</v>
       </c>
       <c r="N119" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I120" s="3">
         <v>0</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K120" s="3">
         <v>0</v>
       </c>
       <c r="N120" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D121" s="3" t="str">
         <f>B121&amp;"_"&amp;C121</f>
         <v>Timeline_TowerElec3</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G121" s="3" t="b">
         <v>0</v>
@@ -4136,87 +4302,87 @@
         <v>0.1</v>
       </c>
       <c r="J121" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K121" s="3">
         <v>0</v>
       </c>
       <c r="N121" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I122" s="3">
         <v>0</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K122" s="3">
         <v>0</v>
       </c>
       <c r="N122" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I123" s="3">
         <v>0</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K123" s="3">
         <v>0</v>
       </c>
       <c r="N123" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I124" s="3">
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K124" s="3">
         <v>0</v>
       </c>
       <c r="N124" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I125" s="3">
         <v>0</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K125" s="3">
         <v>0</v>
       </c>
       <c r="N125" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D126" s="3" t="str">
         <f t="shared" ref="D126" si="6">B126&amp;"_"&amp;C126</f>
         <v>Timeline_TowerIce1</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G126" s="3" t="b">
         <v>0</v>
@@ -4228,90 +4394,90 @@
         <v>0</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K126" s="3">
         <v>0</v>
       </c>
       <c r="N126" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I127" s="3">
         <v>0.05</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K127" s="3">
         <v>0</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N127" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I128" s="3">
         <v>0.1</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K128" s="3">
         <v>0</v>
       </c>
       <c r="N128" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I129" s="3">
         <v>0.1</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K129" s="3">
         <v>0</v>
       </c>
       <c r="N129" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I130" s="3">
         <v>0</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K130" s="3">
         <v>0</v>
       </c>
       <c r="N130" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D131" s="3" t="str">
         <f t="shared" ref="D131" si="7">B131&amp;"_"&amp;C131</f>
         <v>Timeline_TowerIce2</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G131" s="3" t="b">
         <v>0</v>
@@ -4323,90 +4489,90 @@
         <v>0</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K131" s="3">
         <v>0</v>
       </c>
       <c r="N131" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I132" s="3">
         <v>0.05</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K132" s="3">
         <v>0</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N132" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I133" s="3">
         <v>0.1</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K133" s="3">
         <v>0</v>
       </c>
       <c r="N133" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I134" s="3">
         <v>0.1</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K134" s="3">
         <v>0</v>
       </c>
       <c r="N134" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I135" s="3">
         <v>0</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K135" s="3">
         <v>0</v>
       </c>
       <c r="N135" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D136" s="3" t="str">
         <f t="shared" ref="D136" si="8">B136&amp;"_"&amp;C136</f>
         <v>Timeline_TowerIce3</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G136" s="3" t="b">
         <v>0</v>
@@ -4418,89 +4584,89 @@
         <v>0</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K136" s="3">
         <v>0</v>
       </c>
       <c r="N136" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I137" s="3">
         <v>0.05</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K137" s="3">
         <v>0</v>
       </c>
       <c r="L137" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N137" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I138" s="3">
         <v>0.1</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K138" s="3">
         <v>0</v>
       </c>
       <c r="N138" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I139" s="3">
         <v>0.1</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K139" s="3">
         <v>0</v>
       </c>
       <c r="N139" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I140" s="3">
         <v>0</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K140" s="3">
         <v>0</v>
       </c>
       <c r="N140" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G141" s="3" t="b">
         <v>0</v>
@@ -4512,58 +4678,58 @@
         <v>0</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K141" s="3">
         <v>0</v>
       </c>
       <c r="N141" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I142" s="3">
         <v>0</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K142" s="3">
         <v>0</v>
       </c>
       <c r="N142" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I143" s="3">
         <v>0</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K143" s="3">
         <v>0</v>
       </c>
       <c r="N143" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G144" s="3" t="b">
         <v>0</v>
@@ -4575,58 +4741,58 @@
         <v>0</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K144" s="3">
         <v>0</v>
       </c>
       <c r="N144" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I145" s="3">
         <v>0</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K145" s="3">
         <v>0</v>
       </c>
       <c r="N145" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I146" s="3">
         <v>0</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K146" s="3">
         <v>0</v>
       </c>
       <c r="N146" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G147" s="3" t="b">
         <v>0</v>
@@ -4638,58 +4804,58 @@
         <v>0</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K147" s="3">
         <v>0</v>
       </c>
       <c r="N147" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I148" s="3">
         <v>0</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K148" s="3">
         <v>0</v>
       </c>
       <c r="N148" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I149" s="3">
         <v>0</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K149" s="3">
         <v>0</v>
       </c>
       <c r="N149" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G150" s="3" t="b">
         <v>0</v>
@@ -4701,103 +4867,103 @@
         <v>0</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K150" s="3">
         <v>0</v>
       </c>
       <c r="N150" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I151" s="3">
         <v>0.05</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K151" s="3">
         <v>0</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N151" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I152" s="3">
         <v>0.1</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K152" s="3">
         <v>0</v>
       </c>
       <c r="N152" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I153" s="3">
         <v>0.1</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K153" s="3">
         <v>0</v>
       </c>
       <c r="N153" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I154" s="3">
         <v>0.1</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K154" s="3">
         <v>0</v>
       </c>
       <c r="N154" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I155" s="3">
         <v>0</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K155" s="3">
         <v>0</v>
       </c>
       <c r="N155" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E156" s="11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G156" s="3" t="b">
         <v>0</v>
@@ -4809,103 +4975,103 @@
         <v>0</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K156" s="3">
         <v>0</v>
       </c>
       <c r="N156" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I157" s="3">
         <v>0.05</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K157" s="3">
         <v>0</v>
       </c>
       <c r="L157" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N157" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I158" s="3">
         <v>0.1</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K158" s="3">
         <v>0</v>
       </c>
       <c r="N158" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I159" s="3">
         <v>0.1</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K159" s="3">
         <v>0</v>
       </c>
       <c r="N159" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I160" s="3">
         <v>0.1</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K160" s="3">
         <v>0</v>
       </c>
       <c r="N160" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I161" s="3">
         <v>0</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K161" s="3">
         <v>0</v>
       </c>
       <c r="N161" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F162" s="11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G162" s="3" t="b">
         <v>0</v>
@@ -4917,103 +5083,103 @@
         <v>0</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K162" s="3">
         <v>0</v>
       </c>
       <c r="N162" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I163" s="3">
         <v>0.05</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K163" s="3">
         <v>0</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N163" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I164" s="3">
         <v>0.1</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K164" s="3">
         <v>0</v>
       </c>
       <c r="N164" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I165" s="3">
         <v>0.1</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K165" s="3">
         <v>0</v>
       </c>
       <c r="N165" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I166" s="3">
         <v>0.1</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K166" s="3">
         <v>0</v>
       </c>
       <c r="N166" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I167" s="3">
         <v>0</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K167" s="3">
         <v>0</v>
       </c>
       <c r="N167" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E168" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G168" s="3" t="b">
         <v>0</v>
@@ -5025,105 +5191,105 @@
         <v>0</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K168" s="3">
         <v>0</v>
       </c>
       <c r="N168" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E169" s="11"/>
       <c r="I169" s="3">
         <v>0.05</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K169" s="3">
         <v>0</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N169" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E170" s="11"/>
       <c r="I170" s="3">
         <v>0.1</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K170" s="3">
         <v>0</v>
       </c>
       <c r="N170" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I171" s="3">
         <v>0.1</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K171" s="3">
         <v>0</v>
       </c>
       <c r="N171" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I172" s="3">
         <v>0.1</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K172" s="3">
         <v>0</v>
       </c>
       <c r="N172" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I173" s="3">
         <v>0</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K173" s="3">
         <v>0</v>
       </c>
       <c r="N173" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G174" s="3" t="b">
         <v>0</v>
@@ -5135,105 +5301,105 @@
         <v>0</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K174" s="3">
         <v>0</v>
       </c>
       <c r="N174" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E175" s="11"/>
       <c r="I175" s="3">
         <v>0.05</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K175" s="3">
         <v>0</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N175" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E176" s="11"/>
       <c r="I176" s="3">
         <v>0.1</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K176" s="3">
         <v>0</v>
       </c>
       <c r="N176" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I177" s="3">
         <v>0.1</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K177" s="3">
         <v>0</v>
       </c>
       <c r="N177" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I178" s="3">
         <v>0.1</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K178" s="3">
         <v>0</v>
       </c>
       <c r="N178" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I179" s="3">
         <v>0</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K179" s="3">
         <v>0</v>
       </c>
       <c r="N179" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G180" s="3" t="b">
         <v>0</v>
@@ -5245,105 +5411,105 @@
         <v>0</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K180" s="3">
         <v>0</v>
       </c>
       <c r="N180" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E181" s="11"/>
       <c r="I181" s="3">
         <v>0.05</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K181" s="3">
         <v>0</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N181" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E182" s="11"/>
       <c r="I182" s="3">
         <v>0.1</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K182" s="3">
         <v>0</v>
       </c>
       <c r="N182" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I183" s="3">
         <v>0.1</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K183" s="3">
         <v>0</v>
       </c>
       <c r="N183" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I184" s="3">
         <v>0.1</v>
       </c>
       <c r="J184" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K184" s="3">
         <v>0</v>
       </c>
       <c r="N184" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I185" s="3">
         <v>0</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K185" s="3">
         <v>0</v>
       </c>
       <c r="N185" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G186" s="3" t="b">
         <v>0</v>
@@ -5355,103 +5521,103 @@
         <v>0</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K186" s="3">
         <v>0</v>
       </c>
       <c r="N186" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I187" s="3">
         <v>0.05</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K187" s="3">
         <v>0</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N187" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I188" s="3">
         <v>0.1</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K188" s="3">
         <v>0</v>
       </c>
       <c r="N188" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I189" s="3">
         <v>0.1</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K189" s="3">
         <v>0</v>
       </c>
       <c r="N189" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I190" s="3">
         <v>0.1</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K190" s="3">
         <v>0</v>
       </c>
       <c r="N190" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I191" s="3">
         <v>0</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K191" s="3">
         <v>0</v>
       </c>
       <c r="N191" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G192" s="3" t="b">
         <v>0</v>
@@ -5463,103 +5629,103 @@
         <v>0</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K192" s="3">
         <v>0</v>
       </c>
       <c r="N192" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I193" s="3">
         <v>0.05</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K193" s="3">
         <v>0</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N193" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I194" s="3">
         <v>0.1</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K194" s="3">
         <v>0</v>
       </c>
       <c r="N194" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I195" s="3">
         <v>0.1</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K195" s="3">
         <v>0</v>
       </c>
       <c r="N195" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I196" s="3">
         <v>0.1</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K196" s="3">
         <v>0</v>
       </c>
       <c r="N196" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I197" s="3">
         <v>0</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K197" s="3">
         <v>0</v>
       </c>
       <c r="N197" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G198" s="3" t="b">
         <v>0</v>
@@ -5571,103 +5737,103 @@
         <v>0</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K198" s="3">
         <v>0</v>
       </c>
       <c r="N198" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I199" s="3">
         <v>0.05</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K199" s="3">
         <v>0</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N199" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I200" s="3">
         <v>0.1</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K200" s="3">
         <v>0</v>
       </c>
       <c r="N200" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I201" s="3">
         <v>0.1</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K201" s="3">
         <v>0</v>
       </c>
       <c r="N201" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I202" s="3">
         <v>0.1</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K202" s="3">
         <v>0</v>
       </c>
       <c r="N202" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I203" s="3">
         <v>0</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K203" s="3">
         <v>0</v>
       </c>
       <c r="N203" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E204" s="11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G204" s="3" t="b">
         <v>0</v>
@@ -5679,105 +5845,105 @@
         <v>0</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K204" s="3">
         <v>0</v>
       </c>
       <c r="N204" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E205" s="11"/>
       <c r="I205" s="3">
         <v>0.05</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K205" s="3">
         <v>0</v>
       </c>
       <c r="L205" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N205" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E206" s="11"/>
       <c r="I206" s="3">
         <v>0.1</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K206" s="3">
         <v>0</v>
       </c>
       <c r="N206" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I207" s="3">
         <v>0.1</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K207" s="3">
         <v>0</v>
       </c>
       <c r="N207" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I208" s="3">
         <v>0.1</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K208" s="3">
         <v>0</v>
       </c>
       <c r="N208" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="209" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I209" s="3">
         <v>0</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K209" s="3">
         <v>0</v>
       </c>
       <c r="N209" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="210" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B210" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E210" s="11" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G210" s="3" t="b">
         <v>0</v>
@@ -5789,105 +5955,105 @@
         <v>0</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K210" s="3">
         <v>0</v>
       </c>
       <c r="N210" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="211" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="211" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E211" s="11"/>
       <c r="I211" s="3">
         <v>0.05</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K211" s="3">
         <v>0</v>
       </c>
       <c r="L211" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N211" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="212" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E212" s="11"/>
       <c r="I212" s="3">
         <v>0.1</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K212" s="3">
         <v>0</v>
       </c>
       <c r="N212" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="213" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I213" s="3">
         <v>0.1</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K213" s="3">
         <v>0</v>
       </c>
       <c r="N213" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="214" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I214" s="3">
         <v>0.1</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K214" s="3">
         <v>0</v>
       </c>
       <c r="N214" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="215" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="215" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I215" s="3">
         <v>0</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K215" s="3">
         <v>0</v>
       </c>
       <c r="N215" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="216" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B216" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E216" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G216" s="3" t="b">
         <v>0</v>
@@ -5899,105 +6065,105 @@
         <v>0</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K216" s="3">
         <v>0</v>
       </c>
       <c r="N216" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="217" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E217" s="11"/>
       <c r="I217" s="3">
         <v>0.05</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K217" s="3">
         <v>0</v>
       </c>
       <c r="L217" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N217" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="218" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E218" s="11"/>
       <c r="I218" s="3">
         <v>0.1</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K218" s="3">
         <v>0</v>
       </c>
       <c r="N218" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="219" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I219" s="3">
         <v>0.1</v>
       </c>
       <c r="J219" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K219" s="3">
         <v>0</v>
       </c>
       <c r="N219" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="220" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I220" s="3">
         <v>0.1</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K220" s="3">
         <v>0</v>
       </c>
       <c r="N220" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="221" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I221" s="3">
         <v>0</v>
       </c>
       <c r="J221" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K221" s="3">
         <v>0</v>
       </c>
       <c r="N221" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="222" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B222" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E222" s="11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F222" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G222" s="3" t="b">
         <v>0</v>
@@ -6009,72 +6175,72 @@
         <v>0</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K222" s="3">
         <v>0</v>
       </c>
       <c r="N222" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="223" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I223" s="3">
         <v>0</v>
       </c>
       <c r="J223" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K223" s="3">
         <v>0</v>
       </c>
       <c r="N223" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="224" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I224" s="3">
         <v>0</v>
       </c>
       <c r="J224" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K224" s="3">
         <v>0</v>
       </c>
       <c r="N224" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="225" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="225" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I225" s="3">
         <v>0</v>
       </c>
       <c r="J225" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K225" s="3">
         <v>0</v>
       </c>
       <c r="N225" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="226" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="226" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B226" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E226" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F226" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G226" s="3" t="b">
         <v>0</v>
@@ -6086,69 +6252,69 @@
         <v>0</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K226" s="3">
         <v>0</v>
       </c>
       <c r="N226" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="227" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="227" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I227" s="3">
         <v>0</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K227" s="3">
         <v>0</v>
       </c>
       <c r="N227" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="228" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="228" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J228" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K228" s="3">
         <v>0</v>
       </c>
       <c r="N228" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="229" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="229" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I229" s="3">
         <v>0</v>
       </c>
       <c r="J229" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K229" s="3">
         <v>0</v>
       </c>
       <c r="N229" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="230" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="230" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B230" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E230" s="11" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F230" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G230" s="3" t="b">
         <v>0</v>
@@ -6160,72 +6326,72 @@
         <v>0</v>
       </c>
       <c r="J230" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K230" s="3">
         <v>0</v>
       </c>
       <c r="N230" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="231" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="231" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I231" s="3">
         <v>0</v>
       </c>
       <c r="J231" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K231" s="3">
         <v>0</v>
       </c>
       <c r="N231" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="232" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="232" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I232" s="3">
         <v>0</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K232" s="3">
         <v>0</v>
       </c>
       <c r="N232" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="233" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="233" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I233" s="3">
         <v>0</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K233" s="3">
         <v>0</v>
       </c>
       <c r="N233" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="234" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="234" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B234" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F234" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G234" s="3" t="b">
         <v>0</v>
@@ -6237,103 +6403,103 @@
         <v>0</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K234" s="3">
         <v>0</v>
       </c>
       <c r="N234" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="235" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="235" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I235" s="3">
         <v>0.05</v>
       </c>
       <c r="J235" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K235" s="3">
         <v>0</v>
       </c>
       <c r="L235" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N235" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="236" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="236" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I236" s="3">
         <v>0.1</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K236" s="3">
         <v>0</v>
       </c>
       <c r="N236" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="237" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="237" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I237" s="3">
         <v>0.1</v>
       </c>
       <c r="J237" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K237" s="3">
         <v>0</v>
       </c>
       <c r="N237" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="238" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="238" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I238" s="3">
         <v>0.1</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K238" s="3">
         <v>0</v>
       </c>
       <c r="N238" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="239" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="239" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I239" s="3">
         <v>0</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K239" s="3">
         <v>0</v>
       </c>
       <c r="N239" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="240" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="240" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B240" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F240" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G240" s="3" t="b">
         <v>0</v>
@@ -6345,103 +6511,103 @@
         <v>0</v>
       </c>
       <c r="J240" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K240" s="3">
         <v>0</v>
       </c>
       <c r="N240" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="241" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="241" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I241" s="3">
         <v>0.05</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K241" s="3">
         <v>0</v>
       </c>
       <c r="L241" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N241" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="242" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="242" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I242" s="3">
         <v>0.1</v>
       </c>
       <c r="J242" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K242" s="3">
         <v>0</v>
       </c>
       <c r="N242" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="243" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="243" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I243" s="3">
         <v>0.1</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K243" s="3">
         <v>0</v>
       </c>
       <c r="N243" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="244" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="244" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I244" s="3">
         <v>0.1</v>
       </c>
       <c r="J244" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K244" s="3">
         <v>0</v>
       </c>
       <c r="N244" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="245" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="245" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I245" s="3">
         <v>0</v>
       </c>
       <c r="J245" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K245" s="3">
         <v>0</v>
       </c>
       <c r="N245" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="246" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="246" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B246" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D246" s="11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F246" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G246" s="3" t="b">
         <v>0</v>
@@ -6453,103 +6619,103 @@
         <v>0</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K246" s="3">
         <v>0</v>
       </c>
       <c r="N246" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="247" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="247" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I247" s="3">
         <v>0.05</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K247" s="3">
         <v>0</v>
       </c>
       <c r="L247" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N247" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="248" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="248" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I248" s="3">
         <v>0.1</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K248" s="3">
         <v>0</v>
       </c>
       <c r="N248" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="249" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="249" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I249" s="3">
         <v>0.1</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K249" s="3">
         <v>0</v>
       </c>
       <c r="N249" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="250" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="250" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I250" s="3">
         <v>0.1</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K250" s="3">
         <v>0</v>
       </c>
       <c r="N250" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="251" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="251" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I251" s="3">
         <v>0</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K251" s="3">
         <v>0</v>
       </c>
       <c r="N251" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="252" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="252" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B252" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G252" s="3" t="b">
         <v>0</v>
@@ -6561,117 +6727,117 @@
         <v>0</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K252" s="3">
         <v>0</v>
       </c>
       <c r="N252" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="253" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="253" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I253" s="3">
         <v>0.05</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K253" s="3">
         <v>0</v>
       </c>
       <c r="L253" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N253" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="254" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="254" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I254" s="3">
         <v>0.1</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K254" s="3">
         <v>0</v>
       </c>
       <c r="N254" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="255" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="255" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I255" s="3">
         <v>0.1</v>
       </c>
       <c r="J255" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K255" s="3">
         <v>0</v>
       </c>
       <c r="N255" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="256" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="256" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I256" s="3">
         <v>0.1</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K256" s="3">
         <v>0</v>
       </c>
       <c r="N256" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="257" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="257" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I257" s="3">
         <v>0.1</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K257" s="3">
         <v>0</v>
       </c>
       <c r="N257" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="258" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="258" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I258" s="3">
         <v>0</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K258" s="3">
         <v>0</v>
       </c>
       <c r="N258" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="259" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="259" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B259" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G259" s="3" t="b">
         <v>0</v>
@@ -6683,117 +6849,117 @@
         <v>0</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K259" s="3">
         <v>0</v>
       </c>
       <c r="N259" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="260" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="260" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I260" s="3">
         <v>0.05</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K260" s="3">
         <v>0</v>
       </c>
       <c r="L260" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N260" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="261" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="261" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I261" s="3">
         <v>0.1</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K261" s="3">
         <v>0</v>
       </c>
       <c r="N261" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="262" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="262" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I262" s="3">
         <v>0.1</v>
       </c>
       <c r="J262" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K262" s="3">
         <v>0</v>
       </c>
       <c r="N262" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="263" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="263" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I263" s="3">
         <v>0.1</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K263" s="3">
         <v>0</v>
       </c>
       <c r="N263" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="264" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="264" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I264" s="3">
         <v>0.1</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K264" s="3">
         <v>0</v>
       </c>
       <c r="N264" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="265" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="265" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I265" s="3">
         <v>0</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K265" s="3">
         <v>0</v>
       </c>
       <c r="N265" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="266" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="266" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B266" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G266" s="3" t="b">
         <v>0</v>
@@ -6805,117 +6971,117 @@
         <v>0</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K266" s="3">
         <v>0</v>
       </c>
       <c r="N266" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="267" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="267" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I267" s="3">
         <v>0.05</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K267" s="3">
         <v>0</v>
       </c>
       <c r="L267" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N267" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="268" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="268" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I268" s="3">
         <v>0.1</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K268" s="3">
         <v>0</v>
       </c>
       <c r="N268" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="269" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="269" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I269" s="3">
         <v>0.1</v>
       </c>
       <c r="J269" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K269" s="3">
         <v>0</v>
       </c>
       <c r="N269" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="270" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="270" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I270" s="3">
         <v>0.1</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K270" s="3">
         <v>0</v>
       </c>
       <c r="N270" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="271" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="271" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I271" s="3">
         <v>0.1</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K271" s="3">
         <v>0</v>
       </c>
       <c r="N271" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="272" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="272" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I272" s="3">
         <v>0</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K272" s="3">
         <v>0</v>
       </c>
       <c r="N272" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="273" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="273" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B273" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G273" s="3" t="b">
         <v>0</v>
@@ -6927,103 +7093,103 @@
         <v>0</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K273" s="3">
         <v>0</v>
       </c>
       <c r="N273" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="274" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="274" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I274" s="3">
         <v>0.05</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K274" s="3">
         <v>0</v>
       </c>
       <c r="L274" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N274" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="275" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="275" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I275" s="3">
         <v>0.1</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K275" s="3">
         <v>0</v>
       </c>
       <c r="N275" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="276" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="276" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I276" s="3">
         <v>0.1</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K276" s="3">
         <v>0</v>
       </c>
       <c r="N276" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="277" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="277" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I277" s="3">
         <v>0.1</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K277" s="3">
         <v>0</v>
       </c>
       <c r="N277" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="278" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="278" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I278" s="3">
         <v>0</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K278" s="3">
         <v>0</v>
       </c>
       <c r="N278" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="279" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="279" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B279" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G279" s="3" t="b">
         <v>0</v>
@@ -7035,103 +7201,103 @@
         <v>0</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K279" s="3">
         <v>0</v>
       </c>
       <c r="N279" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="280" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="280" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I280" s="3">
         <v>0.05</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K280" s="3">
         <v>0</v>
       </c>
       <c r="L280" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N280" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="281" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="281" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I281" s="3">
         <v>0.1</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K281" s="3">
         <v>0</v>
       </c>
       <c r="N281" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="282" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="282" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I282" s="3">
         <v>0.1</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K282" s="3">
         <v>0</v>
       </c>
       <c r="N282" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="283" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="283" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I283" s="3">
         <v>0.1</v>
       </c>
       <c r="J283" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K283" s="3">
         <v>0</v>
       </c>
       <c r="N283" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="284" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="284" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I284" s="3">
         <v>0</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K284" s="3">
         <v>0</v>
       </c>
       <c r="N284" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="285" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="285" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B285" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G285" s="3" t="b">
         <v>0</v>
@@ -7143,103 +7309,103 @@
         <v>0</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K285" s="3">
         <v>0</v>
       </c>
       <c r="N285" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="286" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="286" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I286" s="3">
         <v>0.05</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K286" s="3">
         <v>0</v>
       </c>
       <c r="L286" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N286" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="287" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="287" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I287" s="3">
         <v>0.1</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K287" s="3">
         <v>0</v>
       </c>
       <c r="N287" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="288" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="288" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I288" s="3">
         <v>0.1</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K288" s="3">
         <v>0</v>
       </c>
       <c r="N288" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="289" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="289" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I289" s="3">
         <v>0.1</v>
       </c>
       <c r="J289" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K289" s="3">
         <v>0</v>
       </c>
       <c r="N289" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="290" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="290" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I290" s="3">
         <v>0</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K290" s="3">
         <v>0</v>
       </c>
       <c r="N290" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="291" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="291" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B291" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G291" s="3" t="b">
         <v>0</v>
@@ -7251,103 +7417,103 @@
         <v>0</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K291" s="3">
         <v>0</v>
       </c>
       <c r="N291" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="292" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="292" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I292" s="3">
         <v>0.05</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K292" s="3">
         <v>0</v>
       </c>
       <c r="L292" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N292" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="293" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="293" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I293" s="3">
         <v>0.1</v>
       </c>
       <c r="J293" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K293" s="3">
         <v>0</v>
       </c>
       <c r="N293" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="294" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="294" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I294" s="3">
         <v>0.1</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K294" s="3">
         <v>0</v>
       </c>
       <c r="N294" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="295" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="295" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I295" s="3">
         <v>0.1</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K295" s="3">
         <v>0</v>
       </c>
       <c r="N295" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="296" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="296" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I296" s="3">
         <v>0</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K296" s="3">
         <v>0</v>
       </c>
       <c r="N296" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="297" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="297" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B297" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G297" s="3" t="b">
         <v>0</v>
@@ -7359,103 +7525,103 @@
         <v>0</v>
       </c>
       <c r="J297" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K297" s="3">
         <v>0</v>
       </c>
       <c r="N297" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="298" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="298" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I298" s="3">
         <v>0.05</v>
       </c>
       <c r="J298" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K298" s="3">
         <v>0</v>
       </c>
       <c r="L298" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N298" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="299" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="299" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I299" s="3">
         <v>0.1</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K299" s="3">
         <v>0</v>
       </c>
       <c r="N299" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="300" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="300" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I300" s="3">
         <v>0.1</v>
       </c>
       <c r="J300" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K300" s="3">
         <v>0</v>
       </c>
       <c r="N300" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="301" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="301" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I301" s="3">
         <v>0.1</v>
       </c>
       <c r="J301" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K301" s="3">
         <v>0</v>
       </c>
       <c r="N301" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="302" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="302" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I302" s="3">
         <v>0</v>
       </c>
       <c r="J302" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K302" s="3">
         <v>0</v>
       </c>
       <c r="N302" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="303" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="303" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B303" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G303" s="3" t="b">
         <v>0</v>
@@ -7467,103 +7633,103 @@
         <v>0</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K303" s="3">
         <v>0</v>
       </c>
       <c r="N303" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="304" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="304" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I304" s="3">
         <v>0.05</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K304" s="3">
         <v>0</v>
       </c>
       <c r="L304" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N304" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="305" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="305" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I305" s="3">
         <v>0.1</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K305" s="3">
         <v>0</v>
       </c>
       <c r="N305" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="306" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="306" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I306" s="3">
         <v>0.1</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K306" s="3">
         <v>0</v>
       </c>
       <c r="N306" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="307" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="307" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I307" s="3">
         <v>0.1</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K307" s="3">
         <v>0</v>
       </c>
       <c r="N307" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="308" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="308" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I308" s="3">
         <v>0</v>
       </c>
       <c r="J308" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K308" s="3">
         <v>0</v>
       </c>
       <c r="N308" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="309" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="309" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B309" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G309" s="3" t="b">
         <v>0</v>
@@ -7575,103 +7741,103 @@
         <v>0</v>
       </c>
       <c r="J309" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K309" s="3">
         <v>0</v>
       </c>
       <c r="N309" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="310" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="310" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I310" s="3">
         <v>0.05</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K310" s="3">
         <v>0</v>
       </c>
       <c r="L310" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N310" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="311" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="311" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I311" s="3">
         <v>0.1</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K311" s="3">
         <v>0</v>
       </c>
       <c r="N311" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="312" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="312" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I312" s="3">
         <v>0.1</v>
       </c>
       <c r="J312" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K312" s="3">
         <v>0</v>
       </c>
       <c r="N312" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="313" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="313" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I313" s="3">
         <v>0.1</v>
       </c>
       <c r="J313" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K313" s="3">
         <v>0</v>
       </c>
       <c r="N313" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="314" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="314" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I314" s="3">
         <v>0</v>
       </c>
       <c r="J314" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K314" s="3">
         <v>0</v>
       </c>
       <c r="N314" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="315" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="315" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B315" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G315" s="3" t="b">
         <v>0</v>
@@ -7683,103 +7849,103 @@
         <v>0</v>
       </c>
       <c r="J315" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K315" s="3">
         <v>0</v>
       </c>
       <c r="N315" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="316" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="316" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I316" s="3">
         <v>0.05</v>
       </c>
       <c r="J316" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K316" s="3">
         <v>0</v>
       </c>
       <c r="L316" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N316" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="317" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="317" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I317" s="3">
         <v>0.1</v>
       </c>
       <c r="J317" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K317" s="3">
         <v>0</v>
       </c>
       <c r="N317" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="318" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="318" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I318" s="3">
         <v>0.1</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K318" s="3">
         <v>0</v>
       </c>
       <c r="N318" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="319" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="319" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I319" s="3">
         <v>0.1</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K319" s="3">
         <v>0</v>
       </c>
       <c r="N319" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="320" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="320" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I320" s="3">
         <v>0</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K320" s="3">
         <v>0</v>
       </c>
       <c r="N320" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="321" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="321" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B321" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G321" s="3" t="b">
         <v>0</v>
@@ -7791,86 +7957,443 @@
         <v>0</v>
       </c>
       <c r="J321" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K321" s="3">
         <v>0</v>
       </c>
       <c r="N321" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="322" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="322" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I322" s="3">
         <v>0.05</v>
       </c>
       <c r="J322" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K322" s="3">
         <v>0</v>
       </c>
       <c r="L322" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N322" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="323" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="323" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I323" s="3">
         <v>0.1</v>
       </c>
       <c r="J323" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K323" s="3">
         <v>0</v>
       </c>
       <c r="N323" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="324" spans="2:14" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="324" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I324" s="3">
         <v>0.1</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K324" s="3">
         <v>0</v>
       </c>
       <c r="N324" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="325" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="325" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I325" s="3">
         <v>0.1</v>
       </c>
       <c r="J325" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K325" s="3">
         <v>0</v>
       </c>
       <c r="N325" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="326" spans="2:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="326" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I326" s="3">
         <v>0</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K326" s="3">
         <v>0</v>
       </c>
       <c r="N326" s="3" t="s">
-        <v>37</v>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="327" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B327" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D327" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="E327" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="F327" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="G327" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H327" s="3">
+        <v>1</v>
+      </c>
+      <c r="I327" s="3">
+        <v>0</v>
+      </c>
+      <c r="J327" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="K327" s="3">
+        <v>0</v>
+      </c>
+      <c r="N327" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="328" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I328" s="3">
+        <v>0</v>
+      </c>
+      <c r="J328" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="K328" s="3">
+        <v>0</v>
+      </c>
+      <c r="N328" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="329" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I329" s="3">
+        <v>0</v>
+      </c>
+      <c r="J329" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="K329" s="3">
+        <v>0</v>
+      </c>
+      <c r="N329" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="330" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I330" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J330" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="K330" s="3">
+        <v>0</v>
+      </c>
+      <c r="N330" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="331" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I331" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J331" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="K331" s="3">
+        <v>0</v>
+      </c>
+      <c r="N331" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="332" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I332" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J332" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="K332" s="3">
+        <v>0</v>
+      </c>
+      <c r="N332" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="333" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I333" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J333" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="K333" s="3">
+        <v>0</v>
+      </c>
+      <c r="N333" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="334" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B334" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D334" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="E334" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="F334" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="G334" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H334" s="3">
+        <v>1</v>
+      </c>
+      <c r="I334" s="3">
+        <v>0</v>
+      </c>
+      <c r="J334" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="K334" s="3">
+        <v>0</v>
+      </c>
+      <c r="N334" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="335" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I335" s="3">
+        <v>0</v>
+      </c>
+      <c r="J335" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="K335" s="3">
+        <v>0</v>
+      </c>
+      <c r="N335" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="336" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I336" s="3">
+        <v>0</v>
+      </c>
+      <c r="J336" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="K336" s="3">
+        <v>0</v>
+      </c>
+      <c r="N336" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="337" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I337" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J337" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="K337" s="3">
+        <v>0</v>
+      </c>
+      <c r="N337" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="338" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I338" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J338" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="K338" s="3">
+        <v>0</v>
+      </c>
+      <c r="N338" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="339" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I339" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J339" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="K339" s="3">
+        <v>0</v>
+      </c>
+      <c r="N339" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="340" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I340" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J340" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="K340" s="3">
+        <v>0</v>
+      </c>
+      <c r="N340" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="341" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B341" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D341" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E341" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="F341" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="G341" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H341" s="3">
+        <v>1</v>
+      </c>
+      <c r="I341" s="3">
+        <v>0</v>
+      </c>
+      <c r="J341" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="K341" s="3">
+        <v>0</v>
+      </c>
+      <c r="N341" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="342" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I342" s="3">
+        <v>0</v>
+      </c>
+      <c r="J342" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="K342" s="3">
+        <v>0</v>
+      </c>
+      <c r="N342" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="343" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I343" s="3">
+        <v>0</v>
+      </c>
+      <c r="J343" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="K343" s="3">
+        <v>0</v>
+      </c>
+      <c r="N343" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="344" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I344" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J344" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="K344" s="3">
+        <v>0</v>
+      </c>
+      <c r="N344" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="345" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I345" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J345" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="K345" s="3">
+        <v>0</v>
+      </c>
+      <c r="N345" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="346" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I346" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J346" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="K346" s="3">
+        <v>0</v>
+      </c>
+      <c r="N346" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="347" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I347" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J347" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="K347" s="3">
+        <v>0</v>
+      </c>
+      <c r="N347" s="3" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/TimelineConfig/TimelineCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TimelineConfig/TimelineCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TimelineConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39DC743-2517-4F62-BCAE-6785056769D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3781E37-12CF-440A-AA94-BD8B6AC063D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="423">
   <si>
     <t>##var</t>
   </si>
@@ -1174,6 +1174,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1283,27 +1284,126 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>AttackArea_TowerBombSelf</t>
+    <t>SelectObject_Self</t>
+  </si>
+  <si>
+    <t>SelectObject_SelectLast</t>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_1</t>
+  </si>
+  <si>
+    <t>SelectObject_Rectangle_1</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_TowerMagicBall1</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_TowerMagicBall2</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_TowerMagicBall3</t>
+  </si>
+  <si>
+    <t>水晶塔1</t>
+  </si>
+  <si>
+    <t>水晶塔2</t>
+  </si>
+  <si>
+    <t>水晶塔3</t>
+  </si>
+  <si>
+    <t>TowerFire1</t>
+  </si>
+  <si>
+    <t>FireBullet_TowerFire_Bullet1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerFire1</t>
+  </si>
+  <si>
+    <t>TowerFire2</t>
+  </si>
+  <si>
+    <t>FireBullet_TowerFire_Bullet2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerFire2</t>
+  </si>
+  <si>
+    <t>TowerFire3</t>
+  </si>
+  <si>
+    <t>FireBullet_TowerFire_Bullet3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerFire3</t>
+  </si>
+  <si>
+    <t>单体穿透射击</t>
+  </si>
+  <si>
+    <t>TowerGolem1</t>
+  </si>
+  <si>
+    <t>Timeline_TowerGolem1</t>
+  </si>
+  <si>
+    <t>TowerGolem2</t>
+  </si>
+  <si>
+    <t>Timeline_TowerGolem2</t>
+  </si>
+  <si>
+    <t>TowerGolem3</t>
+  </si>
+  <si>
+    <t>Timeline_TowerGolem3</t>
+  </si>
+  <si>
+    <t>魔像1</t>
+  </si>
+  <si>
+    <t>魔像2</t>
+  </si>
+  <si>
+    <t>魔像3</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerGolem1</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerGolem2</t>
+  </si>
+  <si>
+    <t>PlayAudio_FireTowerGolem3</t>
+  </si>
+  <si>
+    <t>AttackArea_TowerGolem1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>SelectObject_Self</t>
-  </si>
-  <si>
-    <t>SelectObject_SelectLast</t>
-  </si>
-  <si>
-    <t>SelectObject_Umbellate_1</t>
-  </si>
-  <si>
-    <t>SelectObject_Rectangle_1</t>
+    <t>EffectCreate_FireTowerGolem1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_TowerGolem2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_TowerGolem3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoToDie_Org</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1345,6 +1445,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1439,7 +1546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1479,6 +1586,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1799,11 +1907,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N347"/>
+  <dimension ref="A1:N392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K319" sqref="K319"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J362" sqref="J362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1846,14 +1954,14 @@
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1924,14 +2032,14 @@
       <c r="H4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -2030,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -2066,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -2100,7 +2208,7 @@
         <v>40</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -2112,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2127,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2158,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2173,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2204,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2219,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2234,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -2265,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
@@ -2280,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
@@ -2311,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
@@ -2342,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
@@ -2373,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
@@ -2390,7 +2498,7 @@
         <v>52</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
@@ -2404,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
@@ -2435,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
@@ -2452,7 +2560,7 @@
         <v>52</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
@@ -2466,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
@@ -2480,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
@@ -2511,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
@@ -2528,7 +2636,7 @@
         <v>52</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
@@ -2542,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -2556,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
@@ -2587,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
@@ -2604,7 +2712,7 @@
         <v>52</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
@@ -2618,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
@@ -2632,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
@@ -2663,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
@@ -2680,7 +2788,7 @@
         <v>52</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
@@ -2694,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
@@ -2708,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
@@ -2744,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
@@ -2761,7 +2869,7 @@
         <v>52</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
@@ -2775,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
@@ -2789,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
@@ -2803,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
@@ -2817,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
@@ -2853,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
@@ -2870,7 +2978,7 @@
         <v>52</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
@@ -2884,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
@@ -2898,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
@@ -2912,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
@@ -2926,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
@@ -2962,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
@@ -2979,7 +3087,7 @@
         <v>52</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
@@ -2993,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
@@ -3007,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
@@ -3021,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
@@ -3035,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
@@ -3071,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
@@ -3088,7 +3196,7 @@
         <v>52</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
@@ -3102,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
@@ -3116,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
@@ -3127,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
@@ -3141,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
@@ -3177,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
@@ -3194,7 +3302,7 @@
         <v>52</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
@@ -3208,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
@@ -3222,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
@@ -3233,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
@@ -3247,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
@@ -3283,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
@@ -3300,7 +3408,7 @@
         <v>52</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
@@ -3314,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
@@ -3328,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
@@ -3342,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
@@ -3356,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
@@ -3392,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.25">
@@ -3409,7 +3517,7 @@
         <v>52</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.25">
@@ -3423,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.25">
@@ -3459,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.25">
@@ -3476,7 +3584,7 @@
         <v>52</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.25">
@@ -3491,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.25">
@@ -3527,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.25">
@@ -3544,7 +3652,7 @@
         <v>52</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.25">
@@ -3558,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.25">
@@ -3594,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.25">
@@ -3630,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.25">
@@ -3666,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
@@ -3702,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
@@ -3719,7 +3827,7 @@
         <v>52</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.25">
@@ -3733,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.25">
@@ -3747,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25">
@@ -3783,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.25">
@@ -3800,7 +3908,7 @@
         <v>52</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.25">
@@ -3814,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
@@ -3828,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25">
@@ -3842,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="N96" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
@@ -3878,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.25">
@@ -3895,7 +4003,7 @@
         <v>52</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.25">
@@ -3909,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="N99" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.25">
@@ -3923,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
@@ -3937,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.25">
@@ -3973,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.25">
@@ -3990,7 +4098,7 @@
         <v>52</v>
       </c>
       <c r="N103" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.25">
@@ -4004,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="N104" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.25">
@@ -4018,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="N105" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.25">
@@ -4032,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="N106" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.25">
@@ -4046,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="N107" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.25">
@@ -4060,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="N108" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.25">
@@ -4074,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="N109" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.25">
@@ -4088,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="N110" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.25">
@@ -4124,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="N111" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.25">
@@ -4138,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="N112" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.25">
@@ -4152,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="N113" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.25">
@@ -4166,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="N114" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.25">
@@ -4180,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="N115" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.25">
@@ -4216,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="N116" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.25">
@@ -4230,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="N117" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.25">
@@ -4244,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="N118" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.25">
@@ -4258,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="N119" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.25">
@@ -4272,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="N120" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.25">
@@ -4308,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="N121" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.25">
@@ -4322,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="N122" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.25">
@@ -4336,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="N123" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.25">
@@ -4350,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="N124" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.25">
@@ -4364,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="N125" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.25">
@@ -4400,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="N126" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.25">
@@ -4417,7 +4525,7 @@
         <v>52</v>
       </c>
       <c r="N127" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.25">
@@ -4431,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="N128" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="129" spans="2:14" x14ac:dyDescent="0.25">
@@ -4445,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="N129" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.25">
@@ -4459,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="N130" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.25">
@@ -4495,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="N131" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.25">
@@ -4512,7 +4620,7 @@
         <v>52</v>
       </c>
       <c r="N132" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.25">
@@ -4526,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="N133" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.25">
@@ -4540,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="N134" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.25">
@@ -4554,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="N135" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="136" spans="2:14" x14ac:dyDescent="0.25">
@@ -4590,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="N136" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.25">
@@ -4607,7 +4715,7 @@
         <v>52</v>
       </c>
       <c r="N137" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.25">
@@ -4621,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="N138" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.25">
@@ -4635,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="N139" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.25">
@@ -4649,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="N140" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.25">
@@ -4672,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="H141" s="3">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I141" s="3">
         <v>0</v>
@@ -4683,8 +4791,8 @@
       <c r="K141" s="3">
         <v>0</v>
       </c>
-      <c r="N141" s="3" t="s">
-        <v>388</v>
+      <c r="N141" s="15" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.25">
@@ -4698,119 +4806,77 @@
         <v>0</v>
       </c>
       <c r="N142" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I143" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="K143" s="3">
         <v>0</v>
       </c>
-      <c r="N143" s="3" t="s">
-        <v>387</v>
+      <c r="N143" s="15" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B144" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E144" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="F144" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G144" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H144" s="3">
+      <c r="I144" s="3">
         <v>0.2</v>
       </c>
-      <c r="I144" s="3">
-        <v>0</v>
-      </c>
       <c r="J144" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K144" s="3">
         <v>0</v>
       </c>
-      <c r="N144" s="3" t="s">
-        <v>388</v>
+      <c r="N144" s="15" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I145" s="3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="K145" s="3">
         <v>0</v>
       </c>
-      <c r="N145" s="3" t="s">
-        <v>388</v>
+      <c r="N145" s="15" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I146" s="3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="K146" s="3">
         <v>0</v>
       </c>
-      <c r="N146" s="3" t="s">
-        <v>387</v>
+      <c r="N146" s="15" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="147" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B147" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E147" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="F147" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G147" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H147" s="3">
-        <v>0.2</v>
-      </c>
       <c r="I147" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="K147" s="3">
         <v>0</v>
       </c>
-      <c r="N147" s="3" t="s">
-        <v>388</v>
+      <c r="N147" s="15" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="148" spans="2:14" x14ac:dyDescent="0.25">
@@ -4818,201 +4884,195 @@
         <v>0</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="K148" s="3">
         <v>0</v>
       </c>
       <c r="N148" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B149" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F149" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G149" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H149" s="3">
+        <v>0.6</v>
+      </c>
       <c r="I149" s="3">
         <v>0</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="K149" s="3">
         <v>0</v>
       </c>
-      <c r="N149" s="3" t="s">
-        <v>387</v>
+      <c r="N149" s="15" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="150" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B150" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E150" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="F150" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="G150" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H150" s="3">
-        <v>0.2</v>
-      </c>
       <c r="I150" s="3">
         <v>0</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="K150" s="3">
         <v>0</v>
       </c>
       <c r="N150" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I151" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="K151" s="3">
         <v>0</v>
       </c>
-      <c r="L151" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N151" s="3" t="s">
-        <v>388</v>
+      <c r="N151" s="15" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I152" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="K152" s="3">
         <v>0</v>
       </c>
-      <c r="N152" s="3" t="s">
-        <v>387</v>
+      <c r="N152" s="15" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I153" s="3">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K153" s="3">
         <v>0</v>
       </c>
-      <c r="N153" s="3" t="s">
-        <v>388</v>
+      <c r="N153" s="15" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I154" s="3">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="K154" s="3">
         <v>0</v>
       </c>
-      <c r="N154" s="3" t="s">
-        <v>388</v>
+      <c r="N154" s="15" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I155" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J155" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K155" s="3">
+        <v>0</v>
+      </c>
+      <c r="N155" s="15" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I156" s="3">
+        <v>0</v>
+      </c>
+      <c r="J156" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K155" s="3">
-        <v>0</v>
-      </c>
-      <c r="N155" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B156" s="3" t="s">
+      <c r="K156" s="3">
+        <v>0</v>
+      </c>
+      <c r="N156" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B157" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E156" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="F156" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="G156" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H156" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I156" s="3">
-        <v>0</v>
-      </c>
-      <c r="J156" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K156" s="3">
-        <v>0</v>
-      </c>
-      <c r="N156" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C157" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G157" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H157" s="3">
+        <v>0.6</v>
+      </c>
       <c r="I157" s="3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="K157" s="3">
         <v>0</v>
       </c>
-      <c r="L157" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N157" s="3" t="s">
-        <v>388</v>
+      <c r="N157" s="15" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I158" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="K158" s="3">
         <v>0</v>
       </c>
       <c r="N158" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="159" spans="2:14" x14ac:dyDescent="0.25">
@@ -5020,135 +5080,111 @@
         <v>0.1</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="K159" s="3">
         <v>0</v>
       </c>
-      <c r="N159" s="3" t="s">
-        <v>388</v>
+      <c r="N159" s="15" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I160" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="K160" s="3">
         <v>0</v>
       </c>
-      <c r="N160" s="3" t="s">
-        <v>388</v>
+      <c r="N160" s="15" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I161" s="3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="K161" s="3">
         <v>0</v>
       </c>
-      <c r="N161" s="3" t="s">
-        <v>387</v>
+      <c r="N161" s="15" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="162" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B162" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E162" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="F162" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="G162" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H162" s="3">
-        <v>0.2</v>
-      </c>
       <c r="I162" s="3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="K162" s="3">
         <v>0</v>
       </c>
-      <c r="N162" s="3" t="s">
-        <v>388</v>
+      <c r="N162" s="15" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I163" s="3">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="K163" s="3">
         <v>0</v>
       </c>
-      <c r="L163" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N163" s="3" t="s">
-        <v>388</v>
+      <c r="N163" s="15" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I164" s="3">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="K164" s="3">
         <v>0</v>
       </c>
-      <c r="N164" s="3" t="s">
-        <v>387</v>
+      <c r="N164" s="15" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I165" s="3">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="K165" s="3">
         <v>0</v>
       </c>
-      <c r="N165" s="3" t="s">
-        <v>388</v>
+      <c r="N165" s="15" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I166" s="3">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="K166" s="3">
         <v>0</v>
       </c>
-      <c r="N166" s="3" t="s">
-        <v>388</v>
+      <c r="N166" s="15" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="167" spans="2:14" x14ac:dyDescent="0.25">
@@ -5162,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="N167" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="168" spans="2:14" x14ac:dyDescent="0.25">
@@ -5170,16 +5206,16 @@
         <v>33</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="E168" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>190</v>
+        <v>170</v>
+      </c>
+      <c r="F168" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="G168" s="3" t="b">
         <v>0</v>
@@ -5197,11 +5233,10 @@
         <v>0</v>
       </c>
       <c r="N168" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="169" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E169" s="11"/>
       <c r="I169" s="3">
         <v>0.05</v>
       </c>
@@ -5215,22 +5250,21 @@
         <v>52</v>
       </c>
       <c r="N169" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="170" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E170" s="11"/>
       <c r="I170" s="3">
         <v>0.1</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="K170" s="3">
         <v>0</v>
       </c>
       <c r="N170" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="171" spans="2:14" x14ac:dyDescent="0.25">
@@ -5238,13 +5272,13 @@
         <v>0.1</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="K171" s="3">
         <v>0</v>
       </c>
       <c r="N171" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="172" spans="2:14" x14ac:dyDescent="0.25">
@@ -5252,13 +5286,13 @@
         <v>0.1</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K172" s="3">
         <v>0</v>
       </c>
       <c r="N172" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="173" spans="2:14" x14ac:dyDescent="0.25">
@@ -5272,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="N173" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="174" spans="2:14" x14ac:dyDescent="0.25">
@@ -5280,16 +5314,16 @@
         <v>33</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
+      </c>
+      <c r="F174" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="G174" s="3" t="b">
         <v>0</v>
@@ -5307,11 +5341,10 @@
         <v>0</v>
       </c>
       <c r="N174" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="175" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E175" s="11"/>
       <c r="I175" s="3">
         <v>0.05</v>
       </c>
@@ -5325,22 +5358,21 @@
         <v>52</v>
       </c>
       <c r="N175" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="176" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E176" s="11"/>
       <c r="I176" s="3">
         <v>0.1</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="K176" s="3">
         <v>0</v>
       </c>
       <c r="N176" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="177" spans="2:14" x14ac:dyDescent="0.25">
@@ -5348,13 +5380,13 @@
         <v>0.1</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="K177" s="3">
         <v>0</v>
       </c>
       <c r="N177" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="178" spans="2:14" x14ac:dyDescent="0.25">
@@ -5362,13 +5394,13 @@
         <v>0.1</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="K178" s="3">
         <v>0</v>
       </c>
       <c r="N178" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="179" spans="2:14" x14ac:dyDescent="0.25">
@@ -5382,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="N179" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="180" spans="2:14" x14ac:dyDescent="0.25">
@@ -5390,16 +5422,16 @@
         <v>33</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
+      </c>
+      <c r="F180" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="G180" s="3" t="b">
         <v>0</v>
@@ -5417,11 +5449,10 @@
         <v>0</v>
       </c>
       <c r="N180" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="181" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E181" s="11"/>
       <c r="I181" s="3">
         <v>0.05</v>
       </c>
@@ -5435,22 +5466,21 @@
         <v>52</v>
       </c>
       <c r="N181" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="182" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E182" s="11"/>
       <c r="I182" s="3">
         <v>0.1</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="K182" s="3">
         <v>0</v>
       </c>
       <c r="N182" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="183" spans="2:14" x14ac:dyDescent="0.25">
@@ -5458,13 +5488,13 @@
         <v>0.1</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="K183" s="3">
         <v>0</v>
       </c>
       <c r="N183" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="184" spans="2:14" x14ac:dyDescent="0.25">
@@ -5472,13 +5502,13 @@
         <v>0.1</v>
       </c>
       <c r="J184" s="3" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="K184" s="3">
         <v>0</v>
       </c>
       <c r="N184" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="185" spans="2:14" x14ac:dyDescent="0.25">
@@ -5492,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="N185" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="186" spans="2:14" x14ac:dyDescent="0.25">
@@ -5500,59 +5530,79 @@
         <v>33</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>207</v>
+        <v>396</v>
+      </c>
+      <c r="D186" s="3" t="str">
+        <f t="shared" ref="D186" si="9">B186&amp;"_"&amp;C186</f>
+        <v>Timeline_TowerFire1</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>208</v>
+        <v>393</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>126</v>
+        <v>405</v>
       </c>
       <c r="G186" s="3" t="b">
         <v>0</v>
       </c>
       <c r="H186" s="3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I186" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>41</v>
+        <v>397</v>
       </c>
       <c r="K186" s="3">
         <v>0</v>
       </c>
       <c r="N186" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I187" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>51</v>
+        <v>398</v>
       </c>
       <c r="K187" s="3">
         <v>0</v>
       </c>
-      <c r="L187" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="N187" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B188" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D188" s="3" t="str">
+        <f t="shared" ref="D188" si="10">B188&amp;"_"&amp;C188</f>
+        <v>Timeline_TowerFire2</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G188" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H188" s="3">
+        <v>1</v>
+      </c>
       <c r="I188" s="3">
         <v>0.1</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>209</v>
+        <v>400</v>
       </c>
       <c r="K188" s="3">
         <v>0</v>
@@ -5566,41 +5616,63 @@
         <v>0.1</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>210</v>
+        <v>401</v>
       </c>
       <c r="K189" s="3">
         <v>0</v>
       </c>
       <c r="N189" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B190" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D190" s="3" t="str">
+        <f t="shared" ref="D190" si="11">B190&amp;"_"&amp;C190</f>
+        <v>Timeline_TowerFire3</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G190" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H190" s="3">
+        <v>1</v>
+      </c>
       <c r="I190" s="3">
         <v>0.1</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>211</v>
+        <v>403</v>
       </c>
       <c r="K190" s="3">
         <v>0</v>
       </c>
       <c r="N190" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I191" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>69</v>
+        <v>404</v>
       </c>
       <c r="K191" s="3">
         <v>0</v>
       </c>
       <c r="N191" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="192" spans="2:14" x14ac:dyDescent="0.25">
@@ -5608,16 +5680,16 @@
         <v>33</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>214</v>
+        <v>188</v>
+      </c>
+      <c r="E192" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="G192" s="3" t="b">
         <v>0</v>
@@ -5635,10 +5707,11 @@
         <v>0</v>
       </c>
       <c r="N192" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E193" s="11"/>
       <c r="I193" s="3">
         <v>0.05</v>
       </c>
@@ -5652,21 +5725,22 @@
         <v>52</v>
       </c>
       <c r="N193" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E194" s="11"/>
       <c r="I194" s="3">
         <v>0.1</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="K194" s="3">
         <v>0</v>
       </c>
       <c r="N194" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="195" spans="2:14" x14ac:dyDescent="0.25">
@@ -5674,13 +5748,13 @@
         <v>0.1</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="K195" s="3">
         <v>0</v>
       </c>
       <c r="N195" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="196" spans="2:14" x14ac:dyDescent="0.25">
@@ -5688,13 +5762,13 @@
         <v>0.1</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="K196" s="3">
         <v>0</v>
       </c>
       <c r="N196" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="197" spans="2:14" x14ac:dyDescent="0.25">
@@ -5708,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="N197" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="198" spans="2:14" x14ac:dyDescent="0.25">
@@ -5716,16 +5790,16 @@
         <v>33</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>220</v>
+        <v>195</v>
+      </c>
+      <c r="E198" s="11" t="s">
+        <v>196</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="G198" s="3" t="b">
         <v>0</v>
@@ -5743,10 +5817,11 @@
         <v>0</v>
       </c>
       <c r="N198" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E199" s="11"/>
       <c r="I199" s="3">
         <v>0.05</v>
       </c>
@@ -5760,21 +5835,22 @@
         <v>52</v>
       </c>
       <c r="N199" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E200" s="11"/>
       <c r="I200" s="3">
         <v>0.1</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="K200" s="3">
         <v>0</v>
       </c>
       <c r="N200" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="201" spans="2:14" x14ac:dyDescent="0.25">
@@ -5782,13 +5858,13 @@
         <v>0.1</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="K201" s="3">
         <v>0</v>
       </c>
       <c r="N201" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="202" spans="2:14" x14ac:dyDescent="0.25">
@@ -5796,13 +5872,13 @@
         <v>0.1</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="K202" s="3">
         <v>0</v>
       </c>
       <c r="N202" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="203" spans="2:14" x14ac:dyDescent="0.25">
@@ -5816,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="N203" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="204" spans="2:14" x14ac:dyDescent="0.25">
@@ -5824,13 +5900,13 @@
         <v>33</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="E204" s="11" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>190</v>
@@ -5851,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="N204" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="205" spans="2:14" x14ac:dyDescent="0.25">
@@ -5869,7 +5945,7 @@
         <v>52</v>
       </c>
       <c r="N205" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="206" spans="2:14" x14ac:dyDescent="0.25">
@@ -5878,13 +5954,13 @@
         <v>0.1</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="K206" s="3">
         <v>0</v>
       </c>
       <c r="N206" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="207" spans="2:14" x14ac:dyDescent="0.25">
@@ -5892,13 +5968,13 @@
         <v>0.1</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="K207" s="3">
         <v>0</v>
       </c>
       <c r="N207" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="208" spans="2:14" x14ac:dyDescent="0.25">
@@ -5906,13 +5982,13 @@
         <v>0.1</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="K208" s="3">
         <v>0</v>
       </c>
       <c r="N208" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="209" spans="2:14" x14ac:dyDescent="0.25">
@@ -5926,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="N209" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="210" spans="2:14" x14ac:dyDescent="0.25">
@@ -5934,16 +6010,16 @@
         <v>33</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E210" s="11" t="s">
-        <v>232</v>
+        <v>207</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="G210" s="3" t="b">
         <v>0</v>
@@ -5961,11 +6037,10 @@
         <v>0</v>
       </c>
       <c r="N210" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="211" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E211" s="11"/>
       <c r="I211" s="3">
         <v>0.05</v>
       </c>
@@ -5979,22 +6054,21 @@
         <v>52</v>
       </c>
       <c r="N211" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="212" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E212" s="11"/>
       <c r="I212" s="3">
         <v>0.1</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="K212" s="3">
         <v>0</v>
       </c>
       <c r="N212" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="213" spans="2:14" x14ac:dyDescent="0.25">
@@ -6002,13 +6076,13 @@
         <v>0.1</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="K213" s="3">
         <v>0</v>
       </c>
       <c r="N213" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="214" spans="2:14" x14ac:dyDescent="0.25">
@@ -6016,13 +6090,13 @@
         <v>0.1</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="K214" s="3">
         <v>0</v>
       </c>
       <c r="N214" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="215" spans="2:14" x14ac:dyDescent="0.25">
@@ -6036,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="N215" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="216" spans="2:14" x14ac:dyDescent="0.25">
@@ -6044,16 +6118,16 @@
         <v>33</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E216" s="11" t="s">
-        <v>238</v>
+        <v>213</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="G216" s="3" t="b">
         <v>0</v>
@@ -6071,11 +6145,10 @@
         <v>0</v>
       </c>
       <c r="N216" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="217" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E217" s="11"/>
       <c r="I217" s="3">
         <v>0.05</v>
       </c>
@@ -6089,22 +6162,21 @@
         <v>52</v>
       </c>
       <c r="N217" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="218" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E218" s="11"/>
       <c r="I218" s="3">
         <v>0.1</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="K218" s="3">
         <v>0</v>
       </c>
       <c r="N218" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="219" spans="2:14" x14ac:dyDescent="0.25">
@@ -6112,13 +6184,13 @@
         <v>0.1</v>
       </c>
       <c r="J219" s="3" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="K219" s="3">
         <v>0</v>
       </c>
       <c r="N219" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="220" spans="2:14" x14ac:dyDescent="0.25">
@@ -6126,13 +6198,13 @@
         <v>0.1</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="K220" s="3">
         <v>0</v>
       </c>
       <c r="N220" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="221" spans="2:14" x14ac:dyDescent="0.25">
@@ -6146,23 +6218,23 @@
         <v>0</v>
       </c>
       <c r="N221" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="222" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B222" s="11" t="s">
+      <c r="B222" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D222" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="E222" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="F222" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F222" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G222" s="3" t="b">
@@ -6175,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="K222" s="3">
         <v>0</v>
@@ -6186,38 +6258,41 @@
     </row>
     <row r="223" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I223" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J223" s="3" t="s">
-        <v>246</v>
+        <v>51</v>
       </c>
       <c r="K223" s="3">
         <v>0</v>
       </c>
+      <c r="L223" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="N223" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="224" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I224" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J224" s="3" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="K224" s="3">
         <v>0</v>
       </c>
       <c r="N224" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="225" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I225" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J225" s="3" t="s">
-        <v>69</v>
+        <v>222</v>
       </c>
       <c r="K225" s="3">
         <v>0</v>
@@ -6227,32 +6302,11 @@
       </c>
     </row>
     <row r="226" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B226" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D226" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="E226" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="F226" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="G226" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H226" s="3">
-        <v>0.2</v>
-      </c>
       <c r="I226" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="K226" s="3">
         <v>0</v>
@@ -6266,101 +6320,109 @@
         <v>0</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>252</v>
+        <v>69</v>
       </c>
       <c r="K227" s="3">
         <v>0</v>
       </c>
       <c r="N227" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="228" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B228" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E228" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G228" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H228" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I228" s="3">
+        <v>0</v>
+      </c>
       <c r="J228" s="3" t="s">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="K228" s="3">
         <v>0</v>
       </c>
       <c r="N228" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="229" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E229" s="11"/>
       <c r="I229" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J229" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K229" s="3">
         <v>0</v>
       </c>
+      <c r="L229" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="N229" s="3" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="230" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B230" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D230" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="E230" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="F230" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="G230" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H230" s="3">
-        <v>0.2</v>
-      </c>
+      <c r="E230" s="11"/>
       <c r="I230" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J230" s="3" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="K230" s="3">
         <v>0</v>
       </c>
       <c r="N230" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="231" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I231" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J231" s="3" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="K231" s="3">
         <v>0</v>
       </c>
       <c r="N231" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="232" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I232" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="K232" s="3">
         <v>0</v>
       </c>
       <c r="N232" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="233" spans="2:14" x14ac:dyDescent="0.25">
@@ -6374,30 +6436,30 @@
         <v>0</v>
       </c>
       <c r="N233" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="234" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B234" s="11" t="s">
+      <c r="B234" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D234" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E234" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F234" s="11" t="s">
-        <v>155</v>
+        <v>230</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E234" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="G234" s="3" t="b">
         <v>0</v>
       </c>
       <c r="H234" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I234" s="3">
         <v>0</v>
@@ -6409,10 +6471,11 @@
         <v>0</v>
       </c>
       <c r="N234" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="235" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E235" s="11"/>
       <c r="I235" s="3">
         <v>0.05</v>
       </c>
@@ -6426,21 +6489,22 @@
         <v>52</v>
       </c>
       <c r="N235" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="236" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E236" s="11"/>
       <c r="I236" s="3">
         <v>0.1</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="K236" s="3">
         <v>0</v>
       </c>
       <c r="N236" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="237" spans="2:14" x14ac:dyDescent="0.25">
@@ -6448,13 +6512,13 @@
         <v>0.1</v>
       </c>
       <c r="J237" s="3" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="K237" s="3">
         <v>0</v>
       </c>
       <c r="N237" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="238" spans="2:14" x14ac:dyDescent="0.25">
@@ -6462,13 +6526,13 @@
         <v>0.1</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="K238" s="3">
         <v>0</v>
       </c>
       <c r="N238" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="239" spans="2:14" x14ac:dyDescent="0.25">
@@ -6482,30 +6546,30 @@
         <v>0</v>
       </c>
       <c r="N239" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="240" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B240" s="11" t="s">
+      <c r="B240" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D240" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="E240" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F240" s="11" t="s">
-        <v>155</v>
+        <v>236</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E240" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="G240" s="3" t="b">
         <v>0</v>
       </c>
       <c r="H240" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I240" s="3">
         <v>0</v>
@@ -6517,10 +6581,11 @@
         <v>0</v>
       </c>
       <c r="N240" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="241" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E241" s="11"/>
       <c r="I241" s="3">
         <v>0.05</v>
       </c>
@@ -6534,21 +6599,22 @@
         <v>52</v>
       </c>
       <c r="N241" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="242" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E242" s="11"/>
       <c r="I242" s="3">
         <v>0.1</v>
       </c>
       <c r="J242" s="3" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="K242" s="3">
         <v>0</v>
       </c>
       <c r="N242" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="243" spans="2:14" x14ac:dyDescent="0.25">
@@ -6556,13 +6622,13 @@
         <v>0.1</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="K243" s="3">
         <v>0</v>
       </c>
       <c r="N243" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="244" spans="2:14" x14ac:dyDescent="0.25">
@@ -6570,13 +6636,13 @@
         <v>0.1</v>
       </c>
       <c r="J244" s="3" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="K244" s="3">
         <v>0</v>
       </c>
       <c r="N244" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="245" spans="2:14" x14ac:dyDescent="0.25">
@@ -6590,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="N245" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="246" spans="2:14" x14ac:dyDescent="0.25">
@@ -6598,59 +6664,56 @@
         <v>33</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="D246" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="E246" s="3" t="s">
-        <v>274</v>
+        <v>243</v>
+      </c>
+      <c r="E246" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="F246" s="11" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="G246" s="3" t="b">
         <v>0</v>
       </c>
       <c r="H246" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I246" s="3">
         <v>0</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>41</v>
+        <v>245</v>
       </c>
       <c r="K246" s="3">
         <v>0</v>
       </c>
       <c r="N246" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="247" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I247" s="3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>51</v>
+        <v>246</v>
       </c>
       <c r="K247" s="3">
         <v>0</v>
       </c>
-      <c r="L247" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="N247" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="248" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I248" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="K248" s="3">
         <v>0</v>
@@ -6661,30 +6724,51 @@
     </row>
     <row r="249" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I249" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>276</v>
+        <v>69</v>
       </c>
       <c r="K249" s="3">
         <v>0</v>
       </c>
       <c r="N249" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="250" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B250" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D250" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E250" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="F250" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G250" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H250" s="3">
+        <v>0.2</v>
+      </c>
       <c r="I250" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="K250" s="3">
         <v>0</v>
       </c>
       <c r="N250" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="251" spans="2:14" x14ac:dyDescent="0.25">
@@ -6692,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>69</v>
+        <v>252</v>
       </c>
       <c r="K251" s="3">
         <v>0</v>
@@ -6702,119 +6786,134 @@
       </c>
     </row>
     <row r="252" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B252" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E252" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F252" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G252" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H252" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I252" s="3">
-        <v>0</v>
-      </c>
       <c r="J252" s="3" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="K252" s="3">
         <v>0</v>
       </c>
       <c r="N252" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="253" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I253" s="3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K253" s="3">
         <v>0</v>
       </c>
-      <c r="L253" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="N253" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="254" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B254" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D254" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E254" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="F254" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G254" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H254" s="3">
+        <v>0.2</v>
+      </c>
       <c r="I254" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="K254" s="3">
         <v>0</v>
       </c>
       <c r="N254" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="255" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I255" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J255" t="s">
-        <v>283</v>
+        <v>0</v>
+      </c>
+      <c r="J255" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="K255" s="3">
         <v>0</v>
       </c>
       <c r="N255" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="256" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I256" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="K256" s="3">
         <v>0</v>
       </c>
       <c r="N256" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="257" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I257" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="K257" s="3">
         <v>0</v>
       </c>
       <c r="N257" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="258" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B258" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D258" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F258" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G258" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H258" s="3">
+        <v>0.5</v>
+      </c>
       <c r="I258" s="3">
         <v>0</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="K258" s="3">
         <v>0</v>
@@ -6824,55 +6923,34 @@
       </c>
     </row>
     <row r="259" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B259" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D259" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E259" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F259" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G259" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H259" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I259" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K259" s="3">
         <v>0</v>
       </c>
+      <c r="L259" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="N259" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="260" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I260" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="K260" s="3">
         <v>0</v>
       </c>
-      <c r="L260" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="N260" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="261" spans="2:14" x14ac:dyDescent="0.25">
@@ -6880,7 +6958,7 @@
         <v>0.1</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="K261" s="3">
         <v>0</v>
@@ -6893,36 +6971,57 @@
       <c r="I262" s="3">
         <v>0.1</v>
       </c>
-      <c r="J262" t="s">
-        <v>290</v>
+      <c r="J262" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="K262" s="3">
         <v>0</v>
       </c>
       <c r="N262" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="263" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I263" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>291</v>
+        <v>69</v>
       </c>
       <c r="K263" s="3">
         <v>0</v>
       </c>
       <c r="N263" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="264" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B264" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D264" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F264" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G264" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H264" s="3">
+        <v>0.5</v>
+      </c>
       <c r="I264" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>292</v>
+        <v>41</v>
       </c>
       <c r="K264" s="3">
         <v>0</v>
@@ -6933,68 +7032,47 @@
     </row>
     <row r="265" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I265" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K265" s="3">
         <v>0</v>
       </c>
+      <c r="L265" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="N265" s="3" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="266" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B266" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E266" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F266" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G266" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H266" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I266" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="K266" s="3">
         <v>0</v>
       </c>
       <c r="N266" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="267" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I267" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>51</v>
+        <v>270</v>
       </c>
       <c r="K267" s="3">
         <v>0</v>
       </c>
-      <c r="L267" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="N267" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="268" spans="2:14" x14ac:dyDescent="0.25">
@@ -7002,7 +7080,7 @@
         <v>0.1</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="K268" s="3">
         <v>0</v>
@@ -7013,41 +7091,65 @@
     </row>
     <row r="269" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I269" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J269" t="s">
-        <v>297</v>
+        <v>0</v>
+      </c>
+      <c r="J269" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="K269" s="3">
         <v>0</v>
       </c>
       <c r="N269" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="270" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B270" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D270" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F270" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G270" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H270" s="3">
+        <v>0.5</v>
+      </c>
       <c r="I270" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>298</v>
+        <v>41</v>
       </c>
       <c r="K270" s="3">
         <v>0</v>
       </c>
       <c r="N270" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="271" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I271" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>299</v>
+        <v>51</v>
       </c>
       <c r="K271" s="3">
         <v>0</v>
+      </c>
+      <c r="L271" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="N271" s="3" t="s">
         <v>387</v>
@@ -7055,176 +7157,152 @@
     </row>
     <row r="272" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I272" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>69</v>
+        <v>275</v>
       </c>
       <c r="K272" s="3">
         <v>0</v>
       </c>
       <c r="N272" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="273" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B273" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D273" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E273" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F273" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G273" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H273" s="3">
-        <v>0.2</v>
-      </c>
       <c r="I273" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="K273" s="3">
         <v>0</v>
       </c>
       <c r="N273" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="274" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I274" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>51</v>
+        <v>277</v>
       </c>
       <c r="K274" s="3">
         <v>0</v>
       </c>
-      <c r="L274" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="N274" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="275" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I275" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>303</v>
+        <v>69</v>
       </c>
       <c r="K275" s="3">
         <v>0</v>
       </c>
       <c r="N275" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="276" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B276" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G276" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H276" s="3">
+        <v>0.5</v>
+      </c>
       <c r="I276" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="K276" s="3">
         <v>0</v>
       </c>
       <c r="N276" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="277" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I277" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>305</v>
+        <v>51</v>
       </c>
       <c r="K277" s="3">
         <v>0</v>
       </c>
+      <c r="L277" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="N277" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="278" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I278" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>69</v>
+        <v>282</v>
       </c>
       <c r="K278" s="3">
         <v>0</v>
       </c>
       <c r="N278" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="279" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B279" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D279" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E279" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F279" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G279" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H279" s="3">
-        <v>0.2</v>
-      </c>
       <c r="I279" s="3">
-        <v>0</v>
-      </c>
-      <c r="J279" s="3" t="s">
-        <v>41</v>
+        <v>0.1</v>
+      </c>
+      <c r="J279" t="s">
+        <v>283</v>
       </c>
       <c r="K279" s="3">
         <v>0</v>
       </c>
       <c r="N279" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="280" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I280" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="K280" s="3">
         <v>0</v>
       </c>
-      <c r="L280" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="N280" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="281" spans="2:14" x14ac:dyDescent="0.25">
@@ -7232,107 +7310,107 @@
         <v>0.1</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="K281" s="3">
         <v>0</v>
       </c>
       <c r="N281" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="282" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I282" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>310</v>
+        <v>69</v>
       </c>
       <c r="K282" s="3">
         <v>0</v>
       </c>
       <c r="N282" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="283" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B283" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G283" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H283" s="3">
+        <v>0.5</v>
+      </c>
       <c r="I283" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J283" s="3" t="s">
-        <v>311</v>
+        <v>41</v>
       </c>
       <c r="K283" s="3">
         <v>0</v>
       </c>
       <c r="N283" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="284" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I284" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K284" s="3">
         <v>0</v>
       </c>
+      <c r="L284" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="N284" s="3" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="285" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B285" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D285" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E285" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="F285" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G285" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H285" s="3">
-        <v>0.2</v>
-      </c>
       <c r="I285" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="K285" s="3">
         <v>0</v>
       </c>
       <c r="N285" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="286" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I286" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="J286" s="3" t="s">
-        <v>51</v>
+        <v>0.1</v>
+      </c>
+      <c r="J286" t="s">
+        <v>290</v>
       </c>
       <c r="K286" s="3">
         <v>0</v>
       </c>
-      <c r="L286" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="N286" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="287" spans="2:14" x14ac:dyDescent="0.25">
@@ -7340,7 +7418,7 @@
         <v>0.1</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="K287" s="3">
         <v>0</v>
@@ -7354,35 +7432,56 @@
         <v>0.1</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="K288" s="3">
         <v>0</v>
       </c>
       <c r="N288" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="289" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I289" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J289" s="3" t="s">
-        <v>317</v>
+        <v>69</v>
       </c>
       <c r="K289" s="3">
         <v>0</v>
       </c>
       <c r="N289" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="290" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B290" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G290" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H290" s="3">
+        <v>0.5</v>
+      </c>
       <c r="I290" s="3">
         <v>0</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="K290" s="3">
         <v>0</v>
@@ -7392,63 +7491,42 @@
       </c>
     </row>
     <row r="291" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B291" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C291" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E291" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F291" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G291" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H291" s="3">
-        <v>0.2</v>
-      </c>
       <c r="I291" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K291" s="3">
         <v>0</v>
       </c>
+      <c r="L291" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="N291" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="292" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I292" s="3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>51</v>
+        <v>296</v>
       </c>
       <c r="K292" s="3">
         <v>0</v>
       </c>
-      <c r="L292" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="N292" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="293" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I293" s="3">
         <v>0.1</v>
       </c>
-      <c r="J293" s="3" t="s">
-        <v>321</v>
+      <c r="J293" t="s">
+        <v>297</v>
       </c>
       <c r="K293" s="3">
         <v>0</v>
@@ -7462,13 +7540,13 @@
         <v>0.1</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="K294" s="3">
         <v>0</v>
       </c>
       <c r="N294" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="295" spans="2:14" x14ac:dyDescent="0.25">
@@ -7476,13 +7554,13 @@
         <v>0.1</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="K295" s="3">
         <v>0</v>
       </c>
       <c r="N295" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="296" spans="2:14" x14ac:dyDescent="0.25">
@@ -7496,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="N296" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="297" spans="2:14" x14ac:dyDescent="0.25">
@@ -7504,16 +7582,16 @@
         <v>33</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="G297" s="3" t="b">
         <v>0</v>
@@ -7531,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="N297" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="298" spans="2:14" x14ac:dyDescent="0.25">
@@ -7548,7 +7626,7 @@
         <v>52</v>
       </c>
       <c r="N298" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="299" spans="2:14" x14ac:dyDescent="0.25">
@@ -7556,13 +7634,13 @@
         <v>0.1</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="K299" s="3">
         <v>0</v>
       </c>
       <c r="N299" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="300" spans="2:14" x14ac:dyDescent="0.25">
@@ -7570,13 +7648,13 @@
         <v>0.1</v>
       </c>
       <c r="J300" s="3" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="K300" s="3">
         <v>0</v>
       </c>
       <c r="N300" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="301" spans="2:14" x14ac:dyDescent="0.25">
@@ -7584,13 +7662,13 @@
         <v>0.1</v>
       </c>
       <c r="J301" s="3" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="K301" s="3">
         <v>0</v>
       </c>
       <c r="N301" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="302" spans="2:14" x14ac:dyDescent="0.25">
@@ -7604,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="N302" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="303" spans="2:14" x14ac:dyDescent="0.25">
@@ -7612,16 +7690,16 @@
         <v>33</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="G303" s="3" t="b">
         <v>0</v>
@@ -7639,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="N303" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="304" spans="2:14" x14ac:dyDescent="0.25">
@@ -7656,7 +7734,7 @@
         <v>52</v>
       </c>
       <c r="N304" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="305" spans="2:14" x14ac:dyDescent="0.25">
@@ -7664,13 +7742,13 @@
         <v>0.1</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="K305" s="3">
         <v>0</v>
       </c>
       <c r="N305" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="306" spans="2:14" x14ac:dyDescent="0.25">
@@ -7678,13 +7756,13 @@
         <v>0.1</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="K306" s="3">
         <v>0</v>
       </c>
       <c r="N306" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="307" spans="2:14" x14ac:dyDescent="0.25">
@@ -7692,13 +7770,13 @@
         <v>0.1</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="K307" s="3">
         <v>0</v>
       </c>
       <c r="N307" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="308" spans="2:14" x14ac:dyDescent="0.25">
@@ -7712,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="N308" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="309" spans="2:14" x14ac:dyDescent="0.25">
@@ -7720,16 +7798,16 @@
         <v>33</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>339</v>
+        <v>126</v>
       </c>
       <c r="G309" s="3" t="b">
         <v>0</v>
@@ -7747,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="N309" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="310" spans="2:14" x14ac:dyDescent="0.25">
@@ -7764,7 +7842,7 @@
         <v>52</v>
       </c>
       <c r="N310" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="311" spans="2:14" x14ac:dyDescent="0.25">
@@ -7772,13 +7850,13 @@
         <v>0.1</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="K311" s="3">
         <v>0</v>
       </c>
       <c r="N311" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="312" spans="2:14" x14ac:dyDescent="0.25">
@@ -7786,13 +7864,13 @@
         <v>0.1</v>
       </c>
       <c r="J312" s="3" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="K312" s="3">
         <v>0</v>
       </c>
       <c r="N312" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="313" spans="2:14" x14ac:dyDescent="0.25">
@@ -7800,13 +7878,13 @@
         <v>0.1</v>
       </c>
       <c r="J313" s="3" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="K313" s="3">
         <v>0</v>
       </c>
       <c r="N313" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="314" spans="2:14" x14ac:dyDescent="0.25">
@@ -7820,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="N314" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="315" spans="2:14" x14ac:dyDescent="0.25">
@@ -7828,16 +7906,16 @@
         <v>33</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="G315" s="3" t="b">
         <v>0</v>
@@ -7855,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="N315" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="316" spans="2:14" x14ac:dyDescent="0.25">
@@ -7872,7 +7950,7 @@
         <v>52</v>
       </c>
       <c r="N316" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="317" spans="2:14" x14ac:dyDescent="0.25">
@@ -7880,13 +7958,13 @@
         <v>0.1</v>
       </c>
       <c r="J317" s="3" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="K317" s="3">
         <v>0</v>
       </c>
       <c r="N317" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="318" spans="2:14" x14ac:dyDescent="0.25">
@@ -7894,13 +7972,13 @@
         <v>0.1</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="K318" s="3">
         <v>0</v>
       </c>
       <c r="N318" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="319" spans="2:14" x14ac:dyDescent="0.25">
@@ -7908,13 +7986,13 @@
         <v>0.1</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="K319" s="3">
         <v>0</v>
       </c>
       <c r="N319" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="320" spans="2:14" x14ac:dyDescent="0.25">
@@ -7928,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="N320" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="321" spans="2:14" x14ac:dyDescent="0.25">
@@ -7936,16 +8014,16 @@
         <v>33</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="G321" s="3" t="b">
         <v>0</v>
@@ -7963,7 +8041,7 @@
         <v>0</v>
       </c>
       <c r="N321" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="322" spans="2:14" x14ac:dyDescent="0.25">
@@ -7980,7 +8058,7 @@
         <v>52</v>
       </c>
       <c r="N322" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="323" spans="2:14" x14ac:dyDescent="0.25">
@@ -7988,13 +8066,13 @@
         <v>0.1</v>
       </c>
       <c r="J323" s="3" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="K323" s="3">
         <v>0</v>
       </c>
       <c r="N323" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="324" spans="2:14" x14ac:dyDescent="0.25">
@@ -8002,13 +8080,13 @@
         <v>0.1</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="K324" s="3">
         <v>0</v>
       </c>
       <c r="N324" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="325" spans="2:14" x14ac:dyDescent="0.25">
@@ -8016,13 +8094,13 @@
         <v>0.1</v>
       </c>
       <c r="J325" s="3" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="K325" s="3">
         <v>0</v>
       </c>
       <c r="N325" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="326" spans="2:14" x14ac:dyDescent="0.25">
@@ -8036,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="N326" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="327" spans="2:14" x14ac:dyDescent="0.25">
@@ -8044,45 +8122,48 @@
         <v>33</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D327" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="E327" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="F327" s="13" t="s">
-        <v>362</v>
+        <v>330</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="G327" s="3" t="b">
         <v>0</v>
       </c>
       <c r="H327" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I327" s="3">
         <v>0</v>
       </c>
-      <c r="J327" s="13" t="s">
-        <v>364</v>
+      <c r="J327" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="K327" s="3">
         <v>0</v>
       </c>
       <c r="N327" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="328" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I328" s="3">
-        <v>0</v>
-      </c>
-      <c r="J328" s="13" t="s">
-        <v>365</v>
+        <v>0.05</v>
+      </c>
+      <c r="J328" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="K328" s="3">
         <v>0</v>
+      </c>
+      <c r="L328" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="N328" s="3" t="s">
         <v>387</v>
@@ -8090,38 +8171,38 @@
     </row>
     <row r="329" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I329" s="3">
-        <v>0</v>
-      </c>
-      <c r="J329" s="13" t="s">
-        <v>366</v>
+        <v>0.1</v>
+      </c>
+      <c r="J329" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="K329" s="3">
         <v>0</v>
       </c>
       <c r="N329" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="330" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I330" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J330" s="13" t="s">
-        <v>367</v>
+        <v>0.1</v>
+      </c>
+      <c r="J330" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="K330" s="3">
         <v>0</v>
       </c>
       <c r="N330" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="331" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I331" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J331" s="13" t="s">
-        <v>368</v>
+        <v>0.1</v>
+      </c>
+      <c r="J331" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="K331" s="3">
         <v>0</v>
@@ -8132,24 +8213,24 @@
     </row>
     <row r="332" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I332" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J332" s="13" t="s">
-        <v>369</v>
+        <v>0.3</v>
+      </c>
+      <c r="J332" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="K332" s="3">
         <v>0</v>
       </c>
       <c r="N332" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="333" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I333" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J333" s="13" t="s">
-        <v>386</v>
+        <v>0.3</v>
+      </c>
+      <c r="J333" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="K333" s="3">
         <v>0</v>
@@ -8159,60 +8240,60 @@
       </c>
     </row>
     <row r="334" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B334" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C334" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D334" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="E334" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="F334" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="G334" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H334" s="3">
-        <v>1</v>
-      </c>
       <c r="I334" s="3">
-        <v>0</v>
-      </c>
-      <c r="J334" s="13" t="s">
-        <v>371</v>
+        <v>0.3</v>
+      </c>
+      <c r="J334" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="K334" s="3">
         <v>0</v>
       </c>
       <c r="N334" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="335" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I335" s="3">
         <v>0</v>
       </c>
-      <c r="J335" s="13" t="s">
-        <v>372</v>
+      <c r="J335" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="K335" s="3">
         <v>0</v>
       </c>
       <c r="N335" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="336" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B336" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F336" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G336" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H336" s="3">
+        <v>0.2</v>
+      </c>
       <c r="I336" s="3">
         <v>0</v>
       </c>
-      <c r="J336" s="13" t="s">
-        <v>373</v>
+      <c r="J336" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="K336" s="3">
         <v>0</v>
@@ -8223,52 +8304,55 @@
     </row>
     <row r="337" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I337" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J337" s="13" t="s">
-        <v>374</v>
+        <v>0.05</v>
+      </c>
+      <c r="J337" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="K337" s="3">
         <v>0</v>
       </c>
+      <c r="L337" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="N337" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="338" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I338" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J338" s="13" t="s">
-        <v>375</v>
+        <v>0.1</v>
+      </c>
+      <c r="J338" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="K338" s="3">
         <v>0</v>
       </c>
       <c r="N338" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="339" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I339" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J339" s="13" t="s">
-        <v>376</v>
+        <v>0.1</v>
+      </c>
+      <c r="J339" s="3" t="s">
+        <v>341</v>
       </c>
       <c r="K339" s="3">
         <v>0</v>
       </c>
       <c r="N339" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="340" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I340" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J340" s="13" t="s">
-        <v>386</v>
+        <v>0.1</v>
+      </c>
+      <c r="J340" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="K340" s="3">
         <v>0</v>
@@ -8278,46 +8362,46 @@
       </c>
     </row>
     <row r="341" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B341" s="3" t="s">
+      <c r="I341" s="3">
+        <v>0</v>
+      </c>
+      <c r="J341" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K341" s="3">
+        <v>0</v>
+      </c>
+      <c r="N341" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="342" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B342" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C341" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D341" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E341" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="F341" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="G341" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H341" s="3">
-        <v>1</v>
-      </c>
-      <c r="I341" s="3">
-        <v>0</v>
-      </c>
-      <c r="J341" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="K341" s="3">
-        <v>0</v>
-      </c>
-      <c r="N341" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="342" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C342" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F342" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G342" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H342" s="3">
+        <v>0.2</v>
+      </c>
       <c r="I342" s="3">
         <v>0</v>
       </c>
-      <c r="J342" s="13" t="s">
-        <v>379</v>
+      <c r="J342" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="K342" s="3">
         <v>0</v>
@@ -8328,13 +8412,16 @@
     </row>
     <row r="343" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I343" s="3">
-        <v>0</v>
-      </c>
-      <c r="J343" s="13" t="s">
-        <v>380</v>
+        <v>0.05</v>
+      </c>
+      <c r="J343" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="K343" s="3">
         <v>0</v>
+      </c>
+      <c r="L343" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="N343" s="3" t="s">
         <v>387</v>
@@ -8342,24 +8429,24 @@
     </row>
     <row r="344" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I344" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J344" s="13" t="s">
-        <v>381</v>
+        <v>0.1</v>
+      </c>
+      <c r="J344" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="K344" s="3">
         <v>0</v>
       </c>
       <c r="N344" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="345" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I345" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J345" s="13" t="s">
-        <v>382</v>
+        <v>0.1</v>
+      </c>
+      <c r="J345" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="K345" s="3">
         <v>0</v>
@@ -8370,30 +8457,819 @@
     </row>
     <row r="346" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I346" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J346" s="13" t="s">
-        <v>383</v>
+        <v>0.1</v>
+      </c>
+      <c r="J346" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="K346" s="3">
         <v>0</v>
       </c>
       <c r="N346" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="347" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I347" s="3">
+        <v>0</v>
+      </c>
+      <c r="J347" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K347" s="3">
+        <v>0</v>
+      </c>
+      <c r="N347" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="348" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B348" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F348" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G348" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H348" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I348" s="3">
+        <v>0</v>
+      </c>
+      <c r="J348" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K348" s="3">
+        <v>0</v>
+      </c>
+      <c r="N348" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="349" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I349" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="J349" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K349" s="3">
+        <v>0</v>
+      </c>
+      <c r="L349" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N349" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="350" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I350" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J350" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="K350" s="3">
+        <v>0</v>
+      </c>
+      <c r="N350" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="351" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I351" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J351" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="K351" s="3">
+        <v>0</v>
+      </c>
+      <c r="N351" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="352" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I352" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J352" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="K352" s="3">
+        <v>0</v>
+      </c>
+      <c r="N352" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="353" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I353" s="3">
+        <v>0</v>
+      </c>
+      <c r="J353" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K353" s="3">
+        <v>0</v>
+      </c>
+      <c r="N353" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="354" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B354" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D354" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="E354" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="F354" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="G354" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H354" s="3">
+        <v>1</v>
+      </c>
+      <c r="I354" s="3">
+        <v>0</v>
+      </c>
+      <c r="J354" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="K354" s="3">
+        <v>0</v>
+      </c>
+      <c r="N354" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="355" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I355" s="3">
+        <v>0</v>
+      </c>
+      <c r="J355" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="K355" s="3">
+        <v>0</v>
+      </c>
+      <c r="N355" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="356" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I356" s="3">
+        <v>0</v>
+      </c>
+      <c r="J356" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="K356" s="3">
+        <v>0</v>
+      </c>
+      <c r="N356" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="357" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I357" s="3">
         <v>0.5</v>
       </c>
-      <c r="J347" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="K347" s="3">
-        <v>0</v>
-      </c>
-      <c r="N347" s="3" t="s">
-        <v>387</v>
+      <c r="J357" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="K357" s="3">
+        <v>0</v>
+      </c>
+      <c r="N357" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="358" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I358" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J358" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="K358" s="3">
+        <v>0</v>
+      </c>
+      <c r="N358" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="359" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I359" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J359" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="K359" s="3">
+        <v>0</v>
+      </c>
+      <c r="N359" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="360" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I360" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J360" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="K360" s="3">
+        <v>0</v>
+      </c>
+      <c r="N360" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="361" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B361" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D361" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="E361" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="F361" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="G361" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H361" s="3">
+        <v>1</v>
+      </c>
+      <c r="I361" s="3">
+        <v>0</v>
+      </c>
+      <c r="J361" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="K361" s="3">
+        <v>0</v>
+      </c>
+      <c r="N361" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="362" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I362" s="3">
+        <v>0</v>
+      </c>
+      <c r="J362" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="K362" s="3">
+        <v>0</v>
+      </c>
+      <c r="N362" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="363" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I363" s="3">
+        <v>0</v>
+      </c>
+      <c r="J363" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="K363" s="3">
+        <v>0</v>
+      </c>
+      <c r="N363" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="364" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I364" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J364" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="K364" s="3">
+        <v>0</v>
+      </c>
+      <c r="N364" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="365" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I365" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J365" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="K365" s="3">
+        <v>0</v>
+      </c>
+      <c r="N365" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="366" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I366" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J366" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="K366" s="3">
+        <v>0</v>
+      </c>
+      <c r="N366" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="367" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I367" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J367" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="K367" s="3">
+        <v>0</v>
+      </c>
+      <c r="N367" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="368" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B368" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D368" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E368" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="F368" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="G368" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H368" s="3">
+        <v>1</v>
+      </c>
+      <c r="I368" s="3">
+        <v>0</v>
+      </c>
+      <c r="J368" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="K368" s="3">
+        <v>0</v>
+      </c>
+      <c r="N368" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="369" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I369" s="3">
+        <v>0</v>
+      </c>
+      <c r="J369" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="K369" s="3">
+        <v>0</v>
+      </c>
+      <c r="N369" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="370" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I370" s="3">
+        <v>0</v>
+      </c>
+      <c r="J370" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="K370" s="3">
+        <v>0</v>
+      </c>
+      <c r="N370" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="371" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I371" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J371" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="K371" s="3">
+        <v>0</v>
+      </c>
+      <c r="N371" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="372" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I372" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J372" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="K372" s="3">
+        <v>0</v>
+      </c>
+      <c r="N372" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="373" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I373" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J373" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="K373" s="3">
+        <v>0</v>
+      </c>
+      <c r="N373" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="374" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I374" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J374" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="K374" s="3">
+        <v>0</v>
+      </c>
+      <c r="N374" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="375" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B375" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D375" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F375" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G375" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H375" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I375" s="3">
+        <v>0</v>
+      </c>
+      <c r="J375" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K375" s="3">
+        <v>0</v>
+      </c>
+      <c r="N375" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="376" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I376" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="J376" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K376" s="3">
+        <v>0</v>
+      </c>
+      <c r="L376" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N376" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="377" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I377" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J377" t="s">
+        <v>263</v>
+      </c>
+      <c r="K377" s="3">
+        <v>0</v>
+      </c>
+      <c r="N377" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="378" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I378" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J378" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="K378" s="3">
+        <v>0</v>
+      </c>
+      <c r="N378" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="379" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I379" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J379" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="K379" s="3">
+        <v>0</v>
+      </c>
+      <c r="N379" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="380" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I380" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J380" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="K380" s="3">
+        <v>0</v>
+      </c>
+      <c r="N380" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="381" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B381" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D381" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F381" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G381" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H381" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I381" s="3">
+        <v>0</v>
+      </c>
+      <c r="J381" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K381" s="3">
+        <v>0</v>
+      </c>
+      <c r="N381" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="382" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I382" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="J382" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K382" s="3">
+        <v>0</v>
+      </c>
+      <c r="L382" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N382" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="383" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I383" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J383" t="s">
+        <v>263</v>
+      </c>
+      <c r="K383" s="3">
+        <v>0</v>
+      </c>
+      <c r="N383" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="384" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I384" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J384" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="K384" s="3">
+        <v>0</v>
+      </c>
+      <c r="N384" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="385" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I385" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J385" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="K385" s="3">
+        <v>0</v>
+      </c>
+      <c r="N385" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="386" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I386" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J386" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="K386" s="3">
+        <v>0</v>
+      </c>
+      <c r="N386" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="387" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B387" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D387" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="E387" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F387" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G387" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H387" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I387" s="3">
+        <v>0</v>
+      </c>
+      <c r="J387" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K387" s="3">
+        <v>0</v>
+      </c>
+      <c r="N387" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="388" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I388" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="J388" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K388" s="3">
+        <v>0</v>
+      </c>
+      <c r="L388" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N388" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I389" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J389" t="s">
+        <v>263</v>
+      </c>
+      <c r="K389" s="3">
+        <v>0</v>
+      </c>
+      <c r="N389" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="390" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I390" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J390" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="K390" s="3">
+        <v>0</v>
+      </c>
+      <c r="N390" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="391" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I391" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J391" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="K391" s="3">
+        <v>0</v>
+      </c>
+      <c r="N391" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="392" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I392" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J392" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="K392" s="3">
+        <v>0</v>
+      </c>
+      <c r="N392" s="3" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -8403,13 +9279,13 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="J111">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J116">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J121">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/TimelineConfig/TimelineCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TimelineConfig/TimelineCfg.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TimelineConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TimelineConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11CF547-9173-4E71-AA38-E9DE92AA8A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E26EF1-BA81-42A3-88A1-F5A5C394B2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="代码指定" sheetId="2" r:id="rId1"/>
+    <sheet name="塔" sheetId="1" r:id="rId2"/>
+    <sheet name="怪" sheetId="3" r:id="rId3"/>
+    <sheet name="player技能" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="447">
   <si>
     <t>##var</t>
   </si>
@@ -1386,6 +1400,115 @@
   </si>
   <si>
     <t>GoToDie_Org</t>
+  </si>
+  <si>
+    <t>Timeline_Monster_Dan3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>怪物技能-蛋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Monster_Dan3_Skill</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_Monster_Dan3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayAnimator_Attack1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline_Monster_Long3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-龙3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_Monster_Long3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Monster_Long3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline_Monster_XueRen3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-雪人3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_Monster_Xueren3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Monster_Xueren3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerManualSkill_1_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线子弹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerManualSkill_2_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火海</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_PlayerManualSkill_1_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_PlayerManualSkill_2_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerManualSkill_3_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerManualSkill_4_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_FireSea</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1535,7 +1658,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1576,6 +1699,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1895,34 +2021,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N390"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FAF0D9-8244-4BEA-BED5-BC2A96BA392E}">
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C108" sqref="A108:XFD109"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="3" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="24.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="34" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.25" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="33.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="33.44140625" style="3" customWidth="1"/>
     <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1943,16 +2069,16 @@
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +2108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2000,7 +2126,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -2021,16 +2147,16 @@
       <c r="H4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-    </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -2050,7 +2176,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -2094,7 +2220,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2130,7 +2256,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>33</v>
       </c>
@@ -2166,59 +2292,316 @@
         <v>386</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="I4:N4"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N390"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A7:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="34" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="33.44140625" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="3" t="str">
-        <f>B9&amp;"_"&amp;C9</f>
+      <c r="D7" s="3" t="str">
+        <f>B7&amp;"_"&amp;C7</f>
         <v>Timeline_1</v>
       </c>
+      <c r="E7" s="6"/>
+      <c r="G7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E8" s="6"/>
+      <c r="J8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E9" s="6"/>
-      <c r="G9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3">
         <v>2</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="D10" s="3" t="str">
+        <f>B10&amp;"_"&amp;C10</f>
+        <v>Timeline_2</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="G10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E10" s="6"/>
-      <c r="J10" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E11" s="6"/>
       <c r="I11" s="3">
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
@@ -2227,16 +2610,16 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="3" t="str">
         <f>B12&amp;"_"&amp;C12</f>
-        <v>Timeline_2</v>
+        <v>Timeline_3</v>
       </c>
       <c r="E12" s="6"/>
       <c r="G12" s="3" t="b">
@@ -2258,13 +2641,13 @@
         <v>388</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E13" s="6"/>
       <c r="I13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
@@ -2273,39 +2656,39 @@
         <v>388</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E14" s="6"/>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="3">
-        <v>3</v>
-      </c>
-      <c r="D14" s="3" t="str">
-        <f>B14&amp;"_"&amp;C14</f>
-        <v>Timeline_3</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="G14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f>B15&amp;"_"&amp;C15</f>
+        <v>Timeline_Player1</v>
+      </c>
       <c r="E15" s="6"/>
+      <c r="G15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
@@ -2319,31 +2702,31 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E16" s="6"/>
       <c r="I16" s="3">
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D17" s="3" t="str">
         <f>B17&amp;"_"&amp;C17</f>
-        <v>Timeline_Player1</v>
+        <v>Timeline_Player2</v>
       </c>
       <c r="E17" s="6"/>
       <c r="G17" s="3" t="b">
@@ -2353,10 +2736,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -2365,31 +2748,47 @@
         <v>388</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f>B18&amp;"_"&amp;C18</f>
+        <v>Timeline_Player3</v>
+      </c>
       <c r="E18" s="6"/>
+      <c r="G18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
       <c r="I18" s="3">
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D19" s="3" t="str">
         <f>B19&amp;"_"&amp;C19</f>
-        <v>Timeline_Player2</v>
+        <v>Timeline_RocketTower_1</v>
       </c>
       <c r="E19" s="6"/>
       <c r="G19" s="3" t="b">
@@ -2399,416 +2798,361 @@
         <v>1</v>
       </c>
       <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I20" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I21" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f>B22&amp;"_"&amp;C22</f>
+        <v>Timeline_MachineGunTower1</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="G22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>1</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I23" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I24" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="3" t="str">
-        <f>B20&amp;"_"&amp;C20</f>
-        <v>Timeline_Player3</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="G20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="C26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="3" t="str">
+        <f>B26&amp;"_"&amp;C26</f>
+        <v>Timeline_LaserTower_0</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="G26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>1</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I27" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I28" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I29" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="3" t="str">
+        <f>B30&amp;"_"&amp;C30</f>
+        <v>Timeline_EnergyPylon_2</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="G30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
         <v>1</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I31" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I32" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I33" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="3" t="str">
-        <f>B21&amp;"_"&amp;C21</f>
-        <v>Timeline_RocketTower_1</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="G21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="C34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="3" t="str">
+        <f>B34&amp;"_"&amp;C34</f>
+        <v>Timeline_HoverTank1</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="G34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
         <v>1</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I22" s="3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I35" s="3">
         <v>0.05</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I23" s="3">
+      <c r="N35" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I36" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I37" s="3">
         <v>0.2</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="3" t="str">
-        <f>B24&amp;"_"&amp;C24</f>
-        <v>Timeline_MachineGunTower1</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="G24" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I25" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I26" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I27" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="3" t="str">
-        <f>B28&amp;"_"&amp;C28</f>
-        <v>Timeline_LaserTower_0</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="G28" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I29" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I30" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I31" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="3" t="str">
-        <f>B32&amp;"_"&amp;C32</f>
-        <v>Timeline_EnergyPylon_2</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="G32" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I33" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I34" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I35" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="3" t="str">
-        <f>B36&amp;"_"&amp;C36</f>
-        <v>Timeline_HoverTank1</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="G36" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
-        <v>1</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K36" s="3">
-        <v>0</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I37" s="3">
-        <v>0.05</v>
-      </c>
       <c r="J37" s="3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="K37" s="3">
         <v>0</v>
       </c>
-      <c r="L37" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="N37" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I38" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I39" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K39" s="3">
-        <v>0</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D39" s="16"/>
+      <c r="I39"/>
+      <c r="J39" s="14"/>
+      <c r="L39"/>
+      <c r="N39" s="15"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>33</v>
       </c>
@@ -2844,7 +3188,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I41" s="3">
         <v>0.05</v>
       </c>
@@ -2861,7 +3205,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I42" s="3">
         <v>0.1</v>
       </c>
@@ -2875,7 +3219,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I43" s="3">
         <v>0.1</v>
       </c>
@@ -2889,7 +3233,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I44" s="3">
         <v>0.1</v>
       </c>
@@ -2903,7 +3247,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -2917,7 +3261,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>33</v>
       </c>
@@ -2953,7 +3297,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I47" s="3">
         <v>0.05</v>
       </c>
@@ -2970,7 +3314,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I48" s="3">
         <v>0.1</v>
       </c>
@@ -2984,7 +3328,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I49" s="3">
         <v>0.1</v>
       </c>
@@ -2998,7 +3342,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I50" s="3">
         <v>0.1</v>
       </c>
@@ -3012,7 +3356,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I51" s="3">
         <v>0</v>
       </c>
@@ -3026,7 +3370,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>33</v>
       </c>
@@ -3062,7 +3406,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I53" s="3">
         <v>0.05</v>
       </c>
@@ -3079,7 +3423,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I54" s="3">
         <v>0.1</v>
       </c>
@@ -3093,7 +3437,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I55" s="3">
         <v>0.1</v>
       </c>
@@ -3107,7 +3451,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I56" s="3">
         <v>0.1</v>
       </c>
@@ -3121,7 +3465,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I57" s="3">
         <v>0</v>
       </c>
@@ -3135,7 +3479,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>33</v>
       </c>
@@ -3171,7 +3515,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I59" s="3">
         <v>0.05</v>
       </c>
@@ -3188,7 +3532,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I60" s="3">
         <v>0.1</v>
       </c>
@@ -3202,7 +3546,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I61" s="3">
         <v>0.1</v>
       </c>
@@ -3216,7 +3560,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J62" s="3" t="s">
         <v>83</v>
       </c>
@@ -3227,7 +3571,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I63" s="3">
         <v>0</v>
       </c>
@@ -3241,7 +3585,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>33</v>
       </c>
@@ -3277,7 +3621,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I65" s="3">
         <v>0.05</v>
       </c>
@@ -3294,7 +3638,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I66" s="3">
         <v>0.1</v>
       </c>
@@ -3308,7 +3652,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I67" s="3">
         <v>0.1</v>
       </c>
@@ -3322,7 +3666,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J68" s="3" t="s">
         <v>87</v>
       </c>
@@ -3333,7 +3677,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I69" s="3">
         <v>0</v>
       </c>
@@ -3347,7 +3691,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>33</v>
       </c>
@@ -3383,7 +3727,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I71" s="3">
         <v>0.05</v>
       </c>
@@ -3400,7 +3744,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I72" s="3">
         <v>0.1</v>
       </c>
@@ -3414,7 +3758,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I73" s="3">
         <v>0.1</v>
       </c>
@@ -3428,7 +3772,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I74" s="3">
         <v>0.1</v>
       </c>
@@ -3442,7 +3786,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I75" s="3">
         <v>0</v>
       </c>
@@ -3456,7 +3800,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
         <v>33</v>
       </c>
@@ -3492,7 +3836,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I77" s="3">
         <v>0.05</v>
       </c>
@@ -3509,7 +3853,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I78" s="3">
         <v>0.1</v>
       </c>
@@ -3523,7 +3867,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>33</v>
       </c>
@@ -3559,7 +3903,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I80" s="3">
         <v>0.05</v>
       </c>
@@ -3576,7 +3920,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C81" s="13"/>
       <c r="I81" s="3">
         <v>0.1</v>
@@ -3591,7 +3935,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
         <v>33</v>
       </c>
@@ -3627,7 +3971,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I83" s="3">
         <v>0.05</v>
       </c>
@@ -3644,7 +3988,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I84" s="3">
         <v>0.1</v>
       </c>
@@ -3658,7 +4002,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
         <v>33</v>
       </c>
@@ -3694,7 +4038,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
         <v>33</v>
       </c>
@@ -3730,7 +4074,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
         <v>33</v>
       </c>
@@ -3766,7 +4110,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
         <v>33</v>
       </c>
@@ -3802,7 +4146,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I89" s="3">
         <v>0.05</v>
       </c>
@@ -3819,7 +4163,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I90" s="3">
         <v>0.1</v>
       </c>
@@ -3833,7 +4177,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I91" s="3">
         <v>0.1</v>
       </c>
@@ -3847,7 +4191,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
         <v>33</v>
       </c>
@@ -3883,7 +4227,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I93" s="3">
         <v>0.05</v>
       </c>
@@ -3900,7 +4244,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I94" s="3">
         <v>0.1</v>
       </c>
@@ -3914,7 +4258,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I95" s="3">
         <v>0.1</v>
       </c>
@@ -3928,7 +4272,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -3942,7 +4286,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
         <v>33</v>
       </c>
@@ -3978,7 +4322,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I98" s="3">
         <v>0.05</v>
       </c>
@@ -3995,7 +4339,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I99" s="3">
         <v>0.1</v>
       </c>
@@ -4009,7 +4353,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I100" s="3">
         <v>0.1</v>
       </c>
@@ -4023,7 +4367,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -4037,7 +4381,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
         <v>33</v>
       </c>
@@ -4073,7 +4417,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I103" s="3">
         <v>0.05</v>
       </c>
@@ -4090,7 +4434,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I104" s="3">
         <v>0.1</v>
       </c>
@@ -4104,7 +4448,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I105" s="3">
         <v>0.1</v>
       </c>
@@ -4118,7 +4462,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I106" s="3">
         <v>0.3</v>
       </c>
@@ -4132,7 +4476,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I107" s="3">
         <v>0.3</v>
       </c>
@@ -4146,7 +4490,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I108" s="3">
         <v>0</v>
       </c>
@@ -4160,7 +4504,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="3" t="s">
         <v>33</v>
       </c>
@@ -4196,7 +4540,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I110" s="3">
         <v>0</v>
       </c>
@@ -4210,7 +4554,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I111" s="3">
         <v>0</v>
       </c>
@@ -4224,7 +4568,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I112" s="3">
         <v>0</v>
       </c>
@@ -4238,7 +4582,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I113" s="3">
         <v>0</v>
       </c>
@@ -4252,7 +4596,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
         <v>33</v>
       </c>
@@ -4288,7 +4632,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I115" s="3">
         <v>0</v>
       </c>
@@ -4302,7 +4646,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I116" s="3">
         <v>0</v>
       </c>
@@ -4316,7 +4660,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I117" s="3">
         <v>0</v>
       </c>
@@ -4330,7 +4674,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I118" s="3">
         <v>0</v>
       </c>
@@ -4344,7 +4688,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
         <v>33</v>
       </c>
@@ -4380,7 +4724,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I120" s="3">
         <v>0</v>
       </c>
@@ -4394,7 +4738,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I121" s="3">
         <v>0</v>
       </c>
@@ -4408,7 +4752,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I122" s="3">
         <v>0</v>
       </c>
@@ -4422,7 +4766,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I123" s="3">
         <v>0</v>
       </c>
@@ -4436,7 +4780,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="3" t="s">
         <v>33</v>
       </c>
@@ -4472,7 +4816,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I125" s="3">
         <v>0.05</v>
       </c>
@@ -4489,7 +4833,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I126" s="3">
         <v>0.1</v>
       </c>
@@ -4503,7 +4847,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I127" s="3">
         <v>0.1</v>
       </c>
@@ -4517,7 +4861,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I128" s="3">
         <v>0</v>
       </c>
@@ -4531,7 +4875,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="3" t="s">
         <v>33</v>
       </c>
@@ -4567,7 +4911,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I130" s="3">
         <v>0.05</v>
       </c>
@@ -4584,7 +4928,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I131" s="3">
         <v>0.1</v>
       </c>
@@ -4598,7 +4942,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I132" s="3">
         <v>0.1</v>
       </c>
@@ -4612,7 +4956,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I133" s="3">
         <v>0</v>
       </c>
@@ -4626,7 +4970,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="3" t="s">
         <v>33</v>
       </c>
@@ -4662,7 +5006,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I135" s="3">
         <v>0.05</v>
       </c>
@@ -4679,7 +5023,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I136" s="3">
         <v>0.1</v>
       </c>
@@ -4693,7 +5037,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I137" s="3">
         <v>0.1</v>
       </c>
@@ -4707,7 +5051,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I138" s="3">
         <v>0</v>
       </c>
@@ -4721,7 +5065,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="3" t="s">
         <v>33</v>
       </c>
@@ -4756,7 +5100,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I140" s="3">
         <v>0</v>
       </c>
@@ -4770,7 +5114,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I141" s="3">
         <v>0.1</v>
       </c>
@@ -4784,7 +5128,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I142" s="3">
         <v>0.2</v>
       </c>
@@ -4798,7 +5142,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I143" s="3">
         <v>0.3</v>
       </c>
@@ -4812,7 +5156,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I144" s="3">
         <v>0.4</v>
       </c>
@@ -4826,7 +5170,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I145" s="3">
         <v>0.5</v>
       </c>
@@ -4840,7 +5184,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I146" s="3">
         <v>0</v>
       </c>
@@ -4854,7 +5198,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="3" t="s">
         <v>33</v>
       </c>
@@ -4889,7 +5233,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I148" s="3">
         <v>0</v>
       </c>
@@ -4903,7 +5247,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I149" s="3">
         <v>0.1</v>
       </c>
@@ -4917,7 +5261,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I150" s="3">
         <v>0.2</v>
       </c>
@@ -4931,7 +5275,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I151" s="3">
         <v>0.3</v>
       </c>
@@ -4945,7 +5289,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I152" s="3">
         <v>0.4</v>
       </c>
@@ -4959,7 +5303,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I153" s="3">
         <v>0.5</v>
       </c>
@@ -4973,7 +5317,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I154" s="3">
         <v>0</v>
       </c>
@@ -4987,7 +5331,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="3" t="s">
         <v>33</v>
       </c>
@@ -5022,7 +5366,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I156" s="3">
         <v>0</v>
       </c>
@@ -5036,7 +5380,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I157" s="3">
         <v>0.1</v>
       </c>
@@ -5050,7 +5394,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I158" s="3">
         <v>0.2</v>
       </c>
@@ -5064,7 +5408,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I159" s="3">
         <v>0.3</v>
       </c>
@@ -5078,7 +5422,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I160" s="3">
         <v>0.4</v>
       </c>
@@ -5092,7 +5436,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I161" s="3">
         <v>0.5</v>
       </c>
@@ -5106,7 +5450,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I162" s="3">
         <v>0.15</v>
       </c>
@@ -5120,7 +5464,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I163" s="3">
         <v>0.25</v>
       </c>
@@ -5134,7 +5478,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I164" s="3">
         <v>0.35</v>
       </c>
@@ -5148,7 +5492,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I165" s="3">
         <v>0</v>
       </c>
@@ -5162,7 +5506,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="3" t="s">
         <v>33</v>
       </c>
@@ -5197,7 +5541,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I167" s="3">
         <v>0.05</v>
       </c>
@@ -5214,7 +5558,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I168" s="3">
         <v>0.1</v>
       </c>
@@ -5228,7 +5572,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I169" s="3">
         <v>0.1</v>
       </c>
@@ -5242,7 +5586,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I170" s="3">
         <v>0.1</v>
       </c>
@@ -5256,7 +5600,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I171" s="3">
         <v>0</v>
       </c>
@@ -5270,7 +5614,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="3" t="s">
         <v>33</v>
       </c>
@@ -5305,7 +5649,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I173" s="3">
         <v>0.05</v>
       </c>
@@ -5322,7 +5666,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I174" s="3">
         <v>0.1</v>
       </c>
@@ -5336,7 +5680,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I175" s="3">
         <v>0.1</v>
       </c>
@@ -5350,7 +5694,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I176" s="3">
         <v>0.1</v>
       </c>
@@ -5364,7 +5708,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I177" s="3">
         <v>0</v>
       </c>
@@ -5378,7 +5722,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="3" t="s">
         <v>33</v>
       </c>
@@ -5413,7 +5757,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I179" s="3">
         <v>0.05</v>
       </c>
@@ -5430,7 +5774,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I180" s="3">
         <v>0.1</v>
       </c>
@@ -5444,7 +5788,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I181" s="3">
         <v>0.1</v>
       </c>
@@ -5458,7 +5802,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I182" s="3">
         <v>0.1</v>
       </c>
@@ -5472,7 +5816,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I183" s="3">
         <v>0</v>
       </c>
@@ -5486,7 +5830,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="3" t="s">
         <v>33</v>
       </c>
@@ -5522,7 +5866,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I185" s="3">
         <v>0.1</v>
       </c>
@@ -5536,7 +5880,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="3" t="s">
         <v>33</v>
       </c>
@@ -5572,7 +5916,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I187" s="3">
         <v>0.1</v>
       </c>
@@ -5586,7 +5930,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="3" t="s">
         <v>33</v>
       </c>
@@ -5622,7 +5966,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I189" s="3">
         <v>0.1</v>
       </c>
@@ -5636,7 +5980,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="3" t="s">
         <v>33</v>
       </c>
@@ -5671,7 +6015,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E191" s="11"/>
       <c r="I191" s="3">
         <v>0.05</v>
@@ -5689,7 +6033,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E192" s="11"/>
       <c r="I192" s="3">
         <v>0.1</v>
@@ -5704,7 +6048,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I193" s="3">
         <v>0.1</v>
       </c>
@@ -5718,7 +6062,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I194" s="3">
         <v>0.1</v>
       </c>
@@ -5732,7 +6076,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I195" s="3">
         <v>0</v>
       </c>
@@ -5746,7 +6090,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" s="3" t="s">
         <v>33</v>
       </c>
@@ -5781,7 +6125,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E197" s="11"/>
       <c r="I197" s="3">
         <v>0.05</v>
@@ -5799,7 +6143,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E198" s="11"/>
       <c r="I198" s="3">
         <v>0.1</v>
@@ -5814,7 +6158,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I199" s="3">
         <v>0.1</v>
       </c>
@@ -5828,7 +6172,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I200" s="3">
         <v>0.1</v>
       </c>
@@ -5842,7 +6186,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I201" s="3">
         <v>0</v>
       </c>
@@ -5856,7 +6200,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202" s="3" t="s">
         <v>33</v>
       </c>
@@ -5891,7 +6235,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E203" s="11"/>
       <c r="I203" s="3">
         <v>0.05</v>
@@ -5909,7 +6253,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E204" s="11"/>
       <c r="I204" s="3">
         <v>0.1</v>
@@ -5924,7 +6268,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I205" s="3">
         <v>0.1</v>
       </c>
@@ -5938,7 +6282,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I206" s="3">
         <v>0.1</v>
       </c>
@@ -5952,7 +6296,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I207" s="3">
         <v>0</v>
       </c>
@@ -5966,7 +6310,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B208" s="3" t="s">
         <v>33</v>
       </c>
@@ -6001,7 +6345,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="209" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I209" s="3">
         <v>0.05</v>
       </c>
@@ -6018,7 +6362,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="210" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I210" s="3">
         <v>0.1</v>
       </c>
@@ -6032,7 +6376,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="211" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I211" s="3">
         <v>0.1</v>
       </c>
@@ -6046,7 +6390,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="212" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I212" s="3">
         <v>0.1</v>
       </c>
@@ -6060,7 +6404,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="213" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I213" s="3">
         <v>0</v>
       </c>
@@ -6074,7 +6418,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="214" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B214" s="3" t="s">
         <v>33</v>
       </c>
@@ -6109,7 +6453,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="215" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I215" s="3">
         <v>0.05</v>
       </c>
@@ -6126,7 +6470,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="216" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I216" s="3">
         <v>0.1</v>
       </c>
@@ -6140,7 +6484,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="217" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I217" s="3">
         <v>0.1</v>
       </c>
@@ -6154,7 +6498,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="218" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I218" s="3">
         <v>0.1</v>
       </c>
@@ -6168,7 +6512,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="219" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I219" s="3">
         <v>0</v>
       </c>
@@ -6182,7 +6526,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="220" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B220" s="3" t="s">
         <v>33</v>
       </c>
@@ -6217,7 +6561,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="221" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I221" s="3">
         <v>0.05</v>
       </c>
@@ -6234,7 +6578,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="222" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I222" s="3">
         <v>0.1</v>
       </c>
@@ -6248,7 +6592,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="223" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I223" s="3">
         <v>0.1</v>
       </c>
@@ -6262,7 +6606,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="224" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I224" s="3">
         <v>0.1</v>
       </c>
@@ -6276,7 +6620,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="225" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I225" s="3">
         <v>0</v>
       </c>
@@ -6290,7 +6634,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="226" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B226" s="3" t="s">
         <v>33</v>
       </c>
@@ -6325,7 +6669,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="227" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E227" s="11"/>
       <c r="I227" s="3">
         <v>0.05</v>
@@ -6343,7 +6687,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="228" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E228" s="11"/>
       <c r="I228" s="3">
         <v>0.1</v>
@@ -6358,7 +6702,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="229" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I229" s="3">
         <v>0.1</v>
       </c>
@@ -6372,7 +6716,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="230" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I230" s="3">
         <v>0.1</v>
       </c>
@@ -6386,7 +6730,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="231" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I231" s="3">
         <v>0</v>
       </c>
@@ -6400,7 +6744,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="232" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B232" s="3" t="s">
         <v>33</v>
       </c>
@@ -6435,7 +6779,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="233" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E233" s="11"/>
       <c r="I233" s="3">
         <v>0.05</v>
@@ -6453,7 +6797,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="234" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E234" s="11"/>
       <c r="I234" s="3">
         <v>0.1</v>
@@ -6468,7 +6812,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="235" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I235" s="3">
         <v>0.1</v>
       </c>
@@ -6482,7 +6826,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="236" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I236" s="3">
         <v>0.1</v>
       </c>
@@ -6496,7 +6840,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="237" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I237" s="3">
         <v>0</v>
       </c>
@@ -6510,7 +6854,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="238" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B238" s="3" t="s">
         <v>33</v>
       </c>
@@ -6545,7 +6889,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="239" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E239" s="11"/>
       <c r="I239" s="3">
         <v>0.05</v>
@@ -6563,7 +6907,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="240" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E240" s="11"/>
       <c r="I240" s="3">
         <v>0.1</v>
@@ -6578,7 +6922,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="241" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I241" s="3">
         <v>0.1</v>
       </c>
@@ -6592,7 +6936,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="242" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I242" s="3">
         <v>0.1</v>
       </c>
@@ -6606,7 +6950,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="243" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I243" s="3">
         <v>0</v>
       </c>
@@ -6620,7 +6964,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="244" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B244" s="11" t="s">
         <v>33</v>
       </c>
@@ -6655,7 +6999,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="245" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I245" s="3">
         <v>0</v>
       </c>
@@ -6669,7 +7013,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="246" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I246" s="3">
         <v>0</v>
       </c>
@@ -6683,7 +7027,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="247" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I247" s="3">
         <v>0</v>
       </c>
@@ -6697,7 +7041,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="248" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B248" s="11" t="s">
         <v>33</v>
       </c>
@@ -6732,7 +7076,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="249" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I249" s="3">
         <v>0</v>
       </c>
@@ -6746,7 +7090,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="250" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J250" s="3" t="s">
         <v>253</v>
       </c>
@@ -6757,7 +7101,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="251" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I251" s="3">
         <v>0</v>
       </c>
@@ -6771,7 +7115,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="252" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B252" s="11" t="s">
         <v>33</v>
       </c>
@@ -6806,7 +7150,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="253" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I253" s="3">
         <v>0</v>
       </c>
@@ -6820,7 +7164,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="254" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I254" s="3">
         <v>0</v>
       </c>
@@ -6834,7 +7178,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="255" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I255" s="3">
         <v>0</v>
       </c>
@@ -6848,7 +7192,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="256" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B256" s="11" t="s">
         <v>33</v>
       </c>
@@ -6883,7 +7227,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="257" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I257" s="3">
         <v>0.05</v>
       </c>
@@ -6900,7 +7244,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="258" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I258" s="3">
         <v>0.1</v>
       </c>
@@ -6914,7 +7258,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="259" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I259" s="3">
         <v>0.1</v>
       </c>
@@ -6928,7 +7272,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="260" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I260" s="3">
         <v>0.1</v>
       </c>
@@ -6942,7 +7286,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="261" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I261" s="3">
         <v>0</v>
       </c>
@@ -6956,7 +7300,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="262" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B262" s="11" t="s">
         <v>33</v>
       </c>
@@ -6991,7 +7335,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="263" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I263" s="3">
         <v>0.05</v>
       </c>
@@ -7008,7 +7352,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="264" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I264" s="3">
         <v>0.1</v>
       </c>
@@ -7022,7 +7366,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="265" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I265" s="3">
         <v>0.1</v>
       </c>
@@ -7036,7 +7380,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="266" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I266" s="3">
         <v>0.1</v>
       </c>
@@ -7050,7 +7394,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="267" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I267" s="3">
         <v>0</v>
       </c>
@@ -7064,7 +7408,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="268" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B268" s="11" t="s">
         <v>33</v>
       </c>
@@ -7099,7 +7443,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="269" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I269" s="3">
         <v>0.05</v>
       </c>
@@ -7116,7 +7460,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="270" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I270" s="3">
         <v>0.1</v>
       </c>
@@ -7130,7 +7474,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="271" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I271" s="3">
         <v>0.1</v>
       </c>
@@ -7144,7 +7488,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="272" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I272" s="3">
         <v>0.1</v>
       </c>
@@ -7158,7 +7502,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="273" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I273" s="3">
         <v>0</v>
       </c>
@@ -7172,7 +7516,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="274" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B274" s="3" t="s">
         <v>33</v>
       </c>
@@ -7207,7 +7551,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="275" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I275" s="3">
         <v>0.05</v>
       </c>
@@ -7224,7 +7568,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="276" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I276" s="3">
         <v>0.1</v>
       </c>
@@ -7238,7 +7582,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="277" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I277" s="3">
         <v>0.1</v>
       </c>
@@ -7252,7 +7596,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="278" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I278" s="3">
         <v>0.1</v>
       </c>
@@ -7266,7 +7610,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="279" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I279" s="3">
         <v>0.1</v>
       </c>
@@ -7280,7 +7624,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="280" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I280" s="3">
         <v>0</v>
       </c>
@@ -7294,7 +7638,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="281" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B281" s="3" t="s">
         <v>33</v>
       </c>
@@ -7329,7 +7673,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="282" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I282" s="3">
         <v>0.05</v>
       </c>
@@ -7346,7 +7690,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="283" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I283" s="3">
         <v>0.1</v>
       </c>
@@ -7360,7 +7704,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="284" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I284" s="3">
         <v>0.1</v>
       </c>
@@ -7374,7 +7718,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="285" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I285" s="3">
         <v>0.1</v>
       </c>
@@ -7388,7 +7732,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="286" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I286" s="3">
         <v>0.1</v>
       </c>
@@ -7402,7 +7746,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="287" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I287" s="3">
         <v>0</v>
       </c>
@@ -7416,7 +7760,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="288" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B288" s="3" t="s">
         <v>33</v>
       </c>
@@ -7451,7 +7795,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="289" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I289" s="3">
         <v>0.05</v>
       </c>
@@ -7468,7 +7812,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="290" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I290" s="3">
         <v>0.1</v>
       </c>
@@ -7482,7 +7826,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="291" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I291" s="3">
         <v>0.1</v>
       </c>
@@ -7496,7 +7840,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="292" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I292" s="3">
         <v>0.1</v>
       </c>
@@ -7510,7 +7854,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="293" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I293" s="3">
         <v>0.1</v>
       </c>
@@ -7524,7 +7868,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="294" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I294" s="3">
         <v>0</v>
       </c>
@@ -7538,7 +7882,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="295" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B295" s="3" t="s">
         <v>33</v>
       </c>
@@ -7573,7 +7917,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="296" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I296" s="3">
         <v>0.05</v>
       </c>
@@ -7590,7 +7934,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="297" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I297" s="3">
         <v>0.1</v>
       </c>
@@ -7604,7 +7948,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="298" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I298" s="3">
         <v>0.1</v>
       </c>
@@ -7618,7 +7962,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="299" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I299" s="3">
         <v>0.1</v>
       </c>
@@ -7632,7 +7976,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="300" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I300" s="3">
         <v>0</v>
       </c>
@@ -7646,7 +7990,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="301" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B301" s="3" t="s">
         <v>33</v>
       </c>
@@ -7681,7 +8025,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="302" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I302" s="3">
         <v>0.05</v>
       </c>
@@ -7698,7 +8042,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="303" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I303" s="3">
         <v>0.1</v>
       </c>
@@ -7712,7 +8056,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="304" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I304" s="3">
         <v>0.1</v>
       </c>
@@ -7726,7 +8070,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="305" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I305" s="3">
         <v>0.1</v>
       </c>
@@ -7740,7 +8084,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="306" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I306" s="3">
         <v>0</v>
       </c>
@@ -7754,7 +8098,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="307" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B307" s="3" t="s">
         <v>33</v>
       </c>
@@ -7789,7 +8133,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="308" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I308" s="3">
         <v>0.05</v>
       </c>
@@ -7806,7 +8150,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="309" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I309" s="3">
         <v>0.1</v>
       </c>
@@ -7820,7 +8164,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="310" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I310" s="3">
         <v>0.1</v>
       </c>
@@ -7834,7 +8178,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="311" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I311" s="3">
         <v>0.1</v>
       </c>
@@ -7848,7 +8192,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="312" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I312" s="3">
         <v>0</v>
       </c>
@@ -7862,7 +8206,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="313" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B313" s="3" t="s">
         <v>33</v>
       </c>
@@ -7897,7 +8241,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="314" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I314" s="3">
         <v>0.05</v>
       </c>
@@ -7914,7 +8258,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="315" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I315" s="3">
         <v>0.1</v>
       </c>
@@ -7928,7 +8272,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="316" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I316" s="3">
         <v>0.1</v>
       </c>
@@ -7942,7 +8286,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="317" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I317" s="3">
         <v>0.1</v>
       </c>
@@ -7956,7 +8300,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="318" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I318" s="3">
         <v>0</v>
       </c>
@@ -7970,7 +8314,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="319" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B319" s="3" t="s">
         <v>33</v>
       </c>
@@ -8005,7 +8349,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="320" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I320" s="3">
         <v>0.05</v>
       </c>
@@ -8022,7 +8366,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="321" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I321" s="3">
         <v>0.1</v>
       </c>
@@ -8036,7 +8380,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="322" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I322" s="3">
         <v>0.1</v>
       </c>
@@ -8050,7 +8394,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="323" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I323" s="3">
         <v>0.1</v>
       </c>
@@ -8064,7 +8408,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="324" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I324" s="3">
         <v>0</v>
       </c>
@@ -8078,7 +8422,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="325" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B325" s="3" t="s">
         <v>33</v>
       </c>
@@ -8113,7 +8457,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="326" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I326" s="3">
         <v>0.05</v>
       </c>
@@ -8130,7 +8474,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="327" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I327" s="3">
         <v>0.1</v>
       </c>
@@ -8144,7 +8488,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="328" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I328" s="3">
         <v>0.1</v>
       </c>
@@ -8158,7 +8502,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="329" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I329" s="3">
         <v>0.1</v>
       </c>
@@ -8172,7 +8516,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="330" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I330" s="3">
         <v>0.3</v>
       </c>
@@ -8186,7 +8530,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="331" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I331" s="3">
         <v>0.3</v>
       </c>
@@ -8200,7 +8544,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="332" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I332" s="3">
         <v>0.3</v>
       </c>
@@ -8214,7 +8558,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="333" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I333" s="3">
         <v>0</v>
       </c>
@@ -8228,7 +8572,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="334" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B334" s="3" t="s">
         <v>33</v>
       </c>
@@ -8263,7 +8607,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="335" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I335" s="3">
         <v>0.05</v>
       </c>
@@ -8280,7 +8624,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="336" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I336" s="3">
         <v>0.1</v>
       </c>
@@ -8294,7 +8638,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="337" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I337" s="3">
         <v>0.1</v>
       </c>
@@ -8308,7 +8652,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="338" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I338" s="3">
         <v>0.1</v>
       </c>
@@ -8322,7 +8666,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="339" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I339" s="3">
         <v>0</v>
       </c>
@@ -8336,7 +8680,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="340" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B340" s="3" t="s">
         <v>33</v>
       </c>
@@ -8371,7 +8715,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="341" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I341" s="3">
         <v>0.05</v>
       </c>
@@ -8388,7 +8732,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="342" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I342" s="3">
         <v>0.1</v>
       </c>
@@ -8402,7 +8746,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="343" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I343" s="3">
         <v>0.1</v>
       </c>
@@ -8416,7 +8760,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="344" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I344" s="3">
         <v>0.1</v>
       </c>
@@ -8430,7 +8774,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="345" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I345" s="3">
         <v>0</v>
       </c>
@@ -8444,7 +8788,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="346" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B346" s="3" t="s">
         <v>33</v>
       </c>
@@ -8479,7 +8823,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="347" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I347" s="3">
         <v>0.05</v>
       </c>
@@ -8496,7 +8840,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="348" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I348" s="3">
         <v>0.1</v>
       </c>
@@ -8510,7 +8854,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="349" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I349" s="3">
         <v>0.1</v>
       </c>
@@ -8524,7 +8868,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="350" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I350" s="3">
         <v>0.1</v>
       </c>
@@ -8538,7 +8882,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="351" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I351" s="3">
         <v>0</v>
       </c>
@@ -8552,7 +8896,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="352" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B352" s="3" t="s">
         <v>33</v>
       </c>
@@ -8587,7 +8931,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="353" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I353" s="3">
         <v>0</v>
       </c>
@@ -8601,7 +8945,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="354" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I354" s="3">
         <v>0</v>
       </c>
@@ -8615,7 +8959,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="355" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I355" s="3">
         <v>0.5</v>
       </c>
@@ -8629,7 +8973,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="356" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I356" s="3">
         <v>0.5</v>
       </c>
@@ -8643,7 +8987,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="357" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I357" s="3">
         <v>0.5</v>
       </c>
@@ -8657,7 +9001,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="358" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I358" s="3">
         <v>0.5</v>
       </c>
@@ -8671,7 +9015,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="359" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B359" s="3" t="s">
         <v>33</v>
       </c>
@@ -8706,7 +9050,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="360" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I360" s="3">
         <v>0</v>
       </c>
@@ -8720,7 +9064,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="361" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I361" s="3">
         <v>0</v>
       </c>
@@ -8734,7 +9078,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="362" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I362" s="3">
         <v>0.5</v>
       </c>
@@ -8748,7 +9092,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="363" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I363" s="3">
         <v>0.5</v>
       </c>
@@ -8762,7 +9106,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="364" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I364" s="3">
         <v>0.5</v>
       </c>
@@ -8776,7 +9120,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="365" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I365" s="3">
         <v>0.5</v>
       </c>
@@ -8790,7 +9134,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="366" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B366" s="3" t="s">
         <v>33</v>
       </c>
@@ -8825,7 +9169,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="367" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I367" s="3">
         <v>0</v>
       </c>
@@ -8839,7 +9183,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="368" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I368" s="3">
         <v>0</v>
       </c>
@@ -8853,7 +9197,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="369" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I369" s="3">
         <v>0.5</v>
       </c>
@@ -8867,7 +9211,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="370" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I370" s="3">
         <v>0.5</v>
       </c>
@@ -8881,7 +9225,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="371" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I371" s="3">
         <v>0.5</v>
       </c>
@@ -8895,7 +9239,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="372" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I372" s="3">
         <v>0.5</v>
       </c>
@@ -8909,7 +9253,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="373" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B373" s="11" t="s">
         <v>33</v>
       </c>
@@ -8944,7 +9288,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="374" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I374" s="3">
         <v>0.05</v>
       </c>
@@ -8961,7 +9305,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="375" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I375" s="3">
         <v>0.1</v>
       </c>
@@ -8975,7 +9319,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="376" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I376" s="3">
         <v>0.1</v>
       </c>
@@ -8989,7 +9333,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="377" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I377" s="3">
         <v>0.1</v>
       </c>
@@ -9003,7 +9347,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="378" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I378" s="3">
         <v>0.1</v>
       </c>
@@ -9017,7 +9361,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="379" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B379" s="11" t="s">
         <v>33</v>
       </c>
@@ -9052,7 +9396,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="380" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I380" s="3">
         <v>0.05</v>
       </c>
@@ -9069,7 +9413,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="381" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I381" s="3">
         <v>0.1</v>
       </c>
@@ -9083,7 +9427,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="382" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I382" s="3">
         <v>0.1</v>
       </c>
@@ -9097,7 +9441,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="383" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I383" s="3">
         <v>0.1</v>
       </c>
@@ -9111,7 +9455,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="384" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I384" s="3">
         <v>0.1</v>
       </c>
@@ -9125,7 +9469,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="385" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B385" s="11" t="s">
         <v>33</v>
       </c>
@@ -9160,7 +9504,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="386" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I386" s="3">
         <v>0.05</v>
       </c>
@@ -9177,7 +9521,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="387" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I387" s="3">
         <v>0.1</v>
       </c>
@@ -9191,7 +9535,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I388" s="3">
         <v>0.1</v>
       </c>
@@ -9205,7 +9549,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="389" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I389" s="3">
         <v>0.1</v>
       </c>
@@ -9219,7 +9563,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="390" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I390" s="3">
         <v>0.1</v>
       </c>
@@ -9251,4 +9595,787 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA0AF21-2B89-4B42-85C8-BE0729168F2D}">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:XFD371"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="34" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="33.44140625" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D8" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9"/>
+      <c r="N9" s="15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10"/>
+      <c r="N10" s="15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D11" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="G11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="16"/>
+      <c r="E12" s="13"/>
+      <c r="I12" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D13" s="16"/>
+      <c r="E13" s="13"/>
+      <c r="I13">
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D14" s="16"/>
+      <c r="I14">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14"/>
+      <c r="N14" s="15" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D15" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="G15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D16" s="16"/>
+      <c r="E16" s="13"/>
+      <c r="I16" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D17" s="16"/>
+      <c r="E17" s="13"/>
+      <c r="I17">
+        <v>0.1</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D18" s="16"/>
+      <c r="I18">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18"/>
+      <c r="N18" s="15" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="16"/>
+      <c r="I19"/>
+      <c r="J19" s="14"/>
+      <c r="L19"/>
+      <c r="N19" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="I4:N4"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5932790-B327-4914-B03E-BEB75590BBC1}">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="34" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="33.44140625" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" ref="D7" si="0">B7&amp;"_"&amp;C7</f>
+        <v>Timeline_PlayerManualSkill_1_1</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" ref="D9" si="1">B9&amp;"_"&amp;C9</f>
+        <v>Timeline_PlayerManualSkill_2_1</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" ref="D11" si="2">B11&amp;"_"&amp;C11</f>
+        <v>Timeline_PlayerManualSkill_3_1</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="G11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" ref="D13" si="3">B13&amp;"_"&amp;C13</f>
+        <v>Timeline_PlayerManualSkill_4_1</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="G13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="I4:N4"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/TimelineConfig/TimelineCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TimelineConfig/TimelineCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TimelineConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TimelineConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E26EF1-BA81-42A3-88A1-F5A5C394B2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAF443B-5F3E-4C82-8DD3-8721B6DFC867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="代码指定" sheetId="2" r:id="rId1"/>
@@ -18,23 +18,12 @@
     <sheet name="怪" sheetId="3" r:id="rId3"/>
     <sheet name="player技能" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="491">
   <si>
     <t>##var</t>
   </si>
@@ -1475,10 +1464,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>直线子弹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>PlayerManualSkill_2_1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1509,6 +1494,161 @@
   <si>
     <t>FireBullet_FireSea</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline_PlayerSkill_BreakArmor</t>
+  </si>
+  <si>
+    <t>Timeline_PlayerSkill_IceBind</t>
+  </si>
+  <si>
+    <t>Timeline_PlayerSkill_TimeBarrier</t>
+  </si>
+  <si>
+    <t>Timeline_PlayerSkill_PurifyWater</t>
+  </si>
+  <si>
+    <t>Timeline_PlayerSkill_Enhance</t>
+  </si>
+  <si>
+    <t>Timeline_PlayerSkill_Silence</t>
+  </si>
+  <si>
+    <t>Timeline_PlayerSkill_GoblinSummon</t>
+  </si>
+  <si>
+    <t>Timeline_PlayerSkill_Hellfire</t>
+  </si>
+  <si>
+    <t>Timeline_PlayerSkill_Blackhole</t>
+  </si>
+  <si>
+    <t>破甲弹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害敌方并降低护甲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜漩涡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结范围内的所有敌人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时空结界</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>创造结界，敌人大幅减速，友军大幅加速</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化药水</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱散敌人隐身、护盾等各种加成效果，并造成持续伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化子弹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时大幅强化一名友军并使其无敌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对静默</t>
+  </si>
+  <si>
+    <t>禁止范围内敌人使用任何技能，且造成持续伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林召唤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一个哥布林在一段时间内偷取敌人金钱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱烈焰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>降下大范围火焰，并留下火焰灼烧经过的敌人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑洞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续吸引大片敌人，造成生命上限的百分比伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_BreakArmor</t>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_IceBind</t>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_TimeBarrier</t>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_PurifyWater</t>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_Enhance</t>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_Silence</t>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_GoblinSummon</t>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_Hellfire</t>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_Blackhole</t>
+  </si>
+  <si>
+    <t>SelectObject_Self</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayAudio_BreakArmor_Fire</t>
+  </si>
+  <si>
+    <t>PlayAudio_IceBind_Fire</t>
+  </si>
+  <si>
+    <t>PlayAudio_TimeBarrier_Fire</t>
+  </si>
+  <si>
+    <t>追踪火球子弹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线火球子弹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_PlayerSkill_BreakArmor_Fire</t>
+  </si>
+  <si>
+    <t>EffectCreate_PlayerSkill_IceBind_Fire</t>
+  </si>
+  <si>
+    <t>EffectCreate_PlayerSkill_TimeBarrier_Fire</t>
   </si>
 </sst>
 </file>
@@ -2029,26 +2169,26 @@
       <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.625" style="3" customWidth="1"/>
     <col min="10" max="10" width="34" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="33.44140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="33.5" style="3" customWidth="1"/>
     <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2078,7 +2218,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2108,7 +2248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2126,7 +2266,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -2156,7 +2296,7 @@
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
     </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -2176,7 +2316,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -2220,7 +2360,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2256,7 +2396,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>33</v>
       </c>
@@ -2308,30 +2448,30 @@
   <dimension ref="A1:N390"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.625" style="3" customWidth="1"/>
     <col min="10" max="10" width="34" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="33.44140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="33.5" style="3" customWidth="1"/>
     <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2361,7 +2501,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2391,7 +2531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2409,7 +2549,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -2439,7 +2579,7 @@
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
     </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -2459,7 +2599,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -2503,7 +2643,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2537,7 +2677,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E8" s="6"/>
       <c r="J8" s="3" t="s">
         <v>41</v>
@@ -2549,7 +2689,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E9" s="6"/>
       <c r="I9" s="3">
         <v>1</v>
@@ -2564,7 +2704,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -2595,7 +2735,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E11" s="6"/>
       <c r="I11" s="3">
         <v>1</v>
@@ -2610,7 +2750,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>33</v>
       </c>
@@ -2641,7 +2781,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E13" s="6"/>
       <c r="I13" s="3">
         <v>0</v>
@@ -2656,7 +2796,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E14" s="6"/>
       <c r="I14" s="3">
         <v>1</v>
@@ -2671,7 +2811,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>33</v>
       </c>
@@ -2702,7 +2842,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E16" s="6"/>
       <c r="I16" s="3">
         <v>1</v>
@@ -2717,7 +2857,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
@@ -2748,7 +2888,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
@@ -2779,7 +2919,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
@@ -2810,7 +2950,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I20" s="3">
         <v>0.05</v>
       </c>
@@ -2827,7 +2967,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I21" s="3">
         <v>0.2</v>
       </c>
@@ -2841,7 +2981,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>33</v>
       </c>
@@ -2872,7 +3012,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I23" s="3">
         <v>0.05</v>
       </c>
@@ -2889,7 +3029,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I24" s="3">
         <v>0.1</v>
       </c>
@@ -2903,7 +3043,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I25" s="3">
         <v>0.2</v>
       </c>
@@ -2917,7 +3057,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>33</v>
       </c>
@@ -2948,7 +3088,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I27" s="3">
         <v>0.05</v>
       </c>
@@ -2965,7 +3105,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I28" s="3">
         <v>0.1</v>
       </c>
@@ -2979,7 +3119,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I29" s="3">
         <v>0.2</v>
       </c>
@@ -2993,7 +3133,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>33</v>
       </c>
@@ -3024,7 +3164,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I31" s="3">
         <v>0.05</v>
       </c>
@@ -3041,7 +3181,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I32" s="3">
         <v>0.1</v>
       </c>
@@ -3055,7 +3195,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I33" s="3">
         <v>0.2</v>
       </c>
@@ -3069,7 +3209,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>33</v>
       </c>
@@ -3100,7 +3240,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I35" s="3">
         <v>0.05</v>
       </c>
@@ -3117,7 +3257,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I36" s="3">
         <v>0.1</v>
       </c>
@@ -3131,7 +3271,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I37" s="3">
         <v>0.2</v>
       </c>
@@ -3145,14 +3285,14 @@
         <v>387</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D39" s="16"/>
       <c r="I39"/>
       <c r="J39" s="14"/>
       <c r="L39"/>
       <c r="N39" s="15"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>33</v>
       </c>
@@ -3188,7 +3328,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I41" s="3">
         <v>0.05</v>
       </c>
@@ -3205,7 +3345,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I42" s="3">
         <v>0.1</v>
       </c>
@@ -3219,7 +3359,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I43" s="3">
         <v>0.1</v>
       </c>
@@ -3233,7 +3373,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I44" s="3">
         <v>0.1</v>
       </c>
@@ -3247,7 +3387,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -3261,7 +3401,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>33</v>
       </c>
@@ -3297,7 +3437,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I47" s="3">
         <v>0.05</v>
       </c>
@@ -3314,7 +3454,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I48" s="3">
         <v>0.1</v>
       </c>
@@ -3328,7 +3468,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I49" s="3">
         <v>0.1</v>
       </c>
@@ -3342,7 +3482,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I50" s="3">
         <v>0.1</v>
       </c>
@@ -3356,7 +3496,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I51" s="3">
         <v>0</v>
       </c>
@@ -3370,7 +3510,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>33</v>
       </c>
@@ -3406,7 +3546,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I53" s="3">
         <v>0.05</v>
       </c>
@@ -3423,7 +3563,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I54" s="3">
         <v>0.1</v>
       </c>
@@ -3437,7 +3577,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I55" s="3">
         <v>0.1</v>
       </c>
@@ -3451,7 +3591,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I56" s="3">
         <v>0.1</v>
       </c>
@@ -3465,7 +3605,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I57" s="3">
         <v>0</v>
       </c>
@@ -3479,7 +3619,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
         <v>33</v>
       </c>
@@ -3515,7 +3655,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I59" s="3">
         <v>0.05</v>
       </c>
@@ -3532,7 +3672,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I60" s="3">
         <v>0.1</v>
       </c>
@@ -3546,7 +3686,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I61" s="3">
         <v>0.1</v>
       </c>
@@ -3560,7 +3700,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="J62" s="3" t="s">
         <v>83</v>
       </c>
@@ -3571,7 +3711,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I63" s="3">
         <v>0</v>
       </c>
@@ -3585,7 +3725,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
         <v>33</v>
       </c>
@@ -3621,7 +3761,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I65" s="3">
         <v>0.05</v>
       </c>
@@ -3638,7 +3778,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I66" s="3">
         <v>0.1</v>
       </c>
@@ -3652,7 +3792,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I67" s="3">
         <v>0.1</v>
       </c>
@@ -3666,7 +3806,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="J68" s="3" t="s">
         <v>87</v>
       </c>
@@ -3677,7 +3817,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I69" s="3">
         <v>0</v>
       </c>
@@ -3691,7 +3831,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
         <v>33</v>
       </c>
@@ -3727,7 +3867,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I71" s="3">
         <v>0.05</v>
       </c>
@@ -3744,7 +3884,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I72" s="3">
         <v>0.1</v>
       </c>
@@ -3758,7 +3898,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I73" s="3">
         <v>0.1</v>
       </c>
@@ -3772,7 +3912,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I74" s="3">
         <v>0.1</v>
       </c>
@@ -3786,7 +3926,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I75" s="3">
         <v>0</v>
       </c>
@@ -3800,7 +3940,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
         <v>33</v>
       </c>
@@ -3836,7 +3976,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I77" s="3">
         <v>0.05</v>
       </c>
@@ -3853,7 +3993,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I78" s="3">
         <v>0.1</v>
       </c>
@@ -3867,7 +4007,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
         <v>33</v>
       </c>
@@ -3903,7 +4043,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I80" s="3">
         <v>0.05</v>
       </c>
@@ -3920,7 +4060,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C81" s="13"/>
       <c r="I81" s="3">
         <v>0.1</v>
@@ -3935,7 +4075,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
         <v>33</v>
       </c>
@@ -3971,7 +4111,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I83" s="3">
         <v>0.05</v>
       </c>
@@ -3988,7 +4128,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I84" s="3">
         <v>0.1</v>
       </c>
@@ -4002,7 +4142,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
         <v>33</v>
       </c>
@@ -4038,7 +4178,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
         <v>33</v>
       </c>
@@ -4074,7 +4214,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
         <v>33</v>
       </c>
@@ -4110,7 +4250,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
         <v>33</v>
       </c>
@@ -4146,7 +4286,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I89" s="3">
         <v>0.05</v>
       </c>
@@ -4163,7 +4303,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I90" s="3">
         <v>0.1</v>
       </c>
@@ -4177,7 +4317,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I91" s="3">
         <v>0.1</v>
       </c>
@@ -4191,7 +4331,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
         <v>33</v>
       </c>
@@ -4227,7 +4367,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I93" s="3">
         <v>0.05</v>
       </c>
@@ -4244,7 +4384,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I94" s="3">
         <v>0.1</v>
       </c>
@@ -4258,7 +4398,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I95" s="3">
         <v>0.1</v>
       </c>
@@ -4272,7 +4412,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -4286,7 +4426,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
         <v>33</v>
       </c>
@@ -4322,7 +4462,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I98" s="3">
         <v>0.05</v>
       </c>
@@ -4339,7 +4479,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I99" s="3">
         <v>0.1</v>
       </c>
@@ -4353,7 +4493,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I100" s="3">
         <v>0.1</v>
       </c>
@@ -4367,7 +4507,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -4381,7 +4521,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B102" s="3" t="s">
         <v>33</v>
       </c>
@@ -4417,7 +4557,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I103" s="3">
         <v>0.05</v>
       </c>
@@ -4434,7 +4574,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I104" s="3">
         <v>0.1</v>
       </c>
@@ -4448,7 +4588,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I105" s="3">
         <v>0.1</v>
       </c>
@@ -4462,7 +4602,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I106" s="3">
         <v>0.3</v>
       </c>
@@ -4476,7 +4616,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I107" s="3">
         <v>0.3</v>
       </c>
@@ -4490,7 +4630,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I108" s="3">
         <v>0</v>
       </c>
@@ -4504,7 +4644,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
         <v>33</v>
       </c>
@@ -4540,7 +4680,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I110" s="3">
         <v>0</v>
       </c>
@@ -4554,7 +4694,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I111" s="3">
         <v>0</v>
       </c>
@@ -4568,7 +4708,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I112" s="3">
         <v>0</v>
       </c>
@@ -4582,7 +4722,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I113" s="3">
         <v>0</v>
       </c>
@@ -4596,7 +4736,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B114" s="3" t="s">
         <v>33</v>
       </c>
@@ -4632,7 +4772,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I115" s="3">
         <v>0</v>
       </c>
@@ -4646,7 +4786,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I116" s="3">
         <v>0</v>
       </c>
@@ -4660,7 +4800,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I117" s="3">
         <v>0</v>
       </c>
@@ -4674,7 +4814,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I118" s="3">
         <v>0</v>
       </c>
@@ -4688,7 +4828,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B119" s="3" t="s">
         <v>33</v>
       </c>
@@ -4724,7 +4864,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I120" s="3">
         <v>0</v>
       </c>
@@ -4738,7 +4878,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I121" s="3">
         <v>0</v>
       </c>
@@ -4752,7 +4892,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I122" s="3">
         <v>0</v>
       </c>
@@ -4766,7 +4906,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I123" s="3">
         <v>0</v>
       </c>
@@ -4780,7 +4920,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B124" s="3" t="s">
         <v>33</v>
       </c>
@@ -4816,7 +4956,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I125" s="3">
         <v>0.05</v>
       </c>
@@ -4833,7 +4973,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I126" s="3">
         <v>0.1</v>
       </c>
@@ -4847,7 +4987,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I127" s="3">
         <v>0.1</v>
       </c>
@@ -4861,7 +5001,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I128" s="3">
         <v>0</v>
       </c>
@@ -4875,7 +5015,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B129" s="3" t="s">
         <v>33</v>
       </c>
@@ -4911,7 +5051,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I130" s="3">
         <v>0.05</v>
       </c>
@@ -4928,7 +5068,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I131" s="3">
         <v>0.1</v>
       </c>
@@ -4942,7 +5082,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I132" s="3">
         <v>0.1</v>
       </c>
@@ -4956,7 +5096,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I133" s="3">
         <v>0</v>
       </c>
@@ -4970,7 +5110,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B134" s="3" t="s">
         <v>33</v>
       </c>
@@ -5006,7 +5146,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I135" s="3">
         <v>0.05</v>
       </c>
@@ -5023,7 +5163,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I136" s="3">
         <v>0.1</v>
       </c>
@@ -5037,7 +5177,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I137" s="3">
         <v>0.1</v>
       </c>
@@ -5051,7 +5191,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I138" s="3">
         <v>0</v>
       </c>
@@ -5065,7 +5205,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B139" s="3" t="s">
         <v>33</v>
       </c>
@@ -5100,7 +5240,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I140" s="3">
         <v>0</v>
       </c>
@@ -5114,7 +5254,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I141" s="3">
         <v>0.1</v>
       </c>
@@ -5128,7 +5268,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I142" s="3">
         <v>0.2</v>
       </c>
@@ -5142,7 +5282,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I143" s="3">
         <v>0.3</v>
       </c>
@@ -5156,7 +5296,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I144" s="3">
         <v>0.4</v>
       </c>
@@ -5170,7 +5310,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I145" s="3">
         <v>0.5</v>
       </c>
@@ -5184,7 +5324,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I146" s="3">
         <v>0</v>
       </c>
@@ -5198,7 +5338,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B147" s="3" t="s">
         <v>33</v>
       </c>
@@ -5233,7 +5373,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I148" s="3">
         <v>0</v>
       </c>
@@ -5247,7 +5387,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I149" s="3">
         <v>0.1</v>
       </c>
@@ -5261,7 +5401,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I150" s="3">
         <v>0.2</v>
       </c>
@@ -5275,7 +5415,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I151" s="3">
         <v>0.3</v>
       </c>
@@ -5289,7 +5429,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I152" s="3">
         <v>0.4</v>
       </c>
@@ -5303,7 +5443,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I153" s="3">
         <v>0.5</v>
       </c>
@@ -5317,7 +5457,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I154" s="3">
         <v>0</v>
       </c>
@@ -5331,7 +5471,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B155" s="3" t="s">
         <v>33</v>
       </c>
@@ -5366,7 +5506,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I156" s="3">
         <v>0</v>
       </c>
@@ -5380,7 +5520,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I157" s="3">
         <v>0.1</v>
       </c>
@@ -5394,7 +5534,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I158" s="3">
         <v>0.2</v>
       </c>
@@ -5408,7 +5548,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I159" s="3">
         <v>0.3</v>
       </c>
@@ -5422,7 +5562,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I160" s="3">
         <v>0.4</v>
       </c>
@@ -5436,7 +5576,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I161" s="3">
         <v>0.5</v>
       </c>
@@ -5450,7 +5590,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I162" s="3">
         <v>0.15</v>
       </c>
@@ -5464,7 +5604,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I163" s="3">
         <v>0.25</v>
       </c>
@@ -5478,7 +5618,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I164" s="3">
         <v>0.35</v>
       </c>
@@ -5492,7 +5632,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I165" s="3">
         <v>0</v>
       </c>
@@ -5506,7 +5646,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B166" s="3" t="s">
         <v>33</v>
       </c>
@@ -5541,7 +5681,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I167" s="3">
         <v>0.05</v>
       </c>
@@ -5558,7 +5698,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I168" s="3">
         <v>0.1</v>
       </c>
@@ -5572,7 +5712,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I169" s="3">
         <v>0.1</v>
       </c>
@@ -5586,7 +5726,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I170" s="3">
         <v>0.1</v>
       </c>
@@ -5600,7 +5740,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I171" s="3">
         <v>0</v>
       </c>
@@ -5614,7 +5754,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B172" s="3" t="s">
         <v>33</v>
       </c>
@@ -5649,7 +5789,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I173" s="3">
         <v>0.05</v>
       </c>
@@ -5666,7 +5806,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I174" s="3">
         <v>0.1</v>
       </c>
@@ -5680,7 +5820,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I175" s="3">
         <v>0.1</v>
       </c>
@@ -5694,7 +5834,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I176" s="3">
         <v>0.1</v>
       </c>
@@ -5708,7 +5848,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I177" s="3">
         <v>0</v>
       </c>
@@ -5722,7 +5862,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B178" s="3" t="s">
         <v>33</v>
       </c>
@@ -5757,7 +5897,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I179" s="3">
         <v>0.05</v>
       </c>
@@ -5774,7 +5914,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I180" s="3">
         <v>0.1</v>
       </c>
@@ -5788,7 +5928,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I181" s="3">
         <v>0.1</v>
       </c>
@@ -5802,7 +5942,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I182" s="3">
         <v>0.1</v>
       </c>
@@ -5816,7 +5956,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I183" s="3">
         <v>0</v>
       </c>
@@ -5830,7 +5970,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B184" s="3" t="s">
         <v>33</v>
       </c>
@@ -5866,7 +6006,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I185" s="3">
         <v>0.1</v>
       </c>
@@ -5880,7 +6020,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B186" s="3" t="s">
         <v>33</v>
       </c>
@@ -5916,7 +6056,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I187" s="3">
         <v>0.1</v>
       </c>
@@ -5930,7 +6070,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B188" s="3" t="s">
         <v>33</v>
       </c>
@@ -5966,7 +6106,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I189" s="3">
         <v>0.1</v>
       </c>
@@ -5980,7 +6120,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B190" s="3" t="s">
         <v>33</v>
       </c>
@@ -6015,7 +6155,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E191" s="11"/>
       <c r="I191" s="3">
         <v>0.05</v>
@@ -6033,7 +6173,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E192" s="11"/>
       <c r="I192" s="3">
         <v>0.1</v>
@@ -6048,7 +6188,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I193" s="3">
         <v>0.1</v>
       </c>
@@ -6062,7 +6202,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I194" s="3">
         <v>0.1</v>
       </c>
@@ -6076,7 +6216,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I195" s="3">
         <v>0</v>
       </c>
@@ -6090,7 +6230,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B196" s="3" t="s">
         <v>33</v>
       </c>
@@ -6125,7 +6265,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E197" s="11"/>
       <c r="I197" s="3">
         <v>0.05</v>
@@ -6143,7 +6283,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E198" s="11"/>
       <c r="I198" s="3">
         <v>0.1</v>
@@ -6158,7 +6298,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I199" s="3">
         <v>0.1</v>
       </c>
@@ -6172,7 +6312,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I200" s="3">
         <v>0.1</v>
       </c>
@@ -6186,7 +6326,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I201" s="3">
         <v>0</v>
       </c>
@@ -6200,7 +6340,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B202" s="3" t="s">
         <v>33</v>
       </c>
@@ -6235,7 +6375,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E203" s="11"/>
       <c r="I203" s="3">
         <v>0.05</v>
@@ -6253,7 +6393,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E204" s="11"/>
       <c r="I204" s="3">
         <v>0.1</v>
@@ -6268,7 +6408,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I205" s="3">
         <v>0.1</v>
       </c>
@@ -6282,7 +6422,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I206" s="3">
         <v>0.1</v>
       </c>
@@ -6296,7 +6436,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I207" s="3">
         <v>0</v>
       </c>
@@ -6310,7 +6450,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B208" s="3" t="s">
         <v>33</v>
       </c>
@@ -6345,7 +6485,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I209" s="3">
         <v>0.05</v>
       </c>
@@ -6362,7 +6502,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I210" s="3">
         <v>0.1</v>
       </c>
@@ -6376,7 +6516,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="211" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I211" s="3">
         <v>0.1</v>
       </c>
@@ -6390,7 +6530,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I212" s="3">
         <v>0.1</v>
       </c>
@@ -6404,7 +6544,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I213" s="3">
         <v>0</v>
       </c>
@@ -6418,7 +6558,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B214" s="3" t="s">
         <v>33</v>
       </c>
@@ -6453,7 +6593,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="215" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I215" s="3">
         <v>0.05</v>
       </c>
@@ -6470,7 +6610,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I216" s="3">
         <v>0.1</v>
       </c>
@@ -6484,7 +6624,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I217" s="3">
         <v>0.1</v>
       </c>
@@ -6498,7 +6638,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I218" s="3">
         <v>0.1</v>
       </c>
@@ -6512,7 +6652,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I219" s="3">
         <v>0</v>
       </c>
@@ -6526,7 +6666,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B220" s="3" t="s">
         <v>33</v>
       </c>
@@ -6561,7 +6701,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I221" s="3">
         <v>0.05</v>
       </c>
@@ -6578,7 +6718,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I222" s="3">
         <v>0.1</v>
       </c>
@@ -6592,7 +6732,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I223" s="3">
         <v>0.1</v>
       </c>
@@ -6606,7 +6746,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I224" s="3">
         <v>0.1</v>
       </c>
@@ -6620,7 +6760,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="225" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I225" s="3">
         <v>0</v>
       </c>
@@ -6634,7 +6774,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="226" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B226" s="3" t="s">
         <v>33</v>
       </c>
@@ -6669,7 +6809,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="227" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E227" s="11"/>
       <c r="I227" s="3">
         <v>0.05</v>
@@ -6687,7 +6827,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="228" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E228" s="11"/>
       <c r="I228" s="3">
         <v>0.1</v>
@@ -6702,7 +6842,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="229" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I229" s="3">
         <v>0.1</v>
       </c>
@@ -6716,7 +6856,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="230" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I230" s="3">
         <v>0.1</v>
       </c>
@@ -6730,7 +6870,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="231" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I231" s="3">
         <v>0</v>
       </c>
@@ -6744,7 +6884,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="232" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B232" s="3" t="s">
         <v>33</v>
       </c>
@@ -6779,7 +6919,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="233" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E233" s="11"/>
       <c r="I233" s="3">
         <v>0.05</v>
@@ -6797,7 +6937,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="234" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E234" s="11"/>
       <c r="I234" s="3">
         <v>0.1</v>
@@ -6812,7 +6952,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="235" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I235" s="3">
         <v>0.1</v>
       </c>
@@ -6826,7 +6966,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="236" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I236" s="3">
         <v>0.1</v>
       </c>
@@ -6840,7 +6980,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="237" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I237" s="3">
         <v>0</v>
       </c>
@@ -6854,7 +6994,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="238" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B238" s="3" t="s">
         <v>33</v>
       </c>
@@ -6889,7 +7029,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="239" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E239" s="11"/>
       <c r="I239" s="3">
         <v>0.05</v>
@@ -6907,7 +7047,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="240" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E240" s="11"/>
       <c r="I240" s="3">
         <v>0.1</v>
@@ -6922,7 +7062,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="241" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I241" s="3">
         <v>0.1</v>
       </c>
@@ -6936,7 +7076,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="242" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I242" s="3">
         <v>0.1</v>
       </c>
@@ -6950,7 +7090,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="243" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I243" s="3">
         <v>0</v>
       </c>
@@ -6964,7 +7104,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="244" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B244" s="11" t="s">
         <v>33</v>
       </c>
@@ -6999,7 +7139,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="245" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I245" s="3">
         <v>0</v>
       </c>
@@ -7013,7 +7153,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="246" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I246" s="3">
         <v>0</v>
       </c>
@@ -7027,7 +7167,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="247" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I247" s="3">
         <v>0</v>
       </c>
@@ -7041,7 +7181,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="248" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B248" s="11" t="s">
         <v>33</v>
       </c>
@@ -7076,7 +7216,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="249" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I249" s="3">
         <v>0</v>
       </c>
@@ -7090,7 +7230,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="250" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:14" x14ac:dyDescent="0.2">
       <c r="J250" s="3" t="s">
         <v>253</v>
       </c>
@@ -7101,7 +7241,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="251" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I251" s="3">
         <v>0</v>
       </c>
@@ -7115,7 +7255,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="252" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B252" s="11" t="s">
         <v>33</v>
       </c>
@@ -7150,7 +7290,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="253" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I253" s="3">
         <v>0</v>
       </c>
@@ -7164,7 +7304,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="254" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I254" s="3">
         <v>0</v>
       </c>
@@ -7178,7 +7318,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="255" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I255" s="3">
         <v>0</v>
       </c>
@@ -7192,7 +7332,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="256" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B256" s="11" t="s">
         <v>33</v>
       </c>
@@ -7227,7 +7367,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="257" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I257" s="3">
         <v>0.05</v>
       </c>
@@ -7244,7 +7384,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="258" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I258" s="3">
         <v>0.1</v>
       </c>
@@ -7258,7 +7398,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="259" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I259" s="3">
         <v>0.1</v>
       </c>
@@ -7272,7 +7412,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="260" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I260" s="3">
         <v>0.1</v>
       </c>
@@ -7286,7 +7426,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="261" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I261" s="3">
         <v>0</v>
       </c>
@@ -7300,7 +7440,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="262" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B262" s="11" t="s">
         <v>33</v>
       </c>
@@ -7335,7 +7475,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="263" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I263" s="3">
         <v>0.05</v>
       </c>
@@ -7352,7 +7492,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="264" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I264" s="3">
         <v>0.1</v>
       </c>
@@ -7366,7 +7506,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="265" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I265" s="3">
         <v>0.1</v>
       </c>
@@ -7380,7 +7520,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="266" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I266" s="3">
         <v>0.1</v>
       </c>
@@ -7394,7 +7534,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="267" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I267" s="3">
         <v>0</v>
       </c>
@@ -7408,7 +7548,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="268" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B268" s="11" t="s">
         <v>33</v>
       </c>
@@ -7443,7 +7583,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="269" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I269" s="3">
         <v>0.05</v>
       </c>
@@ -7460,7 +7600,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="270" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I270" s="3">
         <v>0.1</v>
       </c>
@@ -7474,7 +7614,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="271" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I271" s="3">
         <v>0.1</v>
       </c>
@@ -7488,7 +7628,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="272" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I272" s="3">
         <v>0.1</v>
       </c>
@@ -7502,7 +7642,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="273" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I273" s="3">
         <v>0</v>
       </c>
@@ -7516,7 +7656,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="274" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B274" s="3" t="s">
         <v>33</v>
       </c>
@@ -7551,7 +7691,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="275" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I275" s="3">
         <v>0.05</v>
       </c>
@@ -7568,7 +7708,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="276" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I276" s="3">
         <v>0.1</v>
       </c>
@@ -7582,7 +7722,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="277" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I277" s="3">
         <v>0.1</v>
       </c>
@@ -7596,7 +7736,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="278" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I278" s="3">
         <v>0.1</v>
       </c>
@@ -7610,7 +7750,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="279" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I279" s="3">
         <v>0.1</v>
       </c>
@@ -7624,7 +7764,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="280" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I280" s="3">
         <v>0</v>
       </c>
@@ -7638,7 +7778,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="281" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B281" s="3" t="s">
         <v>33</v>
       </c>
@@ -7673,7 +7813,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="282" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I282" s="3">
         <v>0.05</v>
       </c>
@@ -7690,7 +7830,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="283" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I283" s="3">
         <v>0.1</v>
       </c>
@@ -7704,7 +7844,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="284" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I284" s="3">
         <v>0.1</v>
       </c>
@@ -7718,7 +7858,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="285" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I285" s="3">
         <v>0.1</v>
       </c>
@@ -7732,7 +7872,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="286" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I286" s="3">
         <v>0.1</v>
       </c>
@@ -7746,7 +7886,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="287" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I287" s="3">
         <v>0</v>
       </c>
@@ -7760,7 +7900,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="288" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B288" s="3" t="s">
         <v>33</v>
       </c>
@@ -7795,7 +7935,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="289" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I289" s="3">
         <v>0.05</v>
       </c>
@@ -7812,7 +7952,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="290" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I290" s="3">
         <v>0.1</v>
       </c>
@@ -7826,7 +7966,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="291" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I291" s="3">
         <v>0.1</v>
       </c>
@@ -7840,7 +7980,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="292" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I292" s="3">
         <v>0.1</v>
       </c>
@@ -7854,7 +7994,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="293" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I293" s="3">
         <v>0.1</v>
       </c>
@@ -7868,7 +8008,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="294" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I294" s="3">
         <v>0</v>
       </c>
@@ -7882,7 +8022,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="295" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B295" s="3" t="s">
         <v>33</v>
       </c>
@@ -7917,7 +8057,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="296" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I296" s="3">
         <v>0.05</v>
       </c>
@@ -7934,7 +8074,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="297" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I297" s="3">
         <v>0.1</v>
       </c>
@@ -7948,7 +8088,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="298" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I298" s="3">
         <v>0.1</v>
       </c>
@@ -7962,7 +8102,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="299" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I299" s="3">
         <v>0.1</v>
       </c>
@@ -7976,7 +8116,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="300" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I300" s="3">
         <v>0</v>
       </c>
@@ -7990,7 +8130,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="301" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B301" s="3" t="s">
         <v>33</v>
       </c>
@@ -8025,7 +8165,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="302" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I302" s="3">
         <v>0.05</v>
       </c>
@@ -8042,7 +8182,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="303" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I303" s="3">
         <v>0.1</v>
       </c>
@@ -8056,7 +8196,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="304" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I304" s="3">
         <v>0.1</v>
       </c>
@@ -8070,7 +8210,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="305" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I305" s="3">
         <v>0.1</v>
       </c>
@@ -8084,7 +8224,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="306" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I306" s="3">
         <v>0</v>
       </c>
@@ -8098,7 +8238,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="307" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B307" s="3" t="s">
         <v>33</v>
       </c>
@@ -8133,7 +8273,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="308" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I308" s="3">
         <v>0.05</v>
       </c>
@@ -8150,7 +8290,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="309" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I309" s="3">
         <v>0.1</v>
       </c>
@@ -8164,7 +8304,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="310" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I310" s="3">
         <v>0.1</v>
       </c>
@@ -8178,7 +8318,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="311" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I311" s="3">
         <v>0.1</v>
       </c>
@@ -8192,7 +8332,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="312" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I312" s="3">
         <v>0</v>
       </c>
@@ -8206,7 +8346,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="313" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B313" s="3" t="s">
         <v>33</v>
       </c>
@@ -8241,7 +8381,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="314" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I314" s="3">
         <v>0.05</v>
       </c>
@@ -8258,7 +8398,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="315" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I315" s="3">
         <v>0.1</v>
       </c>
@@ -8272,7 +8412,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="316" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I316" s="3">
         <v>0.1</v>
       </c>
@@ -8286,7 +8426,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="317" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I317" s="3">
         <v>0.1</v>
       </c>
@@ -8300,7 +8440,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="318" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I318" s="3">
         <v>0</v>
       </c>
@@ -8314,7 +8454,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="319" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B319" s="3" t="s">
         <v>33</v>
       </c>
@@ -8349,7 +8489,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="320" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I320" s="3">
         <v>0.05</v>
       </c>
@@ -8366,7 +8506,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="321" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I321" s="3">
         <v>0.1</v>
       </c>
@@ -8380,7 +8520,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="322" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I322" s="3">
         <v>0.1</v>
       </c>
@@ -8394,7 +8534,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="323" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I323" s="3">
         <v>0.1</v>
       </c>
@@ -8408,7 +8548,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="324" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I324" s="3">
         <v>0</v>
       </c>
@@ -8422,7 +8562,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="325" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B325" s="3" t="s">
         <v>33</v>
       </c>
@@ -8457,7 +8597,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="326" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I326" s="3">
         <v>0.05</v>
       </c>
@@ -8474,7 +8614,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="327" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I327" s="3">
         <v>0.1</v>
       </c>
@@ -8488,7 +8628,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="328" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I328" s="3">
         <v>0.1</v>
       </c>
@@ -8502,7 +8642,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="329" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I329" s="3">
         <v>0.1</v>
       </c>
@@ -8516,7 +8656,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="330" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I330" s="3">
         <v>0.3</v>
       </c>
@@ -8530,7 +8670,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="331" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I331" s="3">
         <v>0.3</v>
       </c>
@@ -8544,7 +8684,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="332" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I332" s="3">
         <v>0.3</v>
       </c>
@@ -8558,7 +8698,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="333" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I333" s="3">
         <v>0</v>
       </c>
@@ -8572,7 +8712,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="334" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B334" s="3" t="s">
         <v>33</v>
       </c>
@@ -8607,7 +8747,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="335" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I335" s="3">
         <v>0.05</v>
       </c>
@@ -8624,7 +8764,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="336" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I336" s="3">
         <v>0.1</v>
       </c>
@@ -8638,7 +8778,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="337" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I337" s="3">
         <v>0.1</v>
       </c>
@@ -8652,7 +8792,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="338" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I338" s="3">
         <v>0.1</v>
       </c>
@@ -8666,7 +8806,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="339" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I339" s="3">
         <v>0</v>
       </c>
@@ -8680,7 +8820,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="340" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B340" s="3" t="s">
         <v>33</v>
       </c>
@@ -8715,7 +8855,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="341" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I341" s="3">
         <v>0.05</v>
       </c>
@@ -8732,7 +8872,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="342" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I342" s="3">
         <v>0.1</v>
       </c>
@@ -8746,7 +8886,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="343" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I343" s="3">
         <v>0.1</v>
       </c>
@@ -8760,7 +8900,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="344" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I344" s="3">
         <v>0.1</v>
       </c>
@@ -8774,7 +8914,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="345" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I345" s="3">
         <v>0</v>
       </c>
@@ -8788,7 +8928,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="346" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B346" s="3" t="s">
         <v>33</v>
       </c>
@@ -8823,7 +8963,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="347" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I347" s="3">
         <v>0.05</v>
       </c>
@@ -8840,7 +8980,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="348" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I348" s="3">
         <v>0.1</v>
       </c>
@@ -8854,7 +8994,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="349" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I349" s="3">
         <v>0.1</v>
       </c>
@@ -8868,7 +9008,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="350" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I350" s="3">
         <v>0.1</v>
       </c>
@@ -8882,7 +9022,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="351" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I351" s="3">
         <v>0</v>
       </c>
@@ -8896,7 +9036,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="352" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B352" s="3" t="s">
         <v>33</v>
       </c>
@@ -8931,7 +9071,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="353" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I353" s="3">
         <v>0</v>
       </c>
@@ -8945,7 +9085,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="354" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I354" s="3">
         <v>0</v>
       </c>
@@ -8959,7 +9099,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="355" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I355" s="3">
         <v>0.5</v>
       </c>
@@ -8973,7 +9113,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="356" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I356" s="3">
         <v>0.5</v>
       </c>
@@ -8987,7 +9127,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="357" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I357" s="3">
         <v>0.5</v>
       </c>
@@ -9001,7 +9141,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="358" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I358" s="3">
         <v>0.5</v>
       </c>
@@ -9015,7 +9155,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="359" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B359" s="3" t="s">
         <v>33</v>
       </c>
@@ -9050,7 +9190,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="360" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I360" s="3">
         <v>0</v>
       </c>
@@ -9064,7 +9204,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="361" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I361" s="3">
         <v>0</v>
       </c>
@@ -9078,7 +9218,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="362" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I362" s="3">
         <v>0.5</v>
       </c>
@@ -9092,7 +9232,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="363" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I363" s="3">
         <v>0.5</v>
       </c>
@@ -9106,7 +9246,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="364" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I364" s="3">
         <v>0.5</v>
       </c>
@@ -9120,7 +9260,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="365" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I365" s="3">
         <v>0.5</v>
       </c>
@@ -9134,7 +9274,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="366" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B366" s="3" t="s">
         <v>33</v>
       </c>
@@ -9169,7 +9309,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="367" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I367" s="3">
         <v>0</v>
       </c>
@@ -9183,7 +9323,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="368" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I368" s="3">
         <v>0</v>
       </c>
@@ -9197,7 +9337,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="369" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I369" s="3">
         <v>0.5</v>
       </c>
@@ -9211,7 +9351,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="370" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I370" s="3">
         <v>0.5</v>
       </c>
@@ -9225,7 +9365,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="371" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I371" s="3">
         <v>0.5</v>
       </c>
@@ -9239,7 +9379,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="372" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I372" s="3">
         <v>0.5</v>
       </c>
@@ -9253,7 +9393,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="373" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B373" s="11" t="s">
         <v>33</v>
       </c>
@@ -9288,7 +9428,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="374" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I374" s="3">
         <v>0.05</v>
       </c>
@@ -9305,7 +9445,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="375" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I375" s="3">
         <v>0.1</v>
       </c>
@@ -9319,7 +9459,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="376" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I376" s="3">
         <v>0.1</v>
       </c>
@@ -9333,7 +9473,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="377" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I377" s="3">
         <v>0.1</v>
       </c>
@@ -9347,7 +9487,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="378" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I378" s="3">
         <v>0.1</v>
       </c>
@@ -9361,7 +9501,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="379" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B379" s="11" t="s">
         <v>33</v>
       </c>
@@ -9396,7 +9536,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="380" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I380" s="3">
         <v>0.05</v>
       </c>
@@ -9413,7 +9553,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="381" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I381" s="3">
         <v>0.1</v>
       </c>
@@ -9427,7 +9567,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="382" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I382" s="3">
         <v>0.1</v>
       </c>
@@ -9441,7 +9581,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="383" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I383" s="3">
         <v>0.1</v>
       </c>
@@ -9455,7 +9595,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="384" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I384" s="3">
         <v>0.1</v>
       </c>
@@ -9469,7 +9609,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="385" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B385" s="11" t="s">
         <v>33</v>
       </c>
@@ -9504,7 +9644,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="386" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I386" s="3">
         <v>0.05</v>
       </c>
@@ -9521,7 +9661,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="387" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I387" s="3">
         <v>0.1</v>
       </c>
@@ -9535,7 +9675,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I388" s="3">
         <v>0.1</v>
       </c>
@@ -9549,7 +9689,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="389" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I389" s="3">
         <v>0.1</v>
       </c>
@@ -9563,7 +9703,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="390" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I390" s="3">
         <v>0.1</v>
       </c>
@@ -9602,30 +9742,30 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20:XFD371"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.625" style="3" customWidth="1"/>
     <col min="10" max="10" width="34" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="33.44140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="33.5" style="3" customWidth="1"/>
     <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -9655,7 +9795,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -9685,7 +9825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -9703,7 +9843,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -9733,7 +9873,7 @@
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
     </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -9753,7 +9893,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -9797,7 +9937,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D8" s="16" t="s">
         <v>423</v>
       </c>
@@ -9823,7 +9963,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I9">
         <v>0</v>
       </c>
@@ -9838,7 +9978,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I10">
         <v>0</v>
       </c>
@@ -9853,7 +9993,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D11" s="16" t="s">
         <v>428</v>
       </c>
@@ -9879,7 +10019,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D12" s="16"/>
       <c r="E12" s="13"/>
       <c r="I12" s="3">
@@ -9898,7 +10038,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D13" s="16"/>
       <c r="E13" s="13"/>
       <c r="I13">
@@ -9914,7 +10054,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D14" s="16"/>
       <c r="I14">
         <v>0.5</v>
@@ -9930,7 +10070,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D15" s="16" t="s">
         <v>432</v>
       </c>
@@ -9956,7 +10096,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="16"/>
       <c r="E16" s="13"/>
       <c r="I16" s="3">
@@ -9975,7 +10115,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D17" s="16"/>
       <c r="E17" s="13"/>
       <c r="I17">
@@ -9991,7 +10131,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D18" s="16"/>
       <c r="I18">
         <v>0.5</v>
@@ -10007,7 +10147,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D19" s="16"/>
       <c r="I19"/>
       <c r="J19" s="14"/>
@@ -10027,33 +10167,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5932790-B327-4914-B03E-BEB75590BBC1}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.625" style="3" customWidth="1"/>
     <col min="10" max="10" width="34" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="33.44140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="33.5" style="3" customWidth="1"/>
     <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -10083,7 +10223,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -10113,7 +10253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -10131,7 +10271,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -10161,7 +10301,7 @@
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
     </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -10181,7 +10321,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -10225,147 +10365,501 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>446</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>473</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D8"/>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D9"/>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>447</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="G10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>474</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D11"/>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D12"/>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>448</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="G13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>475</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D14"/>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D15"/>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>449</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="G16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>476</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>450</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="G17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>477</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>451</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="G18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>478</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>452</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="G19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>479</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>453</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="G20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>480</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>454</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="G21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>481</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="D7" s="3" t="str">
-        <f t="shared" ref="D7" si="0">B7&amp;"_"&amp;C7</f>
+      <c r="D23" s="3" t="str">
+        <f t="shared" ref="D23" si="0">B23&amp;"_"&amp;C23</f>
         <v>Timeline_PlayerManualSkill_1_1</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E23" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F23" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="G23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="G7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="D25" s="3" t="str">
+        <f t="shared" ref="D25" si="1">B25&amp;"_"&amp;C25</f>
+        <v>Timeline_PlayerManualSkill_2_1</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="G25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J7" s="13" t="s">
+      <c r="I25" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J25" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C27" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="D27" s="3" t="str">
+        <f t="shared" ref="D27" si="2">B27&amp;"_"&amp;C27</f>
+        <v>Timeline_PlayerManualSkill_3_1</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="D9" s="3" t="str">
-        <f t="shared" ref="D9" si="1">B9&amp;"_"&amp;C9</f>
-        <v>Timeline_PlayerManualSkill_2_1</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="F27" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="G9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>1</v>
       </c>
-      <c r="I9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="I27" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="D11" s="3" t="str">
-        <f t="shared" ref="D11" si="2">B11&amp;"_"&amp;C11</f>
-        <v>Timeline_PlayerManualSkill_3_1</v>
-      </c>
-      <c r="E11" s="13" t="s">
+      <c r="D29" s="3" t="str">
+        <f t="shared" ref="D29" si="3">B29&amp;"_"&amp;C29</f>
+        <v>Timeline_PlayerManualSkill_4_1</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="G11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="G29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>1</v>
       </c>
-      <c r="I11" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="I29" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="D13" s="3" t="str">
-        <f t="shared" ref="D13" si="3">B13&amp;"_"&amp;C13</f>
-        <v>Timeline_PlayerManualSkill_4_1</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="G13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3" t="s">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>387</v>
       </c>
     </row>
